--- a/neurona_calc.xlsx
+++ b/neurona_calc.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="18915" windowHeight="7230" activeTab="1"/>
@@ -10,12 +10,12 @@
     <sheet name="multiplicacion" sheetId="2" r:id="rId1"/>
     <sheet name="redNeuronal" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3047" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3049" uniqueCount="163">
   <si>
     <t>X</t>
   </si>
@@ -499,16 +499,22 @@
   <si>
     <t>SE VE COMO REDUCE EL ERROR: LOSS, AJUSTANDO LOS PESOS</t>
   </si>
+  <si>
+    <t>1ra capa</t>
+  </si>
+  <si>
+    <t>2da capa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="171" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;?_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;?_ ;_ @_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -549,7 +555,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -649,6 +655,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,10 +1207,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1420,10 +1432,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1441,24 +1453,24 @@
     <xf numFmtId="3" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="8" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1469,7 +1481,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1490,7 +1502,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
@@ -1515,7 +1527,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1525,7 +1537,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="17" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1533,7 +1545,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="17" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1542,9 +1554,15 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="36" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="17" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -2790,7 +2808,7 @@
   <dimension ref="A1:GV225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3143,10 +3161,61 @@
       </c>
       <c r="FX4" s="136"/>
     </row>
-    <row r="5" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:199" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>94</v>
       </c>
+      <c r="H5" s="159" t="s">
+        <v>161</v>
+      </c>
+      <c r="I5" s="160"/>
+      <c r="J5" s="160"/>
+      <c r="K5" s="160"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="160"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="160"/>
+      <c r="Q5" s="160"/>
+      <c r="R5" s="160"/>
+      <c r="S5" s="160"/>
+      <c r="T5" s="160"/>
+      <c r="U5" s="160"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160"/>
+      <c r="X5" s="160"/>
+      <c r="Y5" s="160"/>
+      <c r="Z5" s="160"/>
+      <c r="AA5" s="160"/>
+      <c r="AB5" s="160"/>
+      <c r="AC5" s="160"/>
+      <c r="AD5" s="160"/>
+      <c r="AE5" s="160"/>
+      <c r="AF5" s="160"/>
+      <c r="AG5" s="160"/>
+      <c r="AH5" s="160"/>
+      <c r="AI5" s="160"/>
+      <c r="AJ5" s="161"/>
+      <c r="AK5" s="156" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL5" s="157"/>
+      <c r="AM5" s="157"/>
+      <c r="AN5" s="157"/>
+      <c r="AO5" s="157"/>
+      <c r="AP5" s="157"/>
+      <c r="AQ5" s="157"/>
+      <c r="AR5" s="157"/>
+      <c r="AS5" s="157"/>
+      <c r="AT5" s="157"/>
+      <c r="AU5" s="157"/>
+      <c r="AV5" s="157"/>
+      <c r="AW5" s="157"/>
+      <c r="AX5" s="157"/>
+      <c r="AY5" s="157"/>
+      <c r="AZ5" s="157"/>
+      <c r="BA5" s="157"/>
+      <c r="BB5" s="158"/>
       <c r="BK5" t="s">
         <v>57</v>
       </c>
@@ -3847,15 +3916,15 @@
         <v>24</v>
       </c>
       <c r="DM7" s="108">
-        <f>BY7</f>
+        <f t="shared" ref="DM7:DO8" si="2">BY7</f>
         <v>1.6110490967518616</v>
       </c>
       <c r="DN7" s="108">
-        <f>BZ7</f>
+        <f t="shared" si="2"/>
         <v>-2.1252458346400216</v>
       </c>
       <c r="DO7" s="108">
-        <f>CA7</f>
+        <f t="shared" si="2"/>
         <v>-2.0187855250654829</v>
       </c>
       <c r="DQ7" s="1" t="s">
@@ -3866,11 +3935,11 @@
         <v>0.22238682163112961</v>
       </c>
       <c r="DS7" s="109">
-        <f t="shared" ref="DS7:DT12" si="2">AI7*(1-AI7)</f>
+        <f t="shared" ref="DS7:DT12" si="3">AI7*(1-AI7)</f>
         <v>6.5835342021828081E-3</v>
       </c>
       <c r="DT7" s="109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.5261616840103637E-2</v>
       </c>
       <c r="DU7" s="1"/>
@@ -3878,15 +3947,15 @@
         <v>24</v>
       </c>
       <c r="DW7" s="86">
-        <f>DM7*DR7</f>
+        <f t="shared" ref="DW7:DY8" si="4">DM7*DR7</f>
         <v>0.35827608811834871</v>
       </c>
       <c r="DX7" s="86">
-        <f>DN7*DS7</f>
+        <f t="shared" si="4"/>
         <v>-1.399162864039913E-2</v>
       </c>
       <c r="DY7" s="86">
-        <f>DO7*DT7</f>
+        <f t="shared" si="4"/>
         <v>-5.0997786416551665E-2</v>
       </c>
       <c r="EA7" t="s">
@@ -3960,15 +4029,15 @@
         <v>27</v>
       </c>
       <c r="EW7" s="24">
-        <f>I7-ER7</f>
+        <f t="shared" ref="EW7:EY8" si="5">I7-ER7</f>
         <v>9.0168809586348377</v>
       </c>
       <c r="EX7" s="24">
-        <f>J7-ES7</f>
+        <f t="shared" si="5"/>
         <v>1.8529556744987836</v>
       </c>
       <c r="EY7" s="24">
-        <f>K7-ET7</f>
+        <f t="shared" si="5"/>
         <v>2.6921231203697018</v>
       </c>
       <c r="EZ7" s="1"/>
@@ -3996,11 +4065,11 @@
         <v>1.2851256046239842E-4</v>
       </c>
       <c r="FH7" s="86">
-        <f t="shared" ref="FH7:FI7" si="3">FC7</f>
+        <f t="shared" ref="FH7:FI7" si="6">FC7</f>
         <v>-6.9142249003632678E-6</v>
       </c>
       <c r="FI7" s="86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-6.9139195912692065E-4</v>
       </c>
       <c r="FJ7" s="1"/>
@@ -4144,15 +4213,15 @@
       <c r="AF8" s="22"/>
       <c r="AG8" s="22"/>
       <c r="AH8" s="99">
-        <f t="shared" ref="AH8:AH12" si="4">1/(1+2.71828182845904^(X8*-1))</f>
+        <f t="shared" ref="AH8:AH12" si="7">1/(1+2.71828182845904^(X8*-1))</f>
         <v>0.98673654874701544</v>
       </c>
       <c r="AI8" s="99">
-        <f t="shared" ref="AI8:AI12" si="5">1/(1+2.71828182845904^(Y8*-1))</f>
+        <f t="shared" ref="AI8:AI12" si="8">1/(1+2.71828182845904^(Y8*-1))</f>
         <v>9.4984082923043126E-3</v>
       </c>
       <c r="AJ8" s="99">
-        <f t="shared" ref="AJ8:AJ12" si="6">1/(1+2.71828182845904^(Z8*-1))</f>
+        <f t="shared" ref="AJ8:AJ12" si="9">1/(1+2.71828182845904^(Z8*-1))</f>
         <v>0.27033534940280518</v>
       </c>
       <c r="AK8" s="10"/>
@@ -4210,7 +4279,7 @@
       <c r="BL8" s="1"/>
       <c r="BM8" s="1"/>
       <c r="BN8" s="80">
-        <f t="shared" ref="BN8:BN12" si="7">BB8*(1-BB8)</f>
+        <f t="shared" ref="BN8:BN12" si="10">BB8*(1-BB8)</f>
         <v>1.3703171775686456E-3</v>
       </c>
       <c r="BO8" s="1"/>
@@ -4325,42 +4394,42 @@
       <c r="DK8" s="1"/>
       <c r="DL8" s="1"/>
       <c r="DM8" s="80">
-        <f>BY8</f>
+        <f t="shared" si="2"/>
         <v>1.9639775799888185E-2</v>
       </c>
       <c r="DN8" s="80">
-        <f>BZ8</f>
+        <f t="shared" si="2"/>
         <v>-2.5908181070415311E-2</v>
       </c>
       <c r="DO8" s="80">
-        <f>CA8</f>
+        <f t="shared" si="2"/>
         <v>-2.4610358045750118E-2</v>
       </c>
       <c r="DQ8" s="1"/>
       <c r="DR8" s="80">
-        <f t="shared" ref="DR8:DR12" si="8">AH8*(1-AH8)</f>
+        <f t="shared" ref="DR8:DR12" si="11">AH8*(1-AH8)</f>
         <v>1.3087532113844261E-2</v>
       </c>
       <c r="DS8" s="80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.4081885322169975E-3</v>
       </c>
       <c r="DT8" s="80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19725414826606844</v>
       </c>
       <c r="DU8" s="1"/>
       <c r="DV8" s="1"/>
       <c r="DW8" s="82">
-        <f>DM8*DR8</f>
+        <f t="shared" si="4"/>
         <v>2.5703619648973798E-4</v>
       </c>
       <c r="DX8" s="82">
-        <f>DN8*DS8</f>
+        <f t="shared" si="4"/>
         <v>-2.4374905203728282E-4</v>
       </c>
       <c r="DY8" s="82">
-        <f>DO8*DT8</f>
+        <f t="shared" si="4"/>
         <v>-4.8544952148374242E-3</v>
       </c>
       <c r="EA8" t="s">
@@ -4429,15 +4498,15 @@
         <v>28</v>
       </c>
       <c r="EW8" s="24">
-        <f>I8-ER8</f>
+        <f t="shared" si="5"/>
         <v>0.84544520500673725</v>
       </c>
       <c r="EX8" s="24">
-        <f>J8-ES8</f>
+        <f t="shared" si="5"/>
         <v>3.6713118979577137</v>
       </c>
       <c r="EY8" s="24">
-        <f>K8-ET8</f>
+        <f t="shared" si="5"/>
         <v>-4.2444408255551185</v>
       </c>
       <c r="EZ8" s="1"/>
@@ -4574,15 +4643,15 @@
       <c r="AF9" s="74"/>
       <c r="AG9" s="74"/>
       <c r="AH9" s="99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.99976220875432675</v>
       </c>
       <c r="AI9" s="99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.10940866167448984</v>
       </c>
       <c r="AJ9" s="99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.19076701778719701</v>
       </c>
       <c r="AK9" s="10"/>
@@ -4613,13 +4682,13 @@
       <c r="AZ9" s="1"/>
       <c r="BA9" s="1"/>
       <c r="BB9" s="80">
-        <f t="shared" ref="BB9:BB12" si="9">1/(1+2.71828182845904^(AV9*-1))</f>
+        <f t="shared" ref="BB9:BB12" si="12">1/(1+2.71828182845904^(AV9*-1))</f>
         <v>0.9981966803784873</v>
       </c>
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="87">
-        <f t="shared" ref="BE9:BE12" si="10">(BB9-B9)^2</f>
+        <f t="shared" ref="BE9:BE12" si="13">(BB9-B9)^2</f>
         <v>3.2519616573327079E-6</v>
       </c>
       <c r="BF9" s="1"/>
@@ -4628,19 +4697,19 @@
       <c r="BI9" s="1"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="82">
-        <f t="shared" ref="BK9:BK12" si="11">BB9-B9</f>
+        <f t="shared" ref="BK9:BK12" si="14">BB9-B9</f>
         <v>-1.8033196215127001E-3</v>
       </c>
       <c r="BL9" s="1"/>
       <c r="BM9" s="1"/>
       <c r="BN9" s="80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1.8000676598553674E-3</v>
       </c>
       <c r="BO9" s="1"/>
       <c r="BP9" s="1"/>
       <c r="BQ9" s="103">
-        <f t="shared" ref="BQ9:BQ12" si="12">BK9*BN9</f>
+        <f t="shared" ref="BQ9:BQ12" si="15">BK9*BN9</f>
         <v>-3.2460973310676329E-6</v>
       </c>
       <c r="BR9" s="1"/>
@@ -4735,42 +4804,42 @@
       <c r="DK9" s="1"/>
       <c r="DL9" s="1"/>
       <c r="DM9" s="80">
-        <f t="shared" ref="DM9:DM12" si="13">BY9</f>
+        <f t="shared" ref="DM9:DM12" si="16">BY9</f>
         <v>-4.6587918779780318E-5</v>
       </c>
       <c r="DN9" s="80">
-        <f t="shared" ref="DN9:DN12" si="14">BZ9</f>
+        <f t="shared" ref="DN9:DN12" si="17">BZ9</f>
         <v>6.1457332697617778E-5</v>
       </c>
       <c r="DO9" s="80">
-        <f t="shared" ref="DO9:DO12" si="15">CA9</f>
+        <f t="shared" ref="DO9:DO12" si="18">CA9</f>
         <v>5.8378739831808429E-5</v>
       </c>
       <c r="DQ9" s="1"/>
       <c r="DR9" s="80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.3773470099672789E-4</v>
       </c>
       <c r="DS9" s="80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.743840642508686E-2</v>
       </c>
       <c r="DT9" s="80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15437496271177628</v>
       </c>
       <c r="DU9" s="1"/>
       <c r="DV9" s="1"/>
       <c r="DW9" s="82">
-        <f t="shared" ref="DW9:DW12" si="16">DM9*DR9</f>
+        <f t="shared" ref="DW9:DW12" si="19">DM9*DR9</f>
         <v>-1.1075564941170918E-8</v>
       </c>
       <c r="DX9" s="82">
-        <f t="shared" ref="DX9:DX12" si="17">DN9*DS9</f>
+        <f t="shared" ref="DX9:DX12" si="20">DN9*DS9</f>
         <v>5.9883045611922611E-6</v>
       </c>
       <c r="DY9" s="82">
-        <f t="shared" ref="DY9:DY12" si="18">DO9*DT9</f>
+        <f t="shared" ref="DY9:DY12" si="21">DO9*DT9</f>
         <v>9.0122157846959142E-6</v>
       </c>
       <c r="EA9" s="2"/>
@@ -4919,15 +4988,15 @@
       <c r="AF10" s="22"/>
       <c r="AG10" s="22"/>
       <c r="AH10" s="99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.99787310679091668</v>
       </c>
       <c r="AI10" s="99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.69273899722101873</v>
       </c>
       <c r="AJ10" s="99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.2329451948867912E-3</v>
       </c>
       <c r="AK10" s="10"/>
@@ -4956,13 +5025,13 @@
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
       <c r="BB10" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.20356677519121946</v>
       </c>
       <c r="BC10" s="1"/>
       <c r="BD10" s="1"/>
       <c r="BE10" s="87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.63430588157931356</v>
       </c>
       <c r="BF10" s="1"/>
@@ -4971,19 +5040,19 @@
       <c r="BI10" s="1"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-0.79643322480878054</v>
       </c>
       <c r="BL10" s="1"/>
       <c r="BM10" s="1"/>
       <c r="BN10" s="80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.16212734322946698</v>
       </c>
       <c r="BO10" s="1"/>
       <c r="BP10" s="1"/>
       <c r="BQ10" s="103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-0.1291236027979244</v>
       </c>
       <c r="BR10" s="1"/>
@@ -5055,42 +5124,42 @@
       <c r="DK10" s="1"/>
       <c r="DL10" s="1"/>
       <c r="DM10" s="80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-1.8531791582859904</v>
       </c>
       <c r="DN10" s="80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.4446562770368603</v>
       </c>
       <c r="DO10" s="80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.3221956845657941</v>
       </c>
       <c r="DQ10" s="1"/>
       <c r="DR10" s="80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.1223695343604802E-3</v>
       </c>
       <c r="DS10" s="80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.21285167895023613</v>
       </c>
       <c r="DT10" s="80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2279591506434234E-3</v>
       </c>
       <c r="DU10" s="1"/>
       <c r="DV10" s="1"/>
       <c r="DW10" s="82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-3.9331309872579845E-3</v>
       </c>
       <c r="DX10" s="82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.52034919302352933</v>
       </c>
       <c r="DY10" s="82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>5.1737571250130296E-3</v>
       </c>
       <c r="EA10" s="2"/>
@@ -5219,15 +5288,15 @@
       <c r="AF11" s="22"/>
       <c r="AG11" s="22"/>
       <c r="AH11" s="99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.1810710226332606E-2</v>
       </c>
       <c r="AI11" s="99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.6946452369090524E-4</v>
       </c>
       <c r="AJ11" s="99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.2188757975828379E-2</v>
       </c>
       <c r="AK11" s="1"/>
@@ -5254,13 +5323,13 @@
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
       <c r="BB11" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4.0377706877609519E-2</v>
       </c>
       <c r="BC11" s="1"/>
       <c r="BD11" s="1"/>
       <c r="BE11" s="87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.6303592126941551E-3</v>
       </c>
       <c r="BF11" s="1"/>
@@ -5269,19 +5338,19 @@
       <c r="BI11" s="1"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4.0377706877609519E-2</v>
       </c>
       <c r="BL11" s="1"/>
       <c r="BM11" s="1"/>
       <c r="BN11" s="80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3.874734766491536E-2</v>
       </c>
       <c r="BO11" s="1"/>
       <c r="BP11" s="1"/>
       <c r="BQ11" s="103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1.5645290462987802E-3</v>
       </c>
       <c r="BR11" s="1"/>
@@ -5341,42 +5410,42 @@
       <c r="DK11" s="1"/>
       <c r="DL11" s="1"/>
       <c r="DM11" s="80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.2454087078652693E-2</v>
       </c>
       <c r="DN11" s="80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-2.9620732931580553E-2</v>
       </c>
       <c r="DO11" s="80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-2.8136936400223071E-2</v>
       </c>
       <c r="DQ11" s="1"/>
       <c r="DR11" s="80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.1335003145755555E-2</v>
       </c>
       <c r="DS11" s="80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.6901634094242461E-4</v>
       </c>
       <c r="DT11" s="80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.946509151676879E-2</v>
       </c>
       <c r="DU11" s="1"/>
       <c r="DV11" s="1"/>
       <c r="DW11" s="82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>4.7905801845812439E-4</v>
       </c>
       <c r="DX11" s="82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-1.9816754361918798E-5</v>
       </c>
       <c r="DY11" s="82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-1.3917961340385373E-3</v>
       </c>
       <c r="EA11" s="2"/>
@@ -5517,15 +5586,15 @@
         <v>32</v>
       </c>
       <c r="AH12" s="99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.99999750034930013</v>
       </c>
       <c r="AI12" s="99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.24394108808536494</v>
       </c>
       <c r="AJ12" s="99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.55698019573177882</v>
       </c>
       <c r="AK12" s="1"/>
@@ -5558,7 +5627,7 @@
         <v>32</v>
       </c>
       <c r="BB12" s="80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.6601997009013222E-2</v>
       </c>
       <c r="BC12" s="1"/>
@@ -5566,7 +5635,7 @@
         <v>32</v>
       </c>
       <c r="BE12" s="87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.88999979204738189</v>
       </c>
       <c r="BF12" s="1"/>
@@ -5577,7 +5646,7 @@
         <v>32</v>
       </c>
       <c r="BK12" s="82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-0.94339800299098675</v>
       </c>
       <c r="BL12" s="1"/>
@@ -5585,7 +5654,7 @@
         <v>32</v>
       </c>
       <c r="BN12" s="80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5.3398210943604876E-2</v>
       </c>
       <c r="BO12" s="1"/>
@@ -5593,7 +5662,7 @@
         <v>32</v>
       </c>
       <c r="BQ12" s="103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>-5.0375765567488295E-2</v>
       </c>
       <c r="BR12" s="1"/>
@@ -5657,30 +5726,30 @@
         <v>32</v>
       </c>
       <c r="DM12" s="80">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>-0.72299189930805574</v>
       </c>
       <c r="DN12" s="80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.95374841498054297</v>
       </c>
       <c r="DO12" s="80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.90597212959271511</v>
       </c>
       <c r="DQ12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="DR12" s="80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.4996444516183922E-6</v>
       </c>
       <c r="DS12" s="80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.18443383362909316</v>
       </c>
       <c r="DT12" s="80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.24675325729436817</v>
       </c>
       <c r="DU12" s="1"/>
@@ -5688,15 +5757,15 @@
         <v>32</v>
       </c>
       <c r="DW12" s="82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-1.807222689670425E-6</v>
       </c>
       <c r="DX12" s="82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0.17590347649253277</v>
       </c>
       <c r="DY12" s="82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0.2235515739949179</v>
       </c>
       <c r="EA12" s="2"/>
@@ -7126,11 +7195,11 @@
         <v>9.0168809586348377</v>
       </c>
       <c r="J20" s="94">
-        <f t="shared" ref="J20:K20" si="19">EX7</f>
+        <f t="shared" ref="J20:K20" si="22">EX7</f>
         <v>1.8529556744987836</v>
       </c>
       <c r="K20" s="95">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2.6921231203697018</v>
       </c>
       <c r="L20" s="1"/>
@@ -7158,11 +7227,11 @@
         <v>3.7653359725651425</v>
       </c>
       <c r="T20" s="68">
-        <f t="shared" ref="T20:U20" si="20">FU7</f>
+        <f t="shared" ref="T20:U20" si="23">FU7</f>
         <v>-3.2509032649173486</v>
       </c>
       <c r="U20" s="98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-2.9171312319604645</v>
       </c>
       <c r="V20" s="22"/>
@@ -7174,11 +7243,11 @@
         <v>-0.78757987142967067</v>
       </c>
       <c r="Y20" s="70">
-        <f t="shared" ref="Y20" si="21">O20+T20</f>
+        <f t="shared" ref="Y20" si="24">O20+T20</f>
         <v>-4.7915747518331289</v>
       </c>
       <c r="Z20" s="71">
-        <f t="shared" ref="Z20" si="22">P20+U20</f>
+        <f t="shared" ref="Z20" si="25">P20+U20</f>
         <v>-3.498548434767335</v>
       </c>
       <c r="AA20" s="22"/>
@@ -7203,11 +7272,11 @@
         <v>0.31268855402383255</v>
       </c>
       <c r="AI20" s="81">
-        <f t="shared" ref="AI20:AI25" si="23">1/(1+2.71828182845904^(Y20*-1))</f>
+        <f t="shared" ref="AI20:AI25" si="26">1/(1+2.71828182845904^(Y20*-1))</f>
         <v>8.2310649098616354E-3</v>
       </c>
       <c r="AJ20" s="81">
-        <f t="shared" ref="AJ20:AJ25" si="24">1/(1+2.71828182845904^(Z20*-1))</f>
+        <f t="shared" ref="AJ20:AJ25" si="27">1/(1+2.71828182845904^(Z20*-1))</f>
         <v>2.9353560402150262E-2</v>
       </c>
       <c r="AK20" s="10"/>
@@ -7434,15 +7503,15 @@
         <v>24</v>
       </c>
       <c r="DM20" s="108">
-        <f>BY20</f>
+        <f t="shared" ref="DM20:DO21" si="28">BY20</f>
         <v>1.9038730112344104</v>
       </c>
       <c r="DN20" s="108">
-        <f>BZ20</f>
+        <f t="shared" si="28"/>
         <v>-2.4743102679557873</v>
       </c>
       <c r="DO20" s="108">
-        <f>CA20</f>
+        <f t="shared" si="28"/>
         <v>-2.3595909933042112</v>
       </c>
       <c r="DQ20" s="1" t="s">
@@ -7453,11 +7522,11 @@
         <v>0.21491442220631732</v>
       </c>
       <c r="DS20" s="109">
-        <f t="shared" ref="DS20:DS25" si="25">AI20*(1-AI20)</f>
+        <f t="shared" ref="DS20:DS25" si="29">AI20*(1-AI20)</f>
         <v>8.16331448031128E-3</v>
       </c>
       <c r="DT20" s="109">
-        <f t="shared" ref="DT20:DT25" si="26">AJ20*(1-AJ20)</f>
+        <f t="shared" ref="DT20:DT25" si="30">AJ20*(1-AJ20)</f>
         <v>2.8491928893867577E-2</v>
       </c>
       <c r="DU20" s="1"/>
@@ -7465,15 +7534,15 @@
         <v>24</v>
       </c>
       <c r="DW20" s="86">
-        <f>DM20*DR20</f>
+        <f t="shared" ref="DW20:DY21" si="31">DM20*DR20</f>
         <v>0.40916976816364481</v>
       </c>
       <c r="DX20" s="86">
-        <f>DN20*DS20</f>
+        <f t="shared" si="31"/>
         <v>-2.0198572839186361E-2</v>
       </c>
       <c r="DY20" s="86">
-        <f>DO20*DT20</f>
+        <f t="shared" si="31"/>
         <v>-6.7229298799833956E-2</v>
       </c>
       <c r="EA20" t="s">
@@ -7547,15 +7616,15 @@
         <v>27</v>
       </c>
       <c r="EW20" s="24">
-        <f>I20-ER20</f>
+        <f t="shared" ref="EW20:EY21" si="32">I20-ER20</f>
         <v>9.2153747090424591</v>
       </c>
       <c r="EX20" s="24">
-        <f>J20-ES20</f>
+        <f t="shared" si="32"/>
         <v>1.3415136078628314</v>
       </c>
       <c r="EY20" s="24">
-        <f>K20-ET20</f>
+        <f t="shared" si="32"/>
         <v>1.9826709985609485</v>
       </c>
       <c r="EZ20" s="1"/>
@@ -7583,11 +7652,11 @@
         <v>1.0906693866798899E-4</v>
       </c>
       <c r="FH20" s="86">
-        <f t="shared" ref="FH20" si="27">FC20</f>
+        <f t="shared" ref="FH20" si="33">FC20</f>
         <v>-9.1840212487286276E-6</v>
       </c>
       <c r="FI20" s="86">
-        <f t="shared" ref="FI20" si="28">FD20</f>
+        <f t="shared" ref="FI20" si="34">FD20</f>
         <v>-5.0927351820018348E-4</v>
       </c>
       <c r="FJ20" s="1"/>
@@ -7674,11 +7743,11 @@
         <v>0.84544520500673725</v>
       </c>
       <c r="J21" s="96">
-        <f t="shared" ref="J21:K21" si="29">EX8</f>
+        <f t="shared" ref="J21:K21" si="35">EX8</f>
         <v>3.6713118979577137</v>
       </c>
       <c r="K21" s="97">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-4.2444408255551185</v>
       </c>
       <c r="L21" s="1"/>
@@ -7734,15 +7803,15 @@
       <c r="AF21" s="22"/>
       <c r="AG21" s="22"/>
       <c r="AH21" s="99">
-        <f t="shared" ref="AH21:AH25" si="30">1/(1+2.71828182845904^(X21*-1))</f>
+        <f t="shared" ref="AH21:AH25" si="36">1/(1+2.71828182845904^(X21*-1))</f>
         <v>0.98662204777206153</v>
       </c>
       <c r="AI21" s="99">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.1008823680163905E-2</v>
       </c>
       <c r="AJ21" s="99">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.26649770110443177</v>
       </c>
       <c r="AK21" s="10"/>
@@ -7750,7 +7819,7 @@
         <v>28</v>
       </c>
       <c r="AM21" s="16">
-        <f t="shared" ref="AM21:AM22" si="31">CU8</f>
+        <f t="shared" ref="AM21:AM22" si="37">CU8</f>
         <v>-18.832713056710649</v>
       </c>
       <c r="AN21" s="1"/>
@@ -7801,7 +7870,7 @@
       <c r="BL21" s="1"/>
       <c r="BM21" s="1"/>
       <c r="BN21" s="80">
-        <f t="shared" ref="BN21:BN25" si="32">BB21*(1-BB21)</f>
+        <f t="shared" ref="BN21:BN25" si="38">BB21*(1-BB21)</f>
         <v>1.1417921806462469E-3</v>
       </c>
       <c r="BO21" s="1"/>
@@ -7916,42 +7985,42 @@
       <c r="DK21" s="1"/>
       <c r="DL21" s="1"/>
       <c r="DM21" s="80">
-        <f>BY21</f>
+        <f t="shared" si="28"/>
         <v>1.6526734431447629E-2</v>
       </c>
       <c r="DN21" s="80">
-        <f>BZ21</f>
+        <f t="shared" si="28"/>
         <v>-2.1478464402936246E-2</v>
       </c>
       <c r="DO21" s="80">
-        <f>CA21</f>
+        <f t="shared" si="28"/>
         <v>-2.0482633811742749E-2</v>
       </c>
       <c r="DQ21" s="1"/>
       <c r="DR21" s="80">
-        <f t="shared" ref="DR21:DR25" si="33">AH21*(1-AH21)</f>
+        <f t="shared" ref="DR21:DR25" si="39">AH21*(1-AH21)</f>
         <v>1.3198982622125469E-2</v>
       </c>
       <c r="DS21" s="80">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.0887629481342968E-2</v>
       </c>
       <c r="DT21" s="80">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.19547667641048469</v>
       </c>
       <c r="DU21" s="1"/>
       <c r="DV21" s="1"/>
       <c r="DW21" s="82">
-        <f>DM21*DR21</f>
+        <f t="shared" si="31"/>
         <v>2.1813608056115989E-4</v>
       </c>
       <c r="DX21" s="82">
-        <f>DN21*DS21</f>
+        <f t="shared" si="31"/>
         <v>-2.3384956224738418E-4</v>
       </c>
       <c r="DY21" s="82">
-        <f>DO21*DT21</f>
+        <f t="shared" si="31"/>
         <v>-4.0038771816524902E-3</v>
       </c>
       <c r="EA21" t="s">
@@ -8020,15 +8089,15 @@
         <v>28</v>
       </c>
       <c r="EW21" s="24">
-        <f>I21-ER21</f>
+        <f t="shared" si="32"/>
         <v>0.9173389097293797</v>
       </c>
       <c r="EX21" s="24">
-        <f>J21-ES21</f>
+        <f t="shared" si="32"/>
         <v>3.4183584872065191</v>
       </c>
       <c r="EY21" s="24">
-        <f>K21-ET21</f>
+        <f t="shared" si="32"/>
         <v>-4.2453703690047631</v>
       </c>
       <c r="EZ21" s="1"/>
@@ -8165,15 +8234,15 @@
       <c r="AF22" s="74"/>
       <c r="AG22" s="74"/>
       <c r="AH22" s="99">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.99978284224530278</v>
       </c>
       <c r="AI22" s="99">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>9.5364311217181558E-2</v>
       </c>
       <c r="AJ22" s="99">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.17130114738526739</v>
       </c>
       <c r="AK22" s="10"/>
@@ -8181,7 +8250,7 @@
         <v>29</v>
       </c>
       <c r="AM22" s="20">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>-17.959550458807335</v>
       </c>
       <c r="AN22" s="1"/>
@@ -8205,13 +8274,13 @@
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1"/>
       <c r="BB22" s="80">
-        <f t="shared" ref="BB22:BB25" si="34">1/(1+2.71828182845904^(AV22*-1))</f>
+        <f t="shared" ref="BB22:BB25" si="40">1/(1+2.71828182845904^(AV22*-1))</f>
         <v>0.99916281305642651</v>
       </c>
       <c r="BC22" s="1"/>
       <c r="BD22" s="1"/>
       <c r="BE22" s="87">
-        <f t="shared" ref="BE22:BE25" si="35">(BB22-B22)^2</f>
+        <f t="shared" ref="BE22:BE25" si="41">(BB22-B22)^2</f>
         <v>7.0088197848991675E-7</v>
       </c>
       <c r="BF22" s="1"/>
@@ -8220,19 +8289,19 @@
       <c r="BI22" s="1"/>
       <c r="BJ22" s="1"/>
       <c r="BK22" s="82">
-        <f t="shared" ref="BK22:BK25" si="36">BB22-B22</f>
+        <f t="shared" ref="BK22:BK25" si="42">BB22-B22</f>
         <v>-8.3718694357348689E-4</v>
       </c>
       <c r="BL22" s="1"/>
       <c r="BM22" s="1"/>
       <c r="BN22" s="80">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>8.3648606159499701E-4</v>
       </c>
       <c r="BO22" s="1"/>
       <c r="BP22" s="1"/>
       <c r="BQ22" s="103">
-        <f t="shared" ref="BQ22:BQ25" si="37">BK22*BN22</f>
+        <f t="shared" ref="BQ22:BQ25" si="43">BK22*BN22</f>
         <v>-7.0029520924853903E-7</v>
       </c>
       <c r="BR22" s="1"/>
@@ -8327,42 +8396,42 @@
       <c r="DK22" s="1"/>
       <c r="DL22" s="1"/>
       <c r="DM22" s="80">
-        <f t="shared" ref="DM22:DM25" si="38">BY22</f>
+        <f t="shared" ref="DM22:DM25" si="44">BY22</f>
         <v>-1.0147939392431342E-5</v>
       </c>
       <c r="DN22" s="80">
-        <f t="shared" ref="DN22:DN25" si="39">BZ22</f>
+        <f t="shared" ref="DN22:DN25" si="45">BZ22</f>
         <v>1.3188458730766877E-5</v>
       </c>
       <c r="DO22" s="80">
-        <f t="shared" ref="DO22:DO25" si="40">CA22</f>
+        <f t="shared" ref="DO22:DO25" si="46">CA22</f>
         <v>1.2576987146560177E-5</v>
       </c>
       <c r="DQ22" s="1"/>
       <c r="DR22" s="80">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>2.1711059720679185E-4</v>
       </c>
       <c r="DS22" s="80">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>8.6269959363254101E-2</v>
       </c>
       <c r="DT22" s="80">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.14195706428975829</v>
       </c>
       <c r="DU22" s="1"/>
       <c r="DV22" s="1"/>
       <c r="DW22" s="82">
-        <f t="shared" ref="DW22:DW25" si="41">DM22*DR22</f>
+        <f t="shared" ref="DW22:DW25" si="47">DM22*DR22</f>
         <v>-2.203225181909097E-9</v>
       </c>
       <c r="DX22" s="82">
-        <f t="shared" ref="DX22:DX25" si="42">DN22*DS22</f>
+        <f t="shared" ref="DX22:DX25" si="48">DN22*DS22</f>
         <v>1.1377677987672122E-6</v>
       </c>
       <c r="DY22" s="82">
-        <f t="shared" ref="DY22:DY25" si="43">DO22*DT22</f>
+        <f t="shared" ref="DY22:DY25" si="49">DO22*DT22</f>
         <v>1.7853921729357068E-6</v>
       </c>
       <c r="EA22" s="2"/>
@@ -8511,15 +8580,15 @@
       <c r="AF23" s="22"/>
       <c r="AG23" s="22"/>
       <c r="AH23" s="99">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.99805779043904042</v>
       </c>
       <c r="AI23" s="99">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.58794593475313062</v>
       </c>
       <c r="AJ23" s="99">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>2.107609614121314E-3</v>
       </c>
       <c r="AK23" s="10"/>
@@ -8548,13 +8617,13 @@
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1"/>
       <c r="BB23" s="80">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.69458000686963073</v>
       </c>
       <c r="BC23" s="1"/>
       <c r="BD23" s="1"/>
       <c r="BE23" s="87">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>9.328137220375482E-2</v>
       </c>
       <c r="BF23" s="1"/>
@@ -8563,19 +8632,19 @@
       <c r="BI23" s="1"/>
       <c r="BJ23" s="1"/>
       <c r="BK23" s="82">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>-0.30541999313036927</v>
       </c>
       <c r="BL23" s="1"/>
       <c r="BM23" s="1"/>
       <c r="BN23" s="80">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.21213862092661445</v>
       </c>
       <c r="BO23" s="1"/>
       <c r="BP23" s="1"/>
       <c r="BQ23" s="103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>-6.4791376146092594E-2</v>
       </c>
       <c r="BR23" s="1"/>
@@ -8647,42 +8716,42 @@
       <c r="DK23" s="1"/>
       <c r="DL23" s="1"/>
       <c r="DM23" s="80">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>-0.93888827111684414</v>
       </c>
       <c r="DN23" s="80">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>1.2201973955087688</v>
       </c>
       <c r="DO23" s="80">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>1.1636239891913158</v>
       </c>
       <c r="DQ23" s="1"/>
       <c r="DR23" s="80">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>1.9384373829809019E-3</v>
       </c>
       <c r="DS23" s="80">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.24226551256039811</v>
       </c>
       <c r="DT23" s="80">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>2.1031675958357774E-3</v>
       </c>
       <c r="DU23" s="1"/>
       <c r="DV23" s="1"/>
       <c r="DW23" s="82">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-1.8199761231751988E-3</v>
       </c>
       <c r="DX23" s="82">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.29561174744779467</v>
       </c>
       <c r="DY23" s="82">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>2.4472962678043363E-3</v>
       </c>
       <c r="EA23" s="2"/>
@@ -8811,15 +8880,15 @@
       <c r="AF24" s="22"/>
       <c r="AG24" s="22"/>
       <c r="AH24" s="99">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>1.8326602659468689E-2</v>
       </c>
       <c r="AI24" s="99">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1.0895965941941082E-3</v>
       </c>
       <c r="AJ24" s="99">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6.3768176053801306E-2</v>
       </c>
       <c r="AK24" s="1"/>
@@ -8846,13 +8915,13 @@
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1"/>
       <c r="BB24" s="80">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>3.134328194432353E-2</v>
       </c>
       <c r="BC24" s="1"/>
       <c r="BD24" s="1"/>
       <c r="BE24" s="87">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>9.8240132304135749E-4</v>
       </c>
       <c r="BF24" s="1"/>
@@ -8861,19 +8930,19 @@
       <c r="BI24" s="1"/>
       <c r="BJ24" s="1"/>
       <c r="BK24" s="82">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>3.134328194432353E-2</v>
       </c>
       <c r="BL24" s="1"/>
       <c r="BM24" s="1"/>
       <c r="BN24" s="80">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>3.0360880621282171E-2</v>
       </c>
       <c r="BO24" s="1"/>
       <c r="BP24" s="1"/>
       <c r="BQ24" s="103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>9.5160964139079558E-4</v>
       </c>
       <c r="BR24" s="1"/>
@@ -8933,42 +9002,42 @@
       <c r="DK24" s="1"/>
       <c r="DL24" s="1"/>
       <c r="DM24" s="80">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>1.3789723017596473E-2</v>
       </c>
       <c r="DN24" s="80">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>-1.7921391318312174E-2</v>
       </c>
       <c r="DO24" s="80">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>-1.7090481371645545E-2</v>
       </c>
       <c r="DQ24" s="1"/>
       <c r="DR24" s="80">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>1.7990738294430642E-2</v>
       </c>
       <c r="DS24" s="80">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>1.0884093734560287E-3</v>
       </c>
       <c r="DT24" s="80">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>5.9701795776572704E-2</v>
       </c>
       <c r="DU24" s="1"/>
       <c r="DV24" s="1"/>
       <c r="DW24" s="82">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>2.4808729796226453E-4</v>
       </c>
       <c r="DX24" s="82">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>-1.9505810296224467E-5</v>
       </c>
       <c r="DY24" s="82">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>-1.0203324285733026E-3</v>
       </c>
       <c r="EA24" s="2"/>
@@ -9109,15 +9178,15 @@
         <v>32</v>
       </c>
       <c r="AH25" s="99">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>0.99999790990292681</v>
       </c>
       <c r="AI25" s="99">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0.19520104750730466</v>
       </c>
       <c r="AJ25" s="99">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0.49138896970206092</v>
       </c>
       <c r="AK25" s="1"/>
@@ -9150,7 +9219,7 @@
         <v>32</v>
       </c>
       <c r="BB25" s="80">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>0.36793455825429494</v>
       </c>
       <c r="BC25" s="1"/>
@@ -9158,7 +9227,7 @@
         <v>32</v>
       </c>
       <c r="BE25" s="87">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>0.39950672264919318</v>
       </c>
       <c r="BF25" s="1"/>
@@ -9169,7 +9238,7 @@
         <v>32</v>
       </c>
       <c r="BK25" s="82">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>-0.632065441745705</v>
       </c>
       <c r="BL25" s="1"/>
@@ -9177,7 +9246,7 @@
         <v>32</v>
       </c>
       <c r="BN25" s="80">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>0.23255871909651177</v>
       </c>
       <c r="BO25" s="1"/>
@@ -9185,7 +9254,7 @@
         <v>32</v>
       </c>
       <c r="BQ25" s="103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>-0.14699232951755203</v>
       </c>
       <c r="BR25" s="1"/>
@@ -9249,30 +9318,30 @@
         <v>32</v>
       </c>
       <c r="DM25" s="80">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>-2.1300577690615219</v>
       </c>
       <c r="DN25" s="80">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>2.7682643633415163</v>
       </c>
       <c r="DO25" s="80">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>2.6399161590281106</v>
       </c>
       <c r="DQ25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="DR25" s="80">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>2.0900927046871893E-6</v>
       </c>
       <c r="DS25" s="80">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>0.15709759855935565</v>
       </c>
       <c r="DT25" s="80">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>0.24992585015720797</v>
       </c>
       <c r="DU25" s="1"/>
@@ -9280,15 +9349,15 @@
         <v>32</v>
       </c>
       <c r="DW25" s="82">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>-4.4520182036777568E-6</v>
       </c>
       <c r="DX25" s="82">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>0.43488768365839575</v>
       </c>
       <c r="DY25" s="82">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0.65978329038885164</v>
       </c>
       <c r="EA25" s="2"/>
@@ -10030,11 +10099,11 @@
         <v>9.2153747090424591</v>
       </c>
       <c r="J33" s="94">
-        <f t="shared" ref="J33:J34" si="44">EX20</f>
+        <f t="shared" ref="J33:J34" si="50">EX20</f>
         <v>1.3415136078628314</v>
       </c>
       <c r="K33" s="95">
-        <f t="shared" ref="K33:K34" si="45">EY20</f>
+        <f t="shared" ref="K33:K34" si="51">EY20</f>
         <v>1.9826709985609485</v>
       </c>
       <c r="L33" s="1"/>
@@ -10062,11 +10131,11 @@
         <v>3.7652279962958612</v>
       </c>
       <c r="T33" s="68">
-        <f t="shared" ref="T33" si="46">FU20</f>
+        <f t="shared" ref="T33" si="52">FU20</f>
         <v>-3.2508941727363125</v>
       </c>
       <c r="U33" s="98">
-        <f t="shared" ref="U33" si="47">FV20</f>
+        <f t="shared" ref="U33" si="53">FV20</f>
         <v>-2.9166270511774464</v>
       </c>
       <c r="V33" s="22"/>
@@ -10078,11 +10147,11 @@
         <v>-0.89713124534795607</v>
       </c>
       <c r="Y33" s="70">
-        <f t="shared" ref="Y33" si="48">O33+T33</f>
+        <f t="shared" ref="Y33" si="54">O33+T33</f>
         <v>-4.4978586186714784</v>
       </c>
       <c r="Z33" s="71">
-        <f t="shared" ref="Z33" si="49">P33+U33</f>
+        <f t="shared" ref="Z33" si="55">P33+U33</f>
         <v>-3.1511655072412652</v>
       </c>
       <c r="AA33" s="22"/>
@@ -10107,11 +10176,11 @@
         <v>0.2896403839102612</v>
       </c>
       <c r="AI33" s="81">
-        <f t="shared" ref="AI33:AI38" si="50">1/(1+2.71828182845904^(Y33*-1))</f>
+        <f t="shared" ref="AI33:AI38" si="56">1/(1+2.71828182845904^(Y33*-1))</f>
         <v>1.1010235754838855E-2</v>
       </c>
       <c r="AJ33" s="81">
-        <f t="shared" ref="AJ33:AJ38" si="51">1/(1+2.71828182845904^(Z33*-1))</f>
+        <f t="shared" ref="AJ33:AJ38" si="57">1/(1+2.71828182845904^(Z33*-1))</f>
         <v>4.1045378524318755E-2</v>
       </c>
       <c r="AK33" s="10"/>
@@ -10338,15 +10407,15 @@
         <v>24</v>
       </c>
       <c r="DM33" s="108">
-        <f>BY33</f>
+        <f t="shared" ref="DM33:DO34" si="58">BY33</f>
         <v>2.1670259961762328</v>
       </c>
       <c r="DN33" s="108">
-        <f>BZ33</f>
+        <f t="shared" si="58"/>
         <v>-2.7744677364243935</v>
       </c>
       <c r="DO33" s="108">
-        <f>CA33</f>
+        <f t="shared" si="58"/>
         <v>-2.6450270143991546</v>
       </c>
       <c r="DQ33" s="1" t="s">
@@ -10357,11 +10426,11 @@
         <v>0.20574883191857768</v>
       </c>
       <c r="DS33" s="109">
-        <f t="shared" ref="DS33:DS38" si="52">AI33*(1-AI33)</f>
+        <f t="shared" ref="DS33:DS38" si="59">AI33*(1-AI33)</f>
         <v>1.0889010463461723E-2</v>
       </c>
       <c r="DT33" s="109">
-        <f t="shared" ref="DT33:DT38" si="53">AJ33*(1-AJ33)</f>
+        <f t="shared" ref="DT33:DT38" si="60">AJ33*(1-AJ33)</f>
         <v>3.9360655426114145E-2</v>
       </c>
       <c r="DU33" s="1"/>
@@ -10369,15 +10438,15 @@
         <v>24</v>
       </c>
       <c r="DW33" s="86">
-        <f>DM33*DR33</f>
+        <f t="shared" ref="DW33:DY34" si="61">DM33*DR33</f>
         <v>0.44586306745045207</v>
       </c>
       <c r="DX33" s="86">
-        <f>DN33*DS33</f>
+        <f t="shared" si="61"/>
         <v>-3.0211208212462183E-2</v>
       </c>
       <c r="DY33" s="86">
-        <f>DO33*DT33</f>
+        <f t="shared" si="61"/>
         <v>-0.10410999690652858</v>
       </c>
       <c r="EA33" t="s">
@@ -10451,15 +10520,15 @@
         <v>27</v>
       </c>
       <c r="EW33" s="24">
-        <f>I33-ER33</f>
+        <f t="shared" ref="EW33:EY34" si="62">I33-ER33</f>
         <v>9.4311372118523238</v>
       </c>
       <c r="EX33" s="24">
-        <f>J33-ES33</f>
+        <f t="shared" si="62"/>
         <v>1.3218520339168491</v>
       </c>
       <c r="EY33" s="24">
-        <f>K33-ET33</f>
+        <f t="shared" si="62"/>
         <v>1.9312210591322285</v>
       </c>
       <c r="EZ33" s="1"/>
@@ -10487,11 +10556,11 @@
         <v>2.018474071848227E-5</v>
       </c>
       <c r="FH33" s="86">
-        <f t="shared" ref="FH33" si="54">FC33</f>
+        <f t="shared" ref="FH33" si="63">FC33</f>
         <v>-3.2746026892485337E-6</v>
       </c>
       <c r="FI33" s="86">
-        <f t="shared" ref="FI33" si="55">FD33</f>
+        <f t="shared" ref="FI33" si="64">FD33</f>
         <v>-1.5984277282258831E-4</v>
       </c>
       <c r="FJ33" s="1"/>
@@ -10578,11 +10647,11 @@
         <v>0.9173389097293797</v>
       </c>
       <c r="J34" s="96">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>3.4183584872065191</v>
       </c>
       <c r="K34" s="97">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>-4.2453703690047631</v>
       </c>
       <c r="L34" s="1"/>
@@ -10638,15 +10707,15 @@
       <c r="AF34" s="22"/>
       <c r="AG34" s="22"/>
       <c r="AH34" s="99">
-        <f t="shared" ref="AH34:AH38" si="56">1/(1+2.71828182845904^(X34*-1))</f>
+        <f t="shared" ref="AH34:AH38" si="65">1/(1+2.71828182845904^(X34*-1))</f>
         <v>0.98650277067645042</v>
       </c>
       <c r="AI34" s="99">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1.1557428551353091E-2</v>
       </c>
       <c r="AJ34" s="99">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0.25359463377042302</v>
       </c>
       <c r="AK34" s="10"/>
@@ -10654,7 +10723,7 @@
         <v>28</v>
       </c>
       <c r="AM34" s="16">
-        <f t="shared" ref="AM34:AM35" si="57">CU21</f>
+        <f t="shared" ref="AM34:AM35" si="66">CU21</f>
         <v>-18.767678045825253</v>
       </c>
       <c r="AN34" s="1"/>
@@ -10705,7 +10774,7 @@
       <c r="BL34" s="1"/>
       <c r="BM34" s="1"/>
       <c r="BN34" s="80">
-        <f t="shared" ref="BN34:BN38" si="58">BB34*(1-BB34)</f>
+        <f t="shared" ref="BN34:BN38" si="67">BB34*(1-BB34)</f>
         <v>7.6400502334011446E-4</v>
       </c>
       <c r="BO34" s="1"/>
@@ -10820,42 +10889,42 @@
       <c r="DK34" s="1"/>
       <c r="DL34" s="1"/>
       <c r="DM34" s="80">
-        <f>BY34</f>
+        <f t="shared" si="58"/>
         <v>1.1190745445902253E-2</v>
       </c>
       <c r="DN34" s="80">
-        <f>BZ34</f>
+        <f t="shared" si="58"/>
         <v>-1.432763715847413E-2</v>
       </c>
       <c r="DO34" s="80">
-        <f>CA34</f>
+        <f t="shared" si="58"/>
         <v>-1.3659191937662648E-2</v>
       </c>
       <c r="DQ34" s="1"/>
       <c r="DR34" s="80">
-        <f t="shared" ref="DR34:DR38" si="59">AH34*(1-AH34)</f>
+        <f t="shared" ref="DR34:DR38" si="68">AH34*(1-AH34)</f>
         <v>1.3315054124137089E-2</v>
       </c>
       <c r="DS34" s="80">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>1.1423854396633459E-2</v>
       </c>
       <c r="DT34" s="80">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0.18928439549326803</v>
       </c>
       <c r="DU34" s="1"/>
       <c r="DV34" s="1"/>
       <c r="DW34" s="82">
-        <f>DM34*DR34</f>
+        <f t="shared" si="61"/>
         <v>1.4900538130162915E-4</v>
       </c>
       <c r="DX34" s="82">
-        <f>DN34*DS34</f>
+        <f t="shared" si="61"/>
         <v>-1.6367684074620361E-4</v>
       </c>
       <c r="DY34" s="82">
-        <f>DO34*DT34</f>
+        <f t="shared" si="61"/>
         <v>-2.5854718888469949E-3</v>
       </c>
       <c r="EA34" t="s">
@@ -10924,15 +10993,15 @@
         <v>28</v>
       </c>
       <c r="EW34" s="24">
-        <f>I34-ER34</f>
+        <f t="shared" si="62"/>
         <v>0.99389231835348746</v>
       </c>
       <c r="EX34" s="24">
-        <f>J34-ES34</f>
+        <f t="shared" si="62"/>
         <v>3.3923214592687501</v>
       </c>
       <c r="EY34" s="24">
-        <f>K34-ET34</f>
+        <f t="shared" si="62"/>
         <v>-4.2644956947714494</v>
       </c>
       <c r="EZ34" s="1"/>
@@ -11069,15 +11138,15 @@
       <c r="AF35" s="74"/>
       <c r="AG35" s="74"/>
       <c r="AH35" s="99">
+        <f t="shared" si="65"/>
+        <v>0.99980415335649697</v>
+      </c>
+      <c r="AI35" s="99">
         <f t="shared" si="56"/>
-        <v>0.99980415335649697</v>
-      </c>
-      <c r="AI35" s="99">
-        <f t="shared" si="50"/>
         <v>7.4668055811859466E-2</v>
       </c>
       <c r="AJ35" s="99">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0.12536953425326774</v>
       </c>
       <c r="AK35" s="10"/>
@@ -11085,7 +11154,7 @@
         <v>29</v>
       </c>
       <c r="AM35" s="20">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>-17.89208603042859</v>
       </c>
       <c r="AN35" s="1"/>
@@ -11109,13 +11178,13 @@
       <c r="AZ35" s="1"/>
       <c r="BA35" s="1"/>
       <c r="BB35" s="80">
-        <f t="shared" ref="BB35:BB38" si="60">1/(1+2.71828182845904^(AV35*-1))</f>
+        <f t="shared" ref="BB35:BB38" si="69">1/(1+2.71828182845904^(AV35*-1))</f>
         <v>0.9997924979416779</v>
       </c>
       <c r="BC35" s="1"/>
       <c r="BD35" s="1"/>
       <c r="BE35" s="87">
-        <f t="shared" ref="BE35:BE38" si="61">(BB35-B35)^2</f>
+        <f t="shared" ref="BE35:BE38" si="70">(BB35-B35)^2</f>
         <v>4.3057104207906301E-8</v>
       </c>
       <c r="BF35" s="1"/>
@@ -11124,19 +11193,19 @@
       <c r="BI35" s="1"/>
       <c r="BJ35" s="1"/>
       <c r="BK35" s="82">
-        <f t="shared" ref="BK35:BK38" si="62">BB35-B35</f>
+        <f t="shared" ref="BK35:BK38" si="71">BB35-B35</f>
         <v>-2.0750205832209545E-4</v>
       </c>
       <c r="BL35" s="1"/>
       <c r="BM35" s="1"/>
       <c r="BN35" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>2.0745900121788753E-4</v>
       </c>
       <c r="BO35" s="1"/>
       <c r="BP35" s="1"/>
       <c r="BQ35" s="103">
-        <f t="shared" ref="BQ35:BQ38" si="63">BK35*BN35</f>
+        <f t="shared" ref="BQ35:BQ38" si="72">BK35*BN35</f>
         <v>-4.3048169770157773E-8</v>
       </c>
       <c r="BR35" s="1"/>
@@ -11231,42 +11300,42 @@
       <c r="DK35" s="1"/>
       <c r="DL35" s="1"/>
       <c r="DM35" s="80">
-        <f t="shared" ref="DM35:DM38" si="64">BY35</f>
+        <f t="shared" ref="DM35:DM38" si="73">BY35</f>
         <v>-6.3102952359467221E-7</v>
       </c>
       <c r="DN35" s="80">
-        <f t="shared" ref="DN35:DN38" si="65">BZ35</f>
+        <f t="shared" ref="DN35:DN38" si="74">BZ35</f>
         <v>8.0791419070834839E-7</v>
       </c>
       <c r="DO35" s="80">
-        <f t="shared" ref="DO35:DO38" si="66">CA35</f>
+        <f t="shared" ref="DO35:DO38" si="75">CA35</f>
         <v>7.7022155698015826E-7</v>
       </c>
       <c r="DQ35" s="1"/>
       <c r="DR35" s="80">
+        <f t="shared" si="68"/>
+        <v>1.9580828759525675E-4</v>
+      </c>
+      <c r="DS35" s="80">
         <f t="shared" si="59"/>
-        <v>1.9580828759525675E-4</v>
-      </c>
-      <c r="DS35" s="80">
-        <f t="shared" si="52"/>
         <v>6.9092737253136513E-2</v>
       </c>
       <c r="DT35" s="80">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0.10965201413438648</v>
       </c>
       <c r="DU35" s="1"/>
       <c r="DV35" s="1"/>
       <c r="DW35" s="82">
-        <f t="shared" ref="DW35:DW38" si="67">DM35*DR35</f>
+        <f t="shared" ref="DW35:DW38" si="76">DM35*DR35</f>
         <v>-1.2356081043712344E-10</v>
       </c>
       <c r="DX35" s="82">
-        <f t="shared" ref="DX35:DX38" si="68">DN35*DS35</f>
+        <f t="shared" ref="DX35:DX38" si="77">DN35*DS35</f>
         <v>5.5821002901692342E-8</v>
       </c>
       <c r="DY35" s="82">
-        <f t="shared" ref="DY35:DY38" si="69">DO35*DT35</f>
+        <f t="shared" ref="DY35:DY38" si="78">DO35*DT35</f>
         <v>8.445634505259747E-8</v>
       </c>
       <c r="EA35" s="2"/>
@@ -11415,15 +11484,15 @@
       <c r="AF36" s="22"/>
       <c r="AG36" s="22"/>
       <c r="AH36" s="99">
+        <f t="shared" si="65"/>
+        <v>0.99824509394431349</v>
+      </c>
+      <c r="AI36" s="99">
         <f t="shared" si="56"/>
-        <v>0.99824509394431349</v>
-      </c>
-      <c r="AI36" s="99">
-        <f t="shared" si="50"/>
         <v>0.50836578126046594</v>
       </c>
       <c r="AJ36" s="99">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1.8396032675224744E-3</v>
       </c>
       <c r="AK36" s="10"/>
@@ -11452,13 +11521,13 @@
       <c r="AZ36" s="1"/>
       <c r="BA36" s="1"/>
       <c r="BB36" s="80">
-        <f t="shared" si="60"/>
+        <f t="shared" si="69"/>
         <v>0.92608271703993839</v>
       </c>
       <c r="BC36" s="1"/>
       <c r="BD36" s="1"/>
       <c r="BE36" s="87">
-        <f t="shared" si="61"/>
+        <f t="shared" si="70"/>
         <v>5.4637647201978149E-3</v>
       </c>
       <c r="BF36" s="1"/>
@@ -11467,19 +11536,19 @@
       <c r="BI36" s="1"/>
       <c r="BJ36" s="1"/>
       <c r="BK36" s="82">
-        <f t="shared" si="62"/>
+        <f t="shared" si="71"/>
         <v>-7.3917282960061614E-2</v>
       </c>
       <c r="BL36" s="1"/>
       <c r="BM36" s="1"/>
       <c r="BN36" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>6.84535182398638E-2</v>
       </c>
       <c r="BO36" s="1"/>
       <c r="BP36" s="1"/>
       <c r="BQ36" s="103">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>-5.0598980773477516E-3</v>
       </c>
       <c r="BR36" s="1"/>
@@ -11551,42 +11620,42 @@
       <c r="DK36" s="1"/>
       <c r="DL36" s="1"/>
       <c r="DM36" s="80">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>-7.4171447711577063E-2</v>
       </c>
       <c r="DN36" s="80">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>9.4962538060352805E-2</v>
       </c>
       <c r="DO36" s="80">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>9.0532131705106184E-2</v>
       </c>
       <c r="DQ36" s="1"/>
       <c r="DR36" s="80">
+        <f t="shared" si="68"/>
+        <v>1.7518263604222263E-3</v>
+      </c>
+      <c r="DS36" s="80">
         <f t="shared" si="59"/>
-        <v>1.7518263604222263E-3</v>
-      </c>
-      <c r="DS36" s="80">
-        <f t="shared" si="52"/>
         <v>0.24993001370390203</v>
       </c>
       <c r="DT36" s="80">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>1.8362191273405949E-3</v>
       </c>
       <c r="DU36" s="1"/>
       <c r="DV36" s="1"/>
       <c r="DW36" s="82">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>-1.2993549729181951E-4</v>
       </c>
       <c r="DX36" s="82">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v>2.3733988438781294E-2</v>
       </c>
       <c r="DY36" s="82">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v>1.662368318758339E-4</v>
       </c>
       <c r="EA36" s="2"/>
@@ -11715,15 +11784,15 @@
       <c r="AF37" s="22"/>
       <c r="AG37" s="22"/>
       <c r="AH37" s="99">
+        <f t="shared" si="65"/>
+        <v>1.5043223071491597E-2</v>
+      </c>
+      <c r="AI37" s="99">
         <f t="shared" si="56"/>
-        <v>1.5043223071491597E-2</v>
-      </c>
-      <c r="AI37" s="99">
-        <f t="shared" si="50"/>
         <v>1.8970869829766769E-3</v>
       </c>
       <c r="AJ37" s="99">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0.10777016725658149</v>
       </c>
       <c r="AK37" s="1"/>
@@ -11750,13 +11819,13 @@
       <c r="AZ37" s="1"/>
       <c r="BA37" s="1"/>
       <c r="BB37" s="80">
-        <f t="shared" si="60"/>
+        <f t="shared" si="69"/>
         <v>1.3727844026062374E-2</v>
       </c>
       <c r="BC37" s="1"/>
       <c r="BD37" s="1"/>
       <c r="BE37" s="87">
-        <f t="shared" si="61"/>
+        <f t="shared" si="70"/>
         <v>1.8845370160389642E-4</v>
       </c>
       <c r="BF37" s="1"/>
@@ -11765,19 +11834,19 @@
       <c r="BI37" s="1"/>
       <c r="BJ37" s="1"/>
       <c r="BK37" s="82">
-        <f t="shared" si="62"/>
+        <f t="shared" si="71"/>
         <v>1.3727844026062374E-2</v>
       </c>
       <c r="BL37" s="1"/>
       <c r="BM37" s="1"/>
       <c r="BN37" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>1.3539390324458478E-2</v>
       </c>
       <c r="BO37" s="1"/>
       <c r="BP37" s="1"/>
       <c r="BQ37" s="103">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>1.8586663858214403E-4</v>
       </c>
       <c r="BR37" s="1"/>
@@ -11837,42 +11906,42 @@
       <c r="DK37" s="1"/>
       <c r="DL37" s="1"/>
       <c r="DM37" s="80">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>2.7245603476954419E-3</v>
       </c>
       <c r="DN37" s="80">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>-3.4882852323694417E-3</v>
       </c>
       <c r="DO37" s="80">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>-3.325541887698299E-3</v>
       </c>
       <c r="DQ37" s="1"/>
       <c r="DR37" s="80">
+        <f t="shared" si="68"/>
+        <v>1.4816924511112939E-2</v>
+      </c>
+      <c r="DS37" s="80">
         <f t="shared" si="59"/>
-        <v>1.4816924511112939E-2</v>
-      </c>
-      <c r="DS37" s="80">
-        <f t="shared" si="52"/>
         <v>1.8934880439556974E-3</v>
       </c>
       <c r="DT37" s="80">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>9.6155758306069941E-2</v>
       </c>
       <c r="DU37" s="1"/>
       <c r="DV37" s="1"/>
       <c r="DW37" s="82">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>4.0369604997774981E-5</v>
       </c>
       <c r="DX37" s="82">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v>-6.6050263813987596E-6</v>
       </c>
       <c r="DY37" s="82">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v>-3.197700019902292E-4</v>
       </c>
       <c r="EA37" s="2"/>
@@ -12013,15 +12082,15 @@
         <v>32</v>
       </c>
       <c r="AH38" s="99">
+        <f t="shared" si="65"/>
+        <v>0.99999829508064542</v>
+      </c>
+      <c r="AI38" s="99">
         <f t="shared" si="56"/>
-        <v>0.99999829508064542</v>
-      </c>
-      <c r="AI38" s="99">
-        <f t="shared" si="50"/>
         <v>0.1256333497655055</v>
       </c>
       <c r="AJ38" s="99">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0.31687264618814737</v>
       </c>
       <c r="AK38" s="1"/>
@@ -12054,7 +12123,7 @@
         <v>32</v>
       </c>
       <c r="BB38" s="80">
-        <f t="shared" si="60"/>
+        <f t="shared" si="69"/>
         <v>0.98369938090964359</v>
       </c>
       <c r="BC38" s="1"/>
@@ -12062,7 +12131,7 @@
         <v>32</v>
       </c>
       <c r="BE38" s="87">
-        <f t="shared" si="61"/>
+        <f t="shared" si="70"/>
         <v>2.657101827288917E-4</v>
       </c>
       <c r="BF38" s="1"/>
@@ -12073,7 +12142,7 @@
         <v>32</v>
       </c>
       <c r="BK38" s="82">
-        <f t="shared" si="62"/>
+        <f t="shared" si="71"/>
         <v>-1.6300619090356405E-2</v>
       </c>
       <c r="BL38" s="1"/>
@@ -12081,7 +12150,7 @@
         <v>32</v>
       </c>
       <c r="BN38" s="80">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>1.6034908907627512E-2</v>
       </c>
       <c r="BO38" s="1"/>
@@ -12089,7 +12158,7 @@
         <v>32</v>
       </c>
       <c r="BQ38" s="103">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>-2.6137894225179898E-4</v>
       </c>
       <c r="BR38" s="1"/>
@@ -12153,30 +12222,30 @@
         <v>32</v>
       </c>
       <c r="DM38" s="80">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>-3.831471356098667E-3</v>
       </c>
       <c r="DN38" s="80">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>4.905475836140114E-3</v>
       </c>
       <c r="DO38" s="80">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>4.6766145213116136E-3</v>
       </c>
       <c r="DQ38" s="1" t="s">
         <v>32</v>
       </c>
       <c r="DR38" s="80">
+        <f t="shared" si="68"/>
+        <v>1.704916447833717E-6</v>
+      </c>
+      <c r="DS38" s="80">
         <f t="shared" si="59"/>
-        <v>1.704916447833717E-6</v>
-      </c>
-      <c r="DS38" s="80">
-        <f t="shared" si="52"/>
         <v>0.10984961119220366</v>
       </c>
       <c r="DT38" s="80">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0.21646437228586854</v>
       </c>
       <c r="DU38" s="1"/>
@@ -12184,15 +12253,15 @@
         <v>32</v>
       </c>
       <c r="DW38" s="82">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>-6.5323385344163736E-9</v>
       </c>
       <c r="DX38" s="82">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v>5.3886461331274164E-4</v>
       </c>
       <c r="DY38" s="82">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v>1.0123204267786961E-3</v>
       </c>
       <c r="EA38" s="2"/>
@@ -12934,11 +13003,11 @@
         <v>9.4311372118523238</v>
       </c>
       <c r="J46" s="94">
-        <f t="shared" ref="J46:J47" si="70">EX33</f>
+        <f t="shared" ref="J46:J47" si="79">EX33</f>
         <v>1.3218520339168491</v>
       </c>
       <c r="K46" s="95">
-        <f t="shared" ref="K46:K47" si="71">EY33</f>
+        <f t="shared" ref="K46:K47" si="80">EY33</f>
         <v>1.9312210591322285</v>
       </c>
       <c r="L46" s="1"/>
@@ -12966,11 +13035,11 @@
         <v>3.7652080134025501</v>
       </c>
       <c r="T46" s="68">
-        <f t="shared" ref="T46" si="72">FU33</f>
+        <f t="shared" ref="T46" si="81">FU33</f>
         <v>-3.2508909308796503</v>
       </c>
       <c r="U46" s="98">
-        <f t="shared" ref="U46" si="73">FV33</f>
+        <f t="shared" ref="U46" si="82">FV33</f>
         <v>-2.9164688068323521</v>
       </c>
       <c r="V46" s="22"/>
@@ -12982,11 +13051,11 @@
         <v>-1.0158401704654456</v>
       </c>
       <c r="Y46" s="70">
-        <f t="shared" ref="Y46" si="74">O46+T46</f>
+        <f t="shared" ref="Y46" si="83">O46+T46</f>
         <v>-4.4837423147383504</v>
       </c>
       <c r="Z46" s="71">
-        <f t="shared" ref="Z46" si="75">P46+U46</f>
+        <f t="shared" ref="Z46" si="84">P46+U46</f>
         <v>-3.1225545097004104</v>
       </c>
       <c r="AA46" s="22"/>
@@ -13011,11 +13080,11 @@
         <v>0.26583847651263381</v>
       </c>
       <c r="AI46" s="81">
-        <f t="shared" ref="AI46:AI51" si="76">1/(1+2.71828182845904^(Y46*-1))</f>
+        <f t="shared" ref="AI46:AI51" si="85">1/(1+2.71828182845904^(Y46*-1))</f>
         <v>1.1165014159101139E-2</v>
       </c>
       <c r="AJ46" s="81">
-        <f t="shared" ref="AJ46:AJ51" si="77">1/(1+2.71828182845904^(Z46*-1))</f>
+        <f t="shared" ref="AJ46:AJ51" si="86">1/(1+2.71828182845904^(Z46*-1))</f>
         <v>4.218643164230497E-2</v>
       </c>
       <c r="AK46" s="10"/>
@@ -13242,15 +13311,15 @@
         <v>24</v>
       </c>
       <c r="DM46" s="108">
-        <f>BY46</f>
+        <f t="shared" ref="DM46:DO47" si="87">BY46</f>
         <v>2.0991135914849699</v>
       </c>
       <c r="DN46" s="108">
-        <f>BZ46</f>
+        <f t="shared" si="87"/>
         <v>-2.6943438198978842</v>
       </c>
       <c r="DO46" s="108">
-        <f>CA46</f>
+        <f t="shared" si="87"/>
         <v>-2.5696521412099314</v>
       </c>
       <c r="DQ46" s="1" t="s">
@@ -13261,11 +13330,11 @@
         <v>0.19516838091807565</v>
       </c>
       <c r="DS46" s="109">
-        <f t="shared" ref="DS46:DS51" si="78">AI46*(1-AI46)</f>
+        <f t="shared" ref="DS46:DS51" si="88">AI46*(1-AI46)</f>
         <v>1.1040356617928212E-2</v>
       </c>
       <c r="DT46" s="109">
-        <f t="shared" ref="DT46:DT51" si="79">AJ46*(1-AJ46)</f>
+        <f t="shared" ref="DT46:DT51" si="89">AJ46*(1-AJ46)</f>
         <v>4.04067366275941E-2</v>
       </c>
       <c r="DU46" s="1"/>
@@ -13273,15 +13342,15 @@
         <v>24</v>
       </c>
       <c r="DW46" s="86">
-        <f>DM46*DR46</f>
+        <f t="shared" ref="DW46:DY47" si="90">DM46*DR46</f>
         <v>0.40968060101324844</v>
       </c>
       <c r="DX46" s="86">
-        <f>DN46*DS46</f>
+        <f t="shared" si="90"/>
         <v>-2.9746516622983582E-2</v>
       </c>
       <c r="DY46" s="86">
-        <f>DO46*DT46</f>
+        <f t="shared" si="90"/>
         <v>-0.10383125729440294</v>
       </c>
       <c r="EA46" t="s">
@@ -13355,15 +13424,15 @@
         <v>27</v>
       </c>
       <c r="EW46" s="24">
-        <f>I46-ER46</f>
+        <f t="shared" ref="EW46:EY47" si="91">I46-ER46</f>
         <v>9.6293746152408488</v>
       </c>
       <c r="EX46" s="24">
-        <f>J46-ES46</f>
+        <f t="shared" si="91"/>
         <v>1.3032848535901054</v>
       </c>
       <c r="EY46" s="24">
-        <f>K46-ET46</f>
+        <f t="shared" si="91"/>
         <v>1.8803296209414129</v>
       </c>
       <c r="EZ46" s="1"/>
@@ -13391,11 +13460,11 @@
         <v>1.2457221619359912E-5</v>
       </c>
       <c r="FH46" s="86">
-        <f t="shared" ref="FH46" si="80">FC46</f>
+        <f t="shared" ref="FH46" si="92">FC46</f>
         <v>-2.5761086414601198E-6</v>
       </c>
       <c r="FI46" s="86">
-        <f t="shared" ref="FI46" si="81">FD46</f>
+        <f t="shared" ref="FI46" si="93">FD46</f>
         <v>-1.2731623038489114E-4</v>
       </c>
       <c r="FJ46" s="1"/>
@@ -13482,11 +13551,11 @@
         <v>0.99389231835348746</v>
       </c>
       <c r="J47" s="96">
-        <f t="shared" si="70"/>
+        <f t="shared" si="79"/>
         <v>3.3923214592687501</v>
       </c>
       <c r="K47" s="97">
-        <f t="shared" si="71"/>
+        <f t="shared" si="80"/>
         <v>-4.2644956947714494</v>
       </c>
       <c r="L47" s="1"/>
@@ -13542,15 +13611,15 @@
       <c r="AF47" s="22"/>
       <c r="AG47" s="22"/>
       <c r="AH47" s="99">
-        <f t="shared" ref="AH47:AH51" si="82">1/(1+2.71828182845904^(X47*-1))</f>
+        <f t="shared" ref="AH47:AH51" si="94">1/(1+2.71828182845904^(X47*-1))</f>
         <v>0.98638155147205719</v>
       </c>
       <c r="AI47" s="99">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>1.1651748170840593E-2</v>
       </c>
       <c r="AJ47" s="99">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v>0.25409706569212237</v>
       </c>
       <c r="AK47" s="10"/>
@@ -13558,7 +13627,7 @@
         <v>28</v>
       </c>
       <c r="AM47" s="16">
-        <f t="shared" ref="AM47:AM48" si="83">CU34</f>
+        <f t="shared" ref="AM47:AM48" si="95">CU34</f>
         <v>-18.766719451940887</v>
       </c>
       <c r="AN47" s="1"/>
@@ -13609,7 +13678,7 @@
       <c r="BL47" s="1"/>
       <c r="BM47" s="1"/>
       <c r="BN47" s="80">
-        <f t="shared" ref="BN47:BN51" si="84">BB47*(1-BB47)</f>
+        <f t="shared" ref="BN47:BN51" si="96">BB47*(1-BB47)</f>
         <v>8.0434725176998199E-4</v>
       </c>
       <c r="BO47" s="1"/>
@@ -13724,42 +13793,42 @@
       <c r="DK47" s="1"/>
       <c r="DL47" s="1"/>
       <c r="DM47" s="80">
-        <f>BY47</f>
+        <f t="shared" si="87"/>
         <v>1.1750737493743663E-2</v>
       </c>
       <c r="DN47" s="80">
-        <f>BZ47</f>
+        <f t="shared" si="87"/>
         <v>-1.5082807845150047E-2</v>
       </c>
       <c r="DO47" s="80">
-        <f>CA47</f>
+        <f t="shared" si="87"/>
         <v>-1.4384789791310554E-2</v>
       </c>
       <c r="DQ47" s="1"/>
       <c r="DR47" s="80">
-        <f t="shared" ref="DR47:DR51" si="85">AH47*(1-AH47)</f>
+        <f t="shared" ref="DR47:DR51" si="97">AH47*(1-AH47)</f>
         <v>1.3432986387634578E-2</v>
       </c>
       <c r="DS47" s="80">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>1.1515984935403907E-2</v>
       </c>
       <c r="DT47" s="80">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>0.18953174689877561</v>
       </c>
       <c r="DU47" s="1"/>
       <c r="DV47" s="1"/>
       <c r="DW47" s="82">
-        <f>DM47*DR47</f>
+        <f t="shared" si="90"/>
         <v>1.5784749679812588E-4</v>
       </c>
       <c r="DX47" s="82">
-        <f>DN47*DS47</f>
+        <f t="shared" si="90"/>
         <v>-1.7369338792833981E-4</v>
       </c>
       <c r="DY47" s="82">
-        <f>DO47*DT47</f>
+        <f t="shared" si="90"/>
         <v>-2.726374337918763E-3</v>
       </c>
       <c r="EA47" t="s">
@@ -13828,15 +13897,15 @@
         <v>28</v>
       </c>
       <c r="EW47" s="24">
-        <f>I47-ER47</f>
+        <f t="shared" si="91"/>
         <v>1.0642163239099407</v>
       </c>
       <c r="EX47" s="24">
-        <f>J47-ES47</f>
+        <f t="shared" si="91"/>
         <v>3.3695055949393238</v>
       </c>
       <c r="EY47" s="24">
-        <f>K47-ET47</f>
+        <f t="shared" si="91"/>
         <v>-4.2835734477043168</v>
       </c>
       <c r="EZ47" s="1"/>
@@ -13973,15 +14042,15 @@
       <c r="AF48" s="74"/>
       <c r="AG48" s="74"/>
       <c r="AH48" s="99">
-        <f t="shared" si="82"/>
+        <f t="shared" si="94"/>
         <v>0.99982496732607018</v>
       </c>
       <c r="AI48" s="99">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>7.3948164505250907E-2</v>
       </c>
       <c r="AJ48" s="99">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v>0.12247586972554693</v>
       </c>
       <c r="AK48" s="10"/>
@@ -13989,7 +14058,7 @@
         <v>29</v>
       </c>
       <c r="AM48" s="20">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>-17.898213460000683</v>
       </c>
       <c r="AN48" s="1"/>
@@ -14013,13 +14082,13 @@
       <c r="AZ48" s="1"/>
       <c r="BA48" s="1"/>
       <c r="BB48" s="80">
-        <f t="shared" ref="BB48:BB51" si="86">1/(1+2.71828182845904^(AV48*-1))</f>
+        <f t="shared" ref="BB48:BB51" si="98">1/(1+2.71828182845904^(AV48*-1))</f>
         <v>0.99979801342054098</v>
       </c>
       <c r="BC48" s="1"/>
       <c r="BD48" s="1"/>
       <c r="BE48" s="87">
-        <f t="shared" ref="BE48:BE51" si="87">(BB48-B48)^2</f>
+        <f t="shared" ref="BE48:BE51" si="99">(BB48-B48)^2</f>
         <v>4.0798578281556476E-8</v>
       </c>
       <c r="BF48" s="1"/>
@@ -14028,19 +14097,19 @@
       <c r="BI48" s="1"/>
       <c r="BJ48" s="1"/>
       <c r="BK48" s="82">
-        <f t="shared" ref="BK48:BK51" si="88">BB48-B48</f>
+        <f t="shared" ref="BK48:BK51" si="100">BB48-B48</f>
         <v>-2.0198657945902365E-4</v>
       </c>
       <c r="BL48" s="1"/>
       <c r="BM48" s="1"/>
       <c r="BN48" s="80">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>2.019457808807421E-4</v>
       </c>
       <c r="BO48" s="1"/>
       <c r="BP48" s="1"/>
       <c r="BQ48" s="103">
-        <f t="shared" ref="BQ48:BQ51" si="89">BK48*BN48</f>
+        <f t="shared" ref="BQ48:BQ51" si="101">BK48*BN48</f>
         <v>-4.079033751628259E-8</v>
       </c>
       <c r="BR48" s="1"/>
@@ -14135,42 +14204,42 @@
       <c r="DK48" s="1"/>
       <c r="DL48" s="1"/>
       <c r="DM48" s="80">
-        <f t="shared" ref="DM48:DM51" si="90">BY48</f>
+        <f t="shared" ref="DM48:DM51" si="102">BY48</f>
         <v>-5.9638757488019677E-7</v>
       </c>
       <c r="DN48" s="80">
-        <f t="shared" ref="DN48:DN51" si="91">BZ48</f>
+        <f t="shared" ref="DN48:DN51" si="103">BZ48</f>
         <v>7.6550082051805459E-7</v>
       </c>
       <c r="DO48" s="80">
-        <f t="shared" ref="DO48:DO51" si="92">CA48</f>
+        <f t="shared" ref="DO48:DO51" si="104">CA48</f>
         <v>7.300741679718999E-7</v>
       </c>
       <c r="DQ48" s="1"/>
       <c r="DR48" s="80">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>1.7500203749287721E-4</v>
       </c>
       <c r="DS48" s="80">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>6.8479833471555257E-2</v>
       </c>
       <c r="DT48" s="80">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>0.10747553106051778</v>
       </c>
       <c r="DU48" s="1"/>
       <c r="DV48" s="1"/>
       <c r="DW48" s="82">
-        <f t="shared" ref="DW48:DW51" si="93">DM48*DR48</f>
+        <f t="shared" ref="DW48:DW51" si="105">DM48*DR48</f>
         <v>-1.0436904073947031E-10</v>
       </c>
       <c r="DX48" s="82">
-        <f t="shared" ref="DX48:DX51" si="94">DN48*DS48</f>
+        <f t="shared" ref="DX48:DX51" si="106">DN48*DS48</f>
         <v>5.2421368711415291E-8</v>
       </c>
       <c r="DY48" s="82">
-        <f t="shared" ref="DY48:DY51" si="95">DO48*DT48</f>
+        <f t="shared" ref="DY48:DY51" si="107">DO48*DT48</f>
         <v>7.8465108916345603E-8</v>
       </c>
       <c r="EA48" s="2"/>
@@ -14319,15 +14388,15 @@
       <c r="AF49" s="22"/>
       <c r="AG49" s="22"/>
       <c r="AH49" s="99">
-        <f t="shared" si="82"/>
+        <f t="shared" si="94"/>
         <v>0.99842622954073157</v>
       </c>
       <c r="AI49" s="99">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>0.50166084897515173</v>
       </c>
       <c r="AJ49" s="99">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v>1.7913325032254302E-3</v>
       </c>
       <c r="AK49" s="10"/>
@@ -14356,13 +14425,13 @@
       <c r="AZ49" s="1"/>
       <c r="BA49" s="1"/>
       <c r="BB49" s="80">
-        <f t="shared" si="86"/>
+        <f t="shared" si="98"/>
         <v>0.93213329567062386</v>
       </c>
       <c r="BC49" s="1"/>
       <c r="BD49" s="1"/>
       <c r="BE49" s="87">
-        <f t="shared" si="87"/>
+        <f t="shared" si="99"/>
         <v>4.6058895565309621E-3</v>
       </c>
       <c r="BF49" s="1"/>
@@ -14371,19 +14440,19 @@
       <c r="BI49" s="1"/>
       <c r="BJ49" s="1"/>
       <c r="BK49" s="82">
-        <f t="shared" si="88"/>
+        <f t="shared" si="100"/>
         <v>-6.7866704329376137E-2</v>
       </c>
       <c r="BL49" s="1"/>
       <c r="BM49" s="1"/>
       <c r="BN49" s="80">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>6.3260814772845175E-2</v>
       </c>
       <c r="BO49" s="1"/>
       <c r="BP49" s="1"/>
       <c r="BQ49" s="103">
-        <f t="shared" si="89"/>
+        <f t="shared" si="101"/>
         <v>-4.2933030118241138E-3</v>
       </c>
       <c r="BR49" s="1"/>
@@ -14455,42 +14524,42 @@
       <c r="DK49" s="1"/>
       <c r="DL49" s="1"/>
       <c r="DM49" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="102"/>
         <v>-6.277154658074463E-2</v>
       </c>
       <c r="DN49" s="80">
-        <f t="shared" si="91"/>
+        <f t="shared" si="103"/>
         <v>8.0571213145075996E-2</v>
       </c>
       <c r="DO49" s="80">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v>7.6842453754091822E-2</v>
       </c>
       <c r="DQ49" s="1"/>
       <c r="DR49" s="80">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>1.571293705809965E-3</v>
       </c>
       <c r="DS49" s="80">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>0.24999724158068173</v>
       </c>
       <c r="DT49" s="80">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1.7881236310883183E-3</v>
       </c>
       <c r="DU49" s="1"/>
       <c r="DV49" s="1"/>
       <c r="DW49" s="82">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v>-9.8632536046281067E-5</v>
       </c>
       <c r="DX49" s="82">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>2.0142581037078163E-2</v>
       </c>
       <c r="DY49" s="82">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>1.3740380742850285E-4</v>
       </c>
       <c r="EA49" s="2"/>
@@ -14619,15 +14688,15 @@
       <c r="AF50" s="22"/>
       <c r="AG50" s="22"/>
       <c r="AH50" s="99">
-        <f t="shared" si="82"/>
+        <f t="shared" si="94"/>
         <v>1.2141594203295761E-2</v>
       </c>
       <c r="AI50" s="99">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>1.9558753541398331E-3</v>
       </c>
       <c r="AJ50" s="99">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v>0.11291789349481331</v>
       </c>
       <c r="AK50" s="1"/>
@@ -14654,13 +14723,13 @@
       <c r="AZ50" s="1"/>
       <c r="BA50" s="1"/>
       <c r="BB50" s="80">
-        <f t="shared" si="86"/>
+        <f t="shared" si="98"/>
         <v>1.1991550002925724E-2</v>
       </c>
       <c r="BC50" s="1"/>
       <c r="BD50" s="1"/>
       <c r="BE50" s="87">
-        <f t="shared" si="87"/>
+        <f t="shared" si="99"/>
         <v>1.4379727147266792E-4</v>
       </c>
       <c r="BF50" s="1"/>
@@ -14669,19 +14738,19 @@
       <c r="BI50" s="1"/>
       <c r="BJ50" s="1"/>
       <c r="BK50" s="82">
-        <f t="shared" si="88"/>
+        <f t="shared" si="100"/>
         <v>1.1991550002925724E-2</v>
       </c>
       <c r="BL50" s="1"/>
       <c r="BM50" s="1"/>
       <c r="BN50" s="80">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>1.1847752731453056E-2</v>
       </c>
       <c r="BO50" s="1"/>
       <c r="BP50" s="1"/>
       <c r="BQ50" s="103">
-        <f t="shared" si="89"/>
+        <f t="shared" si="101"/>
         <v>1.4207291930151914E-4</v>
       </c>
       <c r="BR50" s="1"/>
@@ -14741,42 +14810,42 @@
       <c r="DK50" s="1"/>
       <c r="DL50" s="1"/>
       <c r="DM50" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="102"/>
         <v>2.0772204634139243E-3</v>
       </c>
       <c r="DN50" s="80">
-        <f t="shared" si="91"/>
+        <f t="shared" si="103"/>
         <v>-2.6662426182498468E-3</v>
       </c>
       <c r="DO50" s="80">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v>-2.5428514365440406E-3</v>
       </c>
       <c r="DQ50" s="1"/>
       <c r="DR50" s="80">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>1.1994175893498256E-2</v>
       </c>
       <c r="DS50" s="80">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>1.9520499057389014E-3</v>
       </c>
       <c r="DT50" s="80">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>0.10016744282350731</v>
       </c>
       <c r="DU50" s="1"/>
       <c r="DV50" s="1"/>
       <c r="DW50" s="82">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v>2.4914547607760565E-5</v>
       </c>
       <c r="DX50" s="82">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>-5.2046386516316552E-6</v>
       </c>
       <c r="DY50" s="82">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>-2.5471092587869864E-4</v>
       </c>
       <c r="EA50" s="2"/>
@@ -14917,15 +14986,15 @@
         <v>32</v>
       </c>
       <c r="AH51" s="99">
-        <f t="shared" si="82"/>
+        <f t="shared" si="94"/>
         <v>0.99999863388581134</v>
       </c>
       <c r="AI51" s="99">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>0.12347934625913502</v>
       </c>
       <c r="AJ51" s="99">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v>0.30558589413384518</v>
       </c>
       <c r="AK51" s="1"/>
@@ -14958,7 +15027,7 @@
         <v>32</v>
       </c>
       <c r="BB51" s="80">
-        <f t="shared" si="86"/>
+        <f t="shared" si="98"/>
         <v>0.98664957008795751</v>
       </c>
       <c r="BC51" s="1"/>
@@ -14966,7 +15035,7 @@
         <v>32</v>
       </c>
       <c r="BE51" s="87">
-        <f t="shared" si="87"/>
+        <f t="shared" si="99"/>
         <v>1.7823397883635894E-4</v>
       </c>
       <c r="BF51" s="1"/>
@@ -14977,7 +15046,7 @@
         <v>32</v>
       </c>
       <c r="BK51" s="82">
-        <f t="shared" si="88"/>
+        <f t="shared" si="100"/>
         <v>-1.3350429912042494E-2</v>
       </c>
       <c r="BL51" s="1"/>
@@ -14985,7 +15054,7 @@
         <v>32</v>
       </c>
       <c r="BN51" s="80">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>1.3172195933206135E-2</v>
       </c>
       <c r="BO51" s="1"/>
@@ -14993,7 +15062,7 @@
         <v>32</v>
       </c>
       <c r="BQ51" s="103">
-        <f t="shared" si="89"/>
+        <f t="shared" si="101"/>
         <v>-1.7585447859395968E-4</v>
       </c>
       <c r="BR51" s="1"/>
@@ -15057,30 +15126,30 @@
         <v>32</v>
       </c>
       <c r="DM51" s="80">
-        <f t="shared" si="90"/>
+        <f t="shared" si="102"/>
         <v>-2.5711340578784955E-3</v>
       </c>
       <c r="DN51" s="80">
-        <f t="shared" si="91"/>
+        <f t="shared" si="103"/>
         <v>3.3002116641401855E-3</v>
       </c>
       <c r="DO51" s="80">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v>3.1474809957718112E-3</v>
       </c>
       <c r="DQ51" s="1" t="s">
         <v>32</v>
       </c>
       <c r="DR51" s="80">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>1.3661123223931952E-6</v>
       </c>
       <c r="DS51" s="80">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>0.10823219730655166</v>
       </c>
       <c r="DT51" s="80">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>0.21220315544026355</v>
       </c>
       <c r="DU51" s="1"/>
@@ -15088,15 +15157,15 @@
         <v>32</v>
       </c>
       <c r="DW51" s="82">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v>-3.5124579189926312E-9</v>
       </c>
       <c r="DX51" s="82">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>3.5718915998660377E-4</v>
       </c>
       <c r="DY51" s="82">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>6.6790539899104116E-4</v>
       </c>
       <c r="EA51" s="2"/>
@@ -15838,11 +15907,11 @@
         <v>9.6293746152408488</v>
       </c>
       <c r="J59" s="94">
-        <f t="shared" ref="J59:J60" si="96">EX46</f>
+        <f t="shared" ref="J59:J60" si="108">EX46</f>
         <v>1.3032848535901054</v>
       </c>
       <c r="K59" s="95">
-        <f t="shared" ref="K59:K60" si="97">EY46</f>
+        <f t="shared" ref="K59:K60" si="109">EY46</f>
         <v>1.8803296209414129</v>
       </c>
       <c r="L59" s="1"/>
@@ -15870,11 +15939,11 @@
         <v>3.765195680753147</v>
       </c>
       <c r="T59" s="68">
-        <f t="shared" ref="T59" si="98">FU46</f>
+        <f t="shared" ref="T59" si="110">FU46</f>
         <v>-3.2508883805320954</v>
       </c>
       <c r="U59" s="98">
-        <f t="shared" ref="U59" si="99">FV46</f>
+        <f t="shared" ref="U59" si="111">FV46</f>
         <v>-2.9163427637642712</v>
       </c>
       <c r="V59" s="22"/>
@@ -15886,11 +15955,11 @@
         <v>-1.1248990746837566</v>
       </c>
       <c r="Y59" s="70">
-        <f t="shared" ref="Y59" si="100">O59+T59</f>
+        <f t="shared" ref="Y59" si="112">O59+T59</f>
         <v>-4.4707187829634654</v>
       </c>
       <c r="Z59" s="71">
-        <f t="shared" ref="Z59" si="101">P59+U59</f>
+        <f t="shared" ref="Z59" si="113">P59+U59</f>
         <v>-3.0942568895756759</v>
       </c>
       <c r="AA59" s="22"/>
@@ -15915,11 +15984,11 @@
         <v>0.24510368664820792</v>
       </c>
       <c r="AI59" s="81">
-        <f t="shared" ref="AI59:AI64" si="102">1/(1+2.71828182845904^(Y59*-1))</f>
+        <f t="shared" ref="AI59:AI64" si="114">1/(1+2.71828182845904^(Y59*-1))</f>
         <v>1.1309717784109189E-2</v>
       </c>
       <c r="AJ59" s="81">
-        <f t="shared" ref="AJ59:AJ64" si="103">1/(1+2.71828182845904^(Z59*-1))</f>
+        <f t="shared" ref="AJ59:AJ64" si="115">1/(1+2.71828182845904^(Z59*-1))</f>
         <v>4.3344775211935305E-2</v>
       </c>
       <c r="AK59" s="10"/>
@@ -16146,15 +16215,15 @@
         <v>24</v>
       </c>
       <c r="DM59" s="108">
-        <f>BY59</f>
+        <f t="shared" ref="DM59:DO60" si="116">BY59</f>
         <v>1.872556037072</v>
       </c>
       <c r="DN59" s="108">
-        <f>BZ59</f>
+        <f t="shared" si="116"/>
         <v>-2.4090991830738111</v>
       </c>
       <c r="DO59" s="108">
-        <f>CA59</f>
+        <f t="shared" si="116"/>
         <v>-2.298466522786915</v>
       </c>
       <c r="DQ59" s="1" t="s">
@@ -16165,11 +16234,11 @@
         <v>0.18502786943966501</v>
       </c>
       <c r="DS59" s="109">
-        <f t="shared" ref="DS59:DS64" si="104">AI59*(1-AI59)</f>
+        <f t="shared" ref="DS59:DS64" si="117">AI59*(1-AI59)</f>
         <v>1.1181808067752994E-2</v>
       </c>
       <c r="DT59" s="109">
-        <f t="shared" ref="DT59:DT64" si="105">AJ59*(1-AJ59)</f>
+        <f t="shared" ref="DT59:DT64" si="118">AJ59*(1-AJ59)</f>
         <v>4.1466005673762102E-2</v>
       </c>
       <c r="DU59" s="1"/>
@@ -16177,15 +16246,15 @@
         <v>24</v>
       </c>
       <c r="DW59" s="86">
-        <f>DM59*DR59</f>
+        <f t="shared" ref="DW59:DY60" si="119">DM59*DR59</f>
         <v>0.34647505394581452</v>
       </c>
       <c r="DX59" s="86">
-        <f>DN59*DS59</f>
+        <f t="shared" si="119"/>
         <v>-2.6938084681311886E-2</v>
       </c>
       <c r="DY59" s="86">
-        <f>DO59*DT59</f>
+        <f t="shared" si="119"/>
         <v>-9.5308225874834465E-2</v>
       </c>
       <c r="EA59" t="s">
@@ -16259,15 +16328,15 @@
         <v>27</v>
       </c>
       <c r="EW59" s="24">
-        <f>I59-ER59</f>
+        <f t="shared" ref="EW59:EY60" si="120">I59-ER59</f>
         <v>9.7970194447382823</v>
       </c>
       <c r="EX59" s="24">
-        <f>J59-ES59</f>
+        <f t="shared" si="120"/>
         <v>1.2867168093164527</v>
       </c>
       <c r="EY59" s="24">
-        <f>K59-ET59</f>
+        <f t="shared" si="120"/>
         <v>1.8338475133412964</v>
       </c>
       <c r="EZ59" s="1"/>
@@ -16295,11 +16364,11 @@
         <v>7.9343091720835905E-6</v>
       </c>
       <c r="FH59" s="86">
-        <f t="shared" ref="FH59" si="106">FC59</f>
+        <f t="shared" ref="FH59" si="121">FC59</f>
         <v>-2.0516548001595197E-6</v>
       </c>
       <c r="FI59" s="86">
-        <f t="shared" ref="FI59" si="107">FD59</f>
+        <f t="shared" ref="FI59" si="122">FD59</f>
         <v>-1.0285489380823911E-4</v>
       </c>
       <c r="FJ59" s="1"/>
@@ -16386,11 +16455,11 @@
         <v>1.0642163239099407</v>
       </c>
       <c r="J60" s="96">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v>3.3695055949393238</v>
       </c>
       <c r="K60" s="97">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v>-4.2835734477043168</v>
       </c>
       <c r="L60" s="1"/>
@@ -16446,15 +16515,15 @@
       <c r="AF60" s="22"/>
       <c r="AG60" s="22"/>
       <c r="AH60" s="99">
-        <f t="shared" ref="AH60:AH64" si="108">1/(1+2.71828182845904^(X60*-1))</f>
+        <f t="shared" ref="AH60:AH64" si="123">1/(1+2.71828182845904^(X60*-1))</f>
         <v>0.9862693738031334</v>
       </c>
       <c r="AI60" s="99">
-        <f t="shared" si="102"/>
+        <f t="shared" si="114"/>
         <v>1.1733535013305121E-2</v>
       </c>
       <c r="AJ60" s="99">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>0.25460068822703485</v>
       </c>
       <c r="AK60" s="10"/>
@@ -16462,7 +16531,7 @@
         <v>28</v>
       </c>
       <c r="AM60" s="16">
-        <f t="shared" ref="AM60:AM61" si="109">CU47</f>
+        <f t="shared" ref="AM60:AM61" si="124">CU47</f>
         <v>-18.766162188401189</v>
       </c>
       <c r="AN60" s="1"/>
@@ -16513,7 +16582,7 @@
       <c r="BL60" s="1"/>
       <c r="BM60" s="1"/>
       <c r="BN60" s="80">
-        <f t="shared" ref="BN60:BN64" si="110">BB60*(1-BB60)</f>
+        <f t="shared" ref="BN60:BN64" si="125">BB60*(1-BB60)</f>
         <v>8.4341298679422704E-4</v>
       </c>
       <c r="BO60" s="1"/>
@@ -16628,42 +16697,42 @@
       <c r="DK60" s="1"/>
       <c r="DL60" s="1"/>
       <c r="DM60" s="80">
-        <f>BY60</f>
+        <f t="shared" si="116"/>
         <v>1.2292186424485397E-2</v>
       </c>
       <c r="DN60" s="80">
-        <f>BZ60</f>
+        <f t="shared" si="116"/>
         <v>-1.5814264399650717E-2</v>
       </c>
       <c r="DO60" s="80">
-        <f>CA60</f>
+        <f t="shared" si="116"/>
         <v>-1.508802857121073E-2</v>
       </c>
       <c r="DQ60" s="1"/>
       <c r="DR60" s="80">
-        <f t="shared" ref="DR60:DR64" si="111">AH60*(1-AH60)</f>
+        <f t="shared" ref="DR60:DR64" si="126">AH60*(1-AH60)</f>
         <v>1.3542096101108523E-2</v>
       </c>
       <c r="DS60" s="80">
-        <f t="shared" si="104"/>
+        <f t="shared" si="117"/>
         <v>1.1595859169396663E-2</v>
       </c>
       <c r="DT60" s="80">
-        <f t="shared" si="105"/>
+        <f t="shared" si="118"/>
         <v>0.18977917778135506</v>
       </c>
       <c r="DU60" s="1"/>
       <c r="DV60" s="1"/>
       <c r="DW60" s="82">
-        <f>DM60*DR60</f>
+        <f t="shared" si="119"/>
         <v>1.664619698531228E-4</v>
       </c>
       <c r="DX60" s="82">
-        <f>DN60*DS60</f>
+        <f t="shared" si="119"/>
         <v>-1.8337998284595299E-4</v>
       </c>
       <c r="DY60" s="82">
-        <f>DO60*DT60</f>
+        <f t="shared" si="119"/>
         <v>-2.8633936565859654E-3</v>
       </c>
       <c r="EA60" t="s">
@@ -16732,15 +16801,15 @@
         <v>28</v>
       </c>
       <c r="EW60" s="24">
-        <f>I60-ER60</f>
+        <f t="shared" si="120"/>
         <v>1.1236948583720934</v>
       </c>
       <c r="EX60" s="24">
-        <f>J60-ES60</f>
+        <f t="shared" si="120"/>
         <v>3.3495559190253488</v>
       </c>
       <c r="EY60" s="24">
-        <f>K60-ET60</f>
+        <f t="shared" si="120"/>
         <v>-4.3012028178212018</v>
       </c>
       <c r="EZ60" s="1"/>
@@ -16877,15 +16946,15 @@
       <c r="AF61" s="74"/>
       <c r="AG61" s="74"/>
       <c r="AH61" s="99">
-        <f t="shared" si="108"/>
+        <f t="shared" si="123"/>
         <v>0.99984213632686403</v>
       </c>
       <c r="AI61" s="99">
-        <f t="shared" si="102"/>
+        <f t="shared" si="114"/>
         <v>7.3275605988547529E-2</v>
       </c>
       <c r="AJ61" s="99">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>0.11966692516604796</v>
       </c>
       <c r="AK61" s="10"/>
@@ -16893,7 +16962,7 @@
         <v>29</v>
       </c>
       <c r="AM61" s="20">
-        <f t="shared" si="109"/>
+        <f t="shared" si="124"/>
         <v>-17.904366849767939</v>
       </c>
       <c r="AN61" s="1"/>
@@ -16917,13 +16986,13 @@
       <c r="AZ61" s="1"/>
       <c r="BA61" s="1"/>
       <c r="BB61" s="80">
-        <f t="shared" ref="BB61:BB64" si="112">1/(1+2.71828182845904^(AV61*-1))</f>
+        <f t="shared" ref="BB61:BB64" si="127">1/(1+2.71828182845904^(AV61*-1))</f>
         <v>0.99980363541610739</v>
       </c>
       <c r="BC61" s="1"/>
       <c r="BD61" s="1"/>
       <c r="BE61" s="87">
-        <f t="shared" ref="BE61:BE64" si="113">(BB61-B61)^2</f>
+        <f t="shared" ref="BE61:BE64" si="128">(BB61-B61)^2</f>
         <v>3.8559049807316049E-8</v>
       </c>
       <c r="BF61" s="1"/>
@@ -16932,19 +17001,19 @@
       <c r="BI61" s="1"/>
       <c r="BJ61" s="1"/>
       <c r="BK61" s="82">
-        <f t="shared" ref="BK61:BK64" si="114">BB61-B61</f>
+        <f t="shared" ref="BK61:BK64" si="129">BB61-B61</f>
         <v>-1.9636458389260536E-4</v>
       </c>
       <c r="BL61" s="1"/>
       <c r="BM61" s="1"/>
       <c r="BN61" s="80">
-        <f t="shared" si="110"/>
+        <f t="shared" si="125"/>
         <v>1.9632602484279804E-4</v>
       </c>
       <c r="BO61" s="1"/>
       <c r="BP61" s="1"/>
       <c r="BQ61" s="103">
-        <f t="shared" ref="BQ61:BQ64" si="115">BK61*BN61</f>
+        <f t="shared" ref="BQ61:BQ64" si="130">BK61*BN61</f>
         <v>-3.8551478175545341E-8</v>
       </c>
       <c r="BR61" s="1"/>
@@ -17039,42 +17108,42 @@
       <c r="DK61" s="1"/>
       <c r="DL61" s="1"/>
       <c r="DM61" s="80">
-        <f t="shared" ref="DM61:DM64" si="116">BY61</f>
+        <f t="shared" ref="DM61:DM64" si="131">BY61</f>
         <v>-5.6233697833483529E-7</v>
       </c>
       <c r="DN61" s="80">
-        <f t="shared" ref="DN61:DN64" si="117">BZ61</f>
+        <f t="shared" ref="DN61:DN64" si="132">BZ61</f>
         <v>7.2346329204489261E-7</v>
       </c>
       <c r="DO61" s="80">
-        <f t="shared" ref="DO61:DO64" si="118">CA61</f>
+        <f t="shared" ref="DO61:DO64" si="133">CA61</f>
         <v>6.9023980785578614E-7</v>
       </c>
       <c r="DQ61" s="1"/>
       <c r="DR61" s="80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="126"/>
         <v>1.5783875219667573E-4</v>
       </c>
       <c r="DS61" s="80">
-        <f t="shared" si="104"/>
+        <f t="shared" si="117"/>
         <v>6.7906291555558662E-2</v>
       </c>
       <c r="DT61" s="80">
-        <f t="shared" si="105"/>
+        <f t="shared" si="118"/>
         <v>0.10534675218735144</v>
       </c>
       <c r="DU61" s="1"/>
       <c r="DV61" s="1"/>
       <c r="DW61" s="82">
-        <f t="shared" ref="DW61:DW64" si="119">DM61*DR61</f>
+        <f t="shared" ref="DW61:DW64" si="134">DM61*DR61</f>
         <v>-8.8758566974419471E-11</v>
       </c>
       <c r="DX61" s="82">
-        <f t="shared" ref="DX61:DX64" si="120">DN61*DS61</f>
+        <f t="shared" ref="DX61:DX64" si="135">DN61*DS61</f>
         <v>4.9127709239344761E-8</v>
       </c>
       <c r="DY61" s="82">
-        <f t="shared" ref="DY61:DY64" si="121">DO61*DT61</f>
+        <f t="shared" ref="DY61:DY64" si="136">DO61*DT61</f>
         <v>7.2714521988028578E-8</v>
       </c>
       <c r="EA61" s="2"/>
@@ -17223,15 +17292,15 @@
       <c r="AF62" s="22"/>
       <c r="AG62" s="22"/>
       <c r="AH62" s="99">
-        <f t="shared" si="108"/>
+        <f t="shared" si="123"/>
         <v>0.99857614291541119</v>
       </c>
       <c r="AI62" s="99">
-        <f t="shared" si="102"/>
+        <f t="shared" si="114"/>
         <v>0.49572067206870213</v>
       </c>
       <c r="AJ62" s="99">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>1.7445298044708667E-3</v>
       </c>
       <c r="AK62" s="10"/>
@@ -17260,13 +17329,13 @@
       <c r="AZ62" s="1"/>
       <c r="BA62" s="1"/>
       <c r="BB62" s="80">
-        <f t="shared" si="112"/>
+        <f t="shared" si="127"/>
         <v>0.93705777611882568</v>
       </c>
       <c r="BC62" s="1"/>
       <c r="BD62" s="1"/>
       <c r="BE62" s="87">
-        <f t="shared" si="113"/>
+        <f t="shared" si="128"/>
         <v>3.9617235471078706E-3</v>
       </c>
       <c r="BF62" s="1"/>
@@ -17275,19 +17344,19 @@
       <c r="BI62" s="1"/>
       <c r="BJ62" s="1"/>
       <c r="BK62" s="82">
-        <f t="shared" si="114"/>
+        <f t="shared" si="129"/>
         <v>-6.294222388117432E-2</v>
       </c>
       <c r="BL62" s="1"/>
       <c r="BM62" s="1"/>
       <c r="BN62" s="80">
-        <f t="shared" si="110"/>
+        <f t="shared" si="125"/>
         <v>5.8980500334066446E-2</v>
       </c>
       <c r="BO62" s="1"/>
       <c r="BP62" s="1"/>
       <c r="BQ62" s="103">
-        <f t="shared" si="115"/>
+        <f t="shared" si="130"/>
         <v>-3.7123638566504869E-3</v>
       </c>
       <c r="BR62" s="1"/>
@@ -17359,42 +17428,42 @@
       <c r="DK62" s="1"/>
       <c r="DL62" s="1"/>
       <c r="DM62" s="80">
-        <f t="shared" si="116"/>
+        <f t="shared" si="131"/>
         <v>-5.4150957950881734E-2</v>
       </c>
       <c r="DN62" s="80">
-        <f t="shared" si="117"/>
+        <f t="shared" si="132"/>
         <v>6.9666822236261583E-2</v>
       </c>
       <c r="DO62" s="80">
-        <f t="shared" si="118"/>
+        <f t="shared" si="133"/>
         <v>6.6467524369289641E-2</v>
       </c>
       <c r="DQ62" s="1"/>
       <c r="DR62" s="80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="126"/>
         <v>1.4218297155914751E-3</v>
       </c>
       <c r="DS62" s="80">
-        <f t="shared" si="104"/>
+        <f t="shared" si="117"/>
         <v>0.24998168735245638</v>
       </c>
       <c r="DT62" s="80">
-        <f t="shared" si="105"/>
+        <f t="shared" si="118"/>
         <v>1.7414864202321798E-3</v>
       </c>
       <c r="DU62" s="1"/>
       <c r="DV62" s="1"/>
       <c r="DW62" s="82">
-        <f t="shared" si="119"/>
+        <f t="shared" si="134"/>
         <v>-7.6993441142308107E-5</v>
       </c>
       <c r="DX62" s="82">
-        <f t="shared" si="120"/>
+        <f t="shared" si="135"/>
         <v>1.74154297751043E-2</v>
       </c>
       <c r="DY62" s="82">
-        <f t="shared" si="121"/>
+        <f t="shared" si="136"/>
         <v>1.1575229107556939E-4</v>
       </c>
       <c r="EA62" s="2"/>
@@ -17523,15 +17592,15 @@
       <c r="AF63" s="22"/>
       <c r="AG63" s="22"/>
       <c r="AH63" s="99">
-        <f t="shared" si="108"/>
+        <f t="shared" si="123"/>
         <v>9.9668145276902622E-3</v>
       </c>
       <c r="AI63" s="99">
-        <f t="shared" si="102"/>
+        <f t="shared" si="114"/>
         <v>2.0110463372414043E-3</v>
       </c>
       <c r="AJ63" s="99">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>0.11822580612955202</v>
       </c>
       <c r="AK63" s="1"/>
@@ -17558,13 +17627,13 @@
       <c r="AZ63" s="1"/>
       <c r="BA63" s="1"/>
       <c r="BB63" s="80">
-        <f t="shared" si="112"/>
+        <f t="shared" si="127"/>
         <v>1.0555875679959045E-2</v>
       </c>
       <c r="BC63" s="1"/>
       <c r="BD63" s="1"/>
       <c r="BE63" s="87">
-        <f t="shared" si="113"/>
+        <f t="shared" si="128"/>
         <v>1.1142651137075083E-4</v>
       </c>
       <c r="BF63" s="1"/>
@@ -17573,19 +17642,19 @@
       <c r="BI63" s="1"/>
       <c r="BJ63" s="1"/>
       <c r="BK63" s="82">
-        <f t="shared" si="114"/>
+        <f t="shared" si="129"/>
         <v>1.0555875679959045E-2</v>
       </c>
       <c r="BL63" s="1"/>
       <c r="BM63" s="1"/>
       <c r="BN63" s="80">
-        <f t="shared" si="110"/>
+        <f t="shared" si="125"/>
         <v>1.0444449168588294E-2</v>
       </c>
       <c r="BO63" s="1"/>
       <c r="BP63" s="1"/>
       <c r="BQ63" s="103">
-        <f t="shared" si="115"/>
+        <f t="shared" si="130"/>
         <v>1.1025030696926963E-4</v>
       </c>
       <c r="BR63" s="1"/>
@@ -17645,42 +17714,42 @@
       <c r="DK63" s="1"/>
       <c r="DL63" s="1"/>
       <c r="DM63" s="80">
-        <f t="shared" si="116"/>
+        <f t="shared" si="131"/>
         <v>1.6081828094704467E-3</v>
       </c>
       <c r="DN63" s="80">
-        <f t="shared" si="117"/>
+        <f t="shared" si="132"/>
         <v>-2.068975141906332E-3</v>
       </c>
       <c r="DO63" s="80">
-        <f t="shared" si="118"/>
+        <f t="shared" si="133"/>
         <v>-1.9739619412773306E-3</v>
       </c>
       <c r="DQ63" s="1"/>
       <c r="DR63" s="80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="126"/>
         <v>9.8674771358608845E-3</v>
       </c>
       <c r="DS63" s="80">
-        <f t="shared" si="104"/>
+        <f t="shared" si="117"/>
         <v>2.0070020298708722E-3</v>
       </c>
       <c r="DT63" s="80">
-        <f t="shared" si="105"/>
+        <f t="shared" si="118"/>
         <v>0.1042484648945696</v>
       </c>
       <c r="DU63" s="1"/>
       <c r="DV63" s="1"/>
       <c r="DW63" s="82">
-        <f t="shared" si="119"/>
+        <f t="shared" si="134"/>
         <v>1.5868707102734155E-5</v>
       </c>
       <c r="DX63" s="82">
-        <f t="shared" si="120"/>
+        <f t="shared" si="135"/>
         <v>-4.1524373095583844E-6</v>
       </c>
       <c r="DY63" s="82">
-        <f t="shared" si="121"/>
+        <f t="shared" si="136"/>
         <v>-2.0578250213846625E-4</v>
       </c>
       <c r="EA63" s="2"/>
@@ -17821,15 +17890,15 @@
         <v>32</v>
       </c>
       <c r="AH64" s="99">
-        <f t="shared" si="108"/>
+        <f t="shared" si="123"/>
         <v>0.99999888549370475</v>
       </c>
       <c r="AI64" s="99">
-        <f t="shared" si="102"/>
+        <f t="shared" si="114"/>
         <v>0.12147009128120526</v>
       </c>
       <c r="AJ64" s="99">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>0.29464103661991864</v>
       </c>
       <c r="AK64" s="1"/>
@@ -17862,7 +17931,7 @@
         <v>32</v>
       </c>
       <c r="BB64" s="80">
-        <f t="shared" si="112"/>
+        <f t="shared" si="127"/>
         <v>0.98901741776237495</v>
       </c>
       <c r="BC64" s="1"/>
@@ -17870,7 +17939,7 @@
         <v>32</v>
       </c>
       <c r="BE64" s="87">
-        <f t="shared" si="113"/>
+        <f t="shared" si="128"/>
         <v>1.2061711260619724E-4</v>
       </c>
       <c r="BF64" s="1"/>
@@ -17881,7 +17950,7 @@
         <v>32</v>
       </c>
       <c r="BK64" s="82">
-        <f t="shared" si="114"/>
+        <f t="shared" si="129"/>
         <v>-1.0982582237625049E-2</v>
       </c>
       <c r="BL64" s="1"/>
@@ -17889,7 +17958,7 @@
         <v>32</v>
       </c>
       <c r="BN64" s="80">
-        <f t="shared" si="110"/>
+        <f t="shared" si="125"/>
         <v>1.0861965125018852E-2</v>
       </c>
       <c r="BO64" s="1"/>
@@ -17897,7 +17966,7 @@
         <v>32</v>
       </c>
       <c r="BQ64" s="103">
-        <f t="shared" si="115"/>
+        <f t="shared" si="130"/>
         <v>-1.1929242524773479E-4</v>
       </c>
       <c r="BR64" s="1"/>
@@ -17961,30 +18030,30 @@
         <v>32</v>
       </c>
       <c r="DM64" s="80">
-        <f t="shared" si="116"/>
+        <f t="shared" si="131"/>
         <v>-1.7400770379434735E-3</v>
       </c>
       <c r="DN64" s="80">
-        <f t="shared" si="117"/>
+        <f t="shared" si="132"/>
         <v>2.238661000046716E-3</v>
       </c>
       <c r="DO64" s="80">
-        <f t="shared" si="118"/>
+        <f t="shared" si="133"/>
         <v>2.1358553440339626E-3</v>
       </c>
       <c r="DQ64" s="1" t="s">
         <v>32</v>
       </c>
       <c r="DR64" s="80">
-        <f t="shared" si="111"/>
+        <f t="shared" si="126"/>
         <v>1.1145050531279444E-6</v>
       </c>
       <c r="DS64" s="80">
-        <f t="shared" si="104"/>
+        <f t="shared" si="117"/>
         <v>0.10671510820534093</v>
       </c>
       <c r="DT64" s="80">
-        <f t="shared" si="105"/>
+        <f t="shared" si="118"/>
         <v>0.20782769615945842</v>
       </c>
       <c r="DU64" s="1"/>
@@ -17992,15 +18061,15 @@
         <v>32</v>
       </c>
       <c r="DW64" s="82">
-        <f t="shared" si="119"/>
+        <f t="shared" si="134"/>
         <v>-1.9393246516199072E-9</v>
       </c>
       <c r="DX64" s="82">
-        <f t="shared" si="120"/>
+        <f t="shared" si="135"/>
         <v>2.3889895085506203E-4</v>
       </c>
       <c r="DY64" s="82">
-        <f t="shared" si="121"/>
+        <f t="shared" si="136"/>
         <v>4.4388989548044592E-4</v>
       </c>
       <c r="EA64" s="2"/>
@@ -18742,11 +18811,11 @@
         <v>9.7970194447382823</v>
       </c>
       <c r="J72" s="94">
-        <f t="shared" ref="J72:J73" si="122">EX59</f>
+        <f t="shared" ref="J72:J73" si="137">EX59</f>
         <v>1.2867168093164527</v>
       </c>
       <c r="K72" s="95">
-        <f t="shared" ref="K72:K73" si="123">EY59</f>
+        <f t="shared" ref="K72:K73" si="138">EY59</f>
         <v>1.8338475133412964</v>
       </c>
       <c r="L72" s="1"/>
@@ -18774,11 +18843,11 @@
         <v>3.7651878257870668</v>
       </c>
       <c r="T72" s="68">
-        <f t="shared" ref="T72" si="124">FU59</f>
+        <f t="shared" ref="T72" si="139">FU59</f>
         <v>-3.2508863493938431</v>
       </c>
       <c r="U72" s="98">
-        <f t="shared" ref="U72" si="125">FV59</f>
+        <f t="shared" ref="U72" si="140">FV59</f>
         <v>-2.9162409374194009</v>
       </c>
       <c r="V72" s="22"/>
@@ -18790,11 +18859,11 @@
         <v>-1.2171263506577668</v>
       </c>
       <c r="Y72" s="70">
-        <f t="shared" ref="Y72" si="126">O72+T72</f>
+        <f t="shared" ref="Y72" si="141">O72+T72</f>
         <v>-4.4591686017185825</v>
       </c>
       <c r="Z72" s="71">
-        <f t="shared" ref="Z72" si="127">P72+U72</f>
+        <f t="shared" ref="Z72" si="142">P72+U72</f>
         <v>-3.0683889393834529</v>
       </c>
       <c r="AA72" s="22"/>
@@ -18819,11 +18888,11 @@
         <v>0.22844255481135198</v>
       </c>
       <c r="AI72" s="81">
-        <f t="shared" ref="AI72:AI77" si="128">1/(1+2.71828182845904^(Y72*-1))</f>
+        <f t="shared" ref="AI72:AI77" si="143">1/(1+2.71828182845904^(Y72*-1))</f>
         <v>1.1439601372890055E-2</v>
       </c>
       <c r="AJ72" s="81">
-        <f t="shared" ref="AJ72:AJ77" si="129">1/(1+2.71828182845904^(Z72*-1))</f>
+        <f t="shared" ref="AJ72:AJ77" si="144">1/(1+2.71828182845904^(Z72*-1))</f>
         <v>4.4430176818388026E-2</v>
       </c>
       <c r="AK72" s="10"/>
@@ -19050,15 +19119,15 @@
         <v>24</v>
       </c>
       <c r="DM72" s="108">
-        <f>BY72</f>
+        <f t="shared" ref="DM72:DO73" si="145">BY72</f>
         <v>1.60518333525282</v>
       </c>
       <c r="DN72" s="108">
-        <f>BZ72</f>
+        <f t="shared" si="145"/>
         <v>-2.0690715623413864</v>
       </c>
       <c r="DO72" s="108">
-        <f>CA72</f>
+        <f t="shared" si="145"/>
         <v>-1.9747225186012813</v>
       </c>
       <c r="DQ72" s="1" t="s">
@@ -19069,11 +19138,11 @@
         <v>0.17625655396261442</v>
       </c>
       <c r="DS72" s="109">
-        <f t="shared" ref="DS72:DS77" si="130">AI72*(1-AI72)</f>
+        <f t="shared" ref="DS72:DS77" si="146">AI72*(1-AI72)</f>
         <v>1.1308736893319427E-2</v>
       </c>
       <c r="DT72" s="109">
-        <f t="shared" ref="DT72:DT77" si="131">AJ72*(1-AJ72)</f>
+        <f t="shared" ref="DT72:DT77" si="147">AJ72*(1-AJ72)</f>
         <v>4.2456136206274801E-2</v>
       </c>
       <c r="DU72" s="1"/>
@@ -19081,15 +19150,15 @@
         <v>24</v>
       </c>
       <c r="DW72" s="86">
-        <f>DM72*DR72</f>
+        <f t="shared" ref="DW72:DY73" si="148">DM72*DR72</f>
         <v>0.28292408314987805</v>
       </c>
       <c r="DX72" s="86">
-        <f>DN72*DS72</f>
+        <f t="shared" si="148"/>
         <v>-2.3398585911968105E-2</v>
       </c>
       <c r="DY72" s="86">
-        <f>DO72*DT72</f>
+        <f t="shared" si="148"/>
         <v>-8.3839088219334029E-2</v>
       </c>
       <c r="EA72" t="s">
@@ -19163,15 +19232,15 @@
         <v>27</v>
       </c>
       <c r="EW72" s="24">
-        <f>I72-ER72</f>
+        <f t="shared" ref="EW72:EY73" si="149">I72-ER72</f>
         <v>9.933909008680379</v>
       </c>
       <c r="EX72" s="24">
-        <f>J72-ES72</f>
+        <f t="shared" si="149"/>
         <v>1.2723445615448572</v>
       </c>
       <c r="EY72" s="24">
-        <f>K72-ET72</f>
+        <f t="shared" si="149"/>
         <v>1.7930988558949945</v>
       </c>
       <c r="EZ72" s="1"/>
@@ -19199,11 +19268,11 @@
         <v>5.3530252516066294E-6</v>
       </c>
       <c r="FH72" s="86">
-        <f t="shared" ref="FH72" si="132">FC72</f>
+        <f t="shared" ref="FH72" si="150">FC72</f>
         <v>-1.6744131026821947E-6</v>
       </c>
       <c r="FI72" s="86">
-        <f t="shared" ref="FI72" si="133">FD72</f>
+        <f t="shared" ref="FI72" si="151">FD72</f>
         <v>-8.5092127191428753E-5</v>
       </c>
       <c r="FJ72" s="1"/>
@@ -19290,11 +19359,11 @@
         <v>1.1236948583720934</v>
       </c>
       <c r="J73" s="96">
-        <f t="shared" si="122"/>
+        <f t="shared" si="137"/>
         <v>3.3495559190253488</v>
       </c>
       <c r="K73" s="97">
-        <f t="shared" si="123"/>
+        <f t="shared" si="138"/>
         <v>-4.3012028178212018</v>
       </c>
       <c r="L73" s="1"/>
@@ -19350,15 +19419,15 @@
       <c r="AF73" s="22"/>
       <c r="AG73" s="22"/>
       <c r="AH73" s="99">
-        <f t="shared" ref="AH73:AH77" si="134">1/(1+2.71828182845904^(X73*-1))</f>
+        <f t="shared" ref="AH73:AH77" si="152">1/(1+2.71828182845904^(X73*-1))</f>
         <v>0.98617379435277364</v>
       </c>
       <c r="AI73" s="99">
-        <f t="shared" si="128"/>
+        <f t="shared" si="143"/>
         <v>1.1805137607878017E-2</v>
       </c>
       <c r="AJ73" s="99">
-        <f t="shared" si="129"/>
+        <f t="shared" si="144"/>
         <v>0.25507380398071927</v>
       </c>
       <c r="AK73" s="10"/>
@@ -19366,7 +19435,7 @@
         <v>28</v>
       </c>
       <c r="AM73" s="16">
-        <f t="shared" ref="AM73:AM74" si="135">CU60</f>
+        <f t="shared" ref="AM73:AM74" si="153">CU60</f>
         <v>-18.765773318042061</v>
       </c>
       <c r="AN73" s="1"/>
@@ -19417,7 +19486,7 @@
       <c r="BL73" s="1"/>
       <c r="BM73" s="1"/>
       <c r="BN73" s="80">
-        <f t="shared" ref="BN73:BN77" si="136">BB73*(1-BB73)</f>
+        <f t="shared" ref="BN73:BN77" si="154">BB73*(1-BB73)</f>
         <v>8.7821745264213302E-4</v>
       </c>
       <c r="BO73" s="1"/>
@@ -19532,42 +19601,42 @@
       <c r="DK73" s="1"/>
       <c r="DL73" s="1"/>
       <c r="DM73" s="80">
-        <f>BY73</f>
+        <f t="shared" si="145"/>
         <v>1.2774260009323888E-2</v>
       </c>
       <c r="DN73" s="80">
-        <f>BZ73</f>
+        <f t="shared" si="145"/>
         <v>-1.6465943506125395E-2</v>
       </c>
       <c r="DO73" s="80">
-        <f>CA73</f>
+        <f t="shared" si="145"/>
         <v>-1.5715101412329704E-2</v>
       </c>
       <c r="DQ73" s="1"/>
       <c r="DR73" s="80">
-        <f t="shared" ref="DR73:DR77" si="137">AH73*(1-AH73)</f>
+        <f t="shared" ref="DR73:DR77" si="155">AH73*(1-AH73)</f>
         <v>1.363504168462697E-2</v>
       </c>
       <c r="DS73" s="80">
-        <f t="shared" si="130"/>
+        <f t="shared" si="146"/>
         <v>1.166577633393708E-2</v>
       </c>
       <c r="DT73" s="80">
-        <f t="shared" si="131"/>
+        <f t="shared" si="147"/>
         <v>0.19001115850352487</v>
       </c>
       <c r="DU73" s="1"/>
       <c r="DV73" s="1"/>
       <c r="DW73" s="82">
-        <f>DM73*DR73</f>
+        <f t="shared" si="148"/>
         <v>1.7417756771739452E-4</v>
       </c>
       <c r="DX73" s="82">
-        <f>DN73*DS73</f>
+        <f t="shared" si="148"/>
         <v>-1.9208801406970258E-4</v>
       </c>
       <c r="DY73" s="82">
-        <f>DO73*DT73</f>
+        <f t="shared" si="148"/>
         <v>-2.9860446253571469E-3</v>
       </c>
       <c r="EA73" t="s">
@@ -19636,15 +19705,15 @@
         <v>28</v>
       </c>
       <c r="EW73" s="24">
-        <f>I73-ER73</f>
+        <f t="shared" si="149"/>
         <v>1.1722763608737459</v>
       </c>
       <c r="EX73" s="24">
-        <f>J73-ES73</f>
+        <f t="shared" si="149"/>
         <v>3.332088892170463</v>
       </c>
       <c r="EY73" s="24">
-        <f>K73-ET73</f>
+        <f t="shared" si="149"/>
         <v>-4.3168836875485841</v>
       </c>
       <c r="EZ73" s="1"/>
@@ -19781,15 +19850,15 @@
       <c r="AF74" s="74"/>
       <c r="AG74" s="74"/>
       <c r="AH74" s="99">
-        <f t="shared" si="134"/>
+        <f t="shared" si="152"/>
         <v>0.99985533518497915</v>
       </c>
       <c r="AI74" s="99">
-        <f t="shared" si="128"/>
+        <f t="shared" si="143"/>
         <v>7.2680534165407262E-2</v>
       </c>
       <c r="AJ74" s="99">
-        <f t="shared" si="129"/>
+        <f t="shared" si="144"/>
         <v>0.11714853628847273</v>
       </c>
       <c r="AK74" s="10"/>
@@ -19797,7 +19866,7 @@
         <v>29</v>
       </c>
       <c r="AM74" s="20">
-        <f t="shared" si="135"/>
+        <f t="shared" si="153"/>
         <v>-17.910059673417177</v>
       </c>
       <c r="AN74" s="1"/>
@@ -19821,13 +19890,13 @@
       <c r="AZ74" s="1"/>
       <c r="BA74" s="1"/>
       <c r="BB74" s="80">
-        <f t="shared" ref="BB74:BB77" si="138">1/(1+2.71828182845904^(AV74*-1))</f>
+        <f t="shared" ref="BB74:BB77" si="156">1/(1+2.71828182845904^(AV74*-1))</f>
         <v>0.99980897509333044</v>
       </c>
       <c r="BC74" s="1"/>
       <c r="BD74" s="1"/>
       <c r="BE74" s="87">
-        <f t="shared" ref="BE74:BE77" si="139">(BB74-B74)^2</f>
+        <f t="shared" ref="BE74:BE77" si="157">(BB74-B74)^2</f>
         <v>3.6490514968112902E-8</v>
       </c>
       <c r="BF74" s="1"/>
@@ -19836,19 +19905,19 @@
       <c r="BI74" s="1"/>
       <c r="BJ74" s="1"/>
       <c r="BK74" s="82">
-        <f t="shared" ref="BK74:BK77" si="140">BB74-B74</f>
+        <f t="shared" ref="BK74:BK77" si="158">BB74-B74</f>
         <v>-1.9102490666955685E-4</v>
       </c>
       <c r="BL74" s="1"/>
       <c r="BM74" s="1"/>
       <c r="BN74" s="80">
-        <f t="shared" si="136"/>
+        <f t="shared" si="154"/>
         <v>1.9098841615458874E-4</v>
       </c>
       <c r="BO74" s="1"/>
       <c r="BP74" s="1"/>
       <c r="BQ74" s="103">
-        <f t="shared" ref="BQ74:BQ77" si="141">BK74*BN74</f>
+        <f t="shared" ref="BQ74:BQ77" si="159">BK74*BN74</f>
         <v>-3.64835443708968E-8</v>
       </c>
       <c r="BR74" s="1"/>
@@ -19943,42 +20012,42 @@
       <c r="DK74" s="1"/>
       <c r="DL74" s="1"/>
       <c r="DM74" s="80">
-        <f t="shared" ref="DM74:DM77" si="142">BY74</f>
+        <f t="shared" ref="DM74:DM77" si="160">BY74</f>
         <v>-5.3114441579720089E-7</v>
       </c>
       <c r="DN74" s="80">
-        <f t="shared" ref="DN74:DN77" si="143">BZ74</f>
+        <f t="shared" ref="DN74:DN77" si="161">BZ74</f>
         <v>6.8464192350297876E-7</v>
       </c>
       <c r="DO74" s="80">
-        <f t="shared" ref="DO74:DO77" si="144">CA74</f>
+        <f t="shared" ref="DO74:DO77" si="162">CA74</f>
         <v>6.5342245678052498E-7</v>
       </c>
       <c r="DQ74" s="1"/>
       <c r="DR74" s="80">
-        <f t="shared" si="137"/>
+        <f t="shared" si="155"/>
         <v>1.4464388711214014E-4</v>
       </c>
       <c r="DS74" s="80">
-        <f t="shared" si="130"/>
+        <f t="shared" si="146"/>
         <v>6.739807411883833E-2</v>
       </c>
       <c r="DT74" s="80">
-        <f t="shared" si="131"/>
+        <f t="shared" si="147"/>
         <v>0.10342475673394111</v>
       </c>
       <c r="DU74" s="1"/>
       <c r="DV74" s="1"/>
       <c r="DW74" s="82">
-        <f t="shared" ref="DW74:DW77" si="145">DM74*DR74</f>
+        <f t="shared" ref="DW74:DW77" si="163">DM74*DR74</f>
         <v>-7.6826792918813953E-11</v>
       </c>
       <c r="DX74" s="82">
-        <f t="shared" ref="DX74:DX77" si="146">DN74*DS74</f>
+        <f t="shared" ref="DX74:DX77" si="164">DN74*DS74</f>
         <v>4.6143547105117805E-8</v>
       </c>
       <c r="DY74" s="82">
-        <f t="shared" ref="DY74:DY77" si="147">DO74*DT74</f>
+        <f t="shared" ref="DY74:DY77" si="165">DO74*DT74</f>
         <v>6.7580058637019941E-8</v>
       </c>
       <c r="EA74" s="2"/>
@@ -20127,15 +20196,15 @@
       <c r="AF75" s="22"/>
       <c r="AG75" s="22"/>
       <c r="AH75" s="99">
-        <f t="shared" si="134"/>
+        <f t="shared" si="152"/>
         <v>0.99869174660701232</v>
       </c>
       <c r="AI75" s="99">
-        <f t="shared" si="128"/>
+        <f t="shared" si="143"/>
         <v>0.49051163519440805</v>
       </c>
       <c r="AJ75" s="99">
-        <f t="shared" si="129"/>
+        <f t="shared" si="144"/>
         <v>1.7025191502388686E-3</v>
       </c>
       <c r="AK75" s="10"/>
@@ -20164,13 +20233,13 @@
       <c r="AZ75" s="1"/>
       <c r="BA75" s="1"/>
       <c r="BB75" s="80">
-        <f t="shared" si="138"/>
+        <f t="shared" si="156"/>
         <v>0.94118246263488314</v>
       </c>
       <c r="BC75" s="1"/>
       <c r="BD75" s="1"/>
       <c r="BE75" s="87">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>3.4595027016969177E-3</v>
       </c>
       <c r="BF75" s="1"/>
@@ -20179,19 +20248,19 @@
       <c r="BI75" s="1"/>
       <c r="BJ75" s="1"/>
       <c r="BK75" s="82">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>-5.8817537365116856E-2</v>
       </c>
       <c r="BL75" s="1"/>
       <c r="BM75" s="1"/>
       <c r="BN75" s="80">
-        <f t="shared" si="136"/>
+        <f t="shared" si="154"/>
         <v>5.5358034663419937E-2</v>
       </c>
       <c r="BO75" s="1"/>
       <c r="BP75" s="1"/>
       <c r="BQ75" s="103">
-        <f t="shared" si="141"/>
+        <f t="shared" si="159"/>
         <v>-3.2560232722751363E-3</v>
       </c>
       <c r="BR75" s="1"/>
@@ -20263,42 +20332,42 @@
       <c r="DK75" s="1"/>
       <c r="DL75" s="1"/>
       <c r="DM75" s="80">
-        <f t="shared" si="142"/>
+        <f t="shared" si="160"/>
         <v>-4.7402701919340873E-2</v>
       </c>
       <c r="DN75" s="80">
-        <f t="shared" si="143"/>
+        <f t="shared" si="161"/>
         <v>6.1101794645784753E-2</v>
       </c>
       <c r="DO75" s="80">
-        <f t="shared" si="144"/>
+        <f t="shared" si="162"/>
         <v>5.8315571104482752E-2</v>
       </c>
       <c r="DQ75" s="1"/>
       <c r="DR75" s="80">
-        <f t="shared" si="137"/>
+        <f t="shared" si="155"/>
         <v>1.3065418660474157E-3</v>
       </c>
       <c r="DS75" s="80">
-        <f t="shared" si="130"/>
+        <f t="shared" si="146"/>
         <v>0.24990997093331599</v>
       </c>
       <c r="DT75" s="80">
-        <f t="shared" si="131"/>
+        <f t="shared" si="147"/>
         <v>1.6996205787819386E-3</v>
       </c>
       <c r="DU75" s="1"/>
       <c r="DV75" s="1"/>
       <c r="DW75" s="82">
-        <f t="shared" si="145"/>
+        <f t="shared" si="163"/>
         <v>-6.1933614621385042E-5</v>
       </c>
       <c r="DX75" s="82">
-        <f t="shared" si="146"/>
+        <f t="shared" si="164"/>
         <v>1.5269947723901511E-2</v>
       </c>
       <c r="DY75" s="82">
-        <f t="shared" si="147"/>
+        <f t="shared" si="165"/>
         <v>9.9114344712600275E-5</v>
       </c>
       <c r="EA75" s="2"/>
@@ -20427,15 +20496,15 @@
       <c r="AF76" s="22"/>
       <c r="AG76" s="22"/>
       <c r="AH76" s="99">
-        <f t="shared" si="134"/>
+        <f t="shared" si="152"/>
         <v>8.431987478881459E-3</v>
       </c>
       <c r="AI76" s="99">
-        <f t="shared" si="128"/>
+        <f t="shared" si="143"/>
         <v>2.0611098994412808E-3</v>
       </c>
       <c r="AJ76" s="99">
-        <f t="shared" si="129"/>
+        <f t="shared" si="144"/>
         <v>0.123272363881371</v>
       </c>
       <c r="AK76" s="1"/>
@@ -20462,13 +20531,13 @@
       <c r="AZ76" s="1"/>
       <c r="BA76" s="1"/>
       <c r="BB76" s="80">
-        <f t="shared" si="138"/>
+        <f t="shared" si="156"/>
         <v>9.4229751941881535E-3</v>
       </c>
       <c r="BC76" s="1"/>
       <c r="BD76" s="1"/>
       <c r="BE76" s="87">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>8.8792461510285269E-5</v>
       </c>
       <c r="BF76" s="1"/>
@@ -20477,19 +20546,19 @@
       <c r="BI76" s="1"/>
       <c r="BJ76" s="1"/>
       <c r="BK76" s="82">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>9.4229751941881535E-3</v>
       </c>
       <c r="BL76" s="1"/>
       <c r="BM76" s="1"/>
       <c r="BN76" s="80">
-        <f t="shared" si="136"/>
+        <f t="shared" si="154"/>
         <v>9.3341827326778679E-3</v>
       </c>
       <c r="BO76" s="1"/>
       <c r="BP76" s="1"/>
       <c r="BQ76" s="103">
-        <f t="shared" si="141"/>
+        <f t="shared" si="159"/>
         <v>8.7955772348042937E-5</v>
       </c>
       <c r="BR76" s="1"/>
@@ -20549,42 +20618,42 @@
       <c r="DK76" s="1"/>
       <c r="DL76" s="1"/>
       <c r="DM76" s="80">
-        <f t="shared" si="142"/>
+        <f t="shared" si="160"/>
         <v>1.2805010622010601E-3</v>
       </c>
       <c r="DN76" s="80">
-        <f t="shared" si="143"/>
+        <f t="shared" si="161"/>
         <v>-1.6505580858966859E-3</v>
       </c>
       <c r="DO76" s="80">
-        <f t="shared" si="144"/>
+        <f t="shared" si="162"/>
         <v>-1.5752931313749454E-3</v>
       </c>
       <c r="DQ76" s="1"/>
       <c r="DR76" s="80">
-        <f t="shared" si="137"/>
+        <f t="shared" si="155"/>
         <v>8.3608890660374462E-3</v>
       </c>
       <c r="DS76" s="80">
-        <f t="shared" si="130"/>
+        <f t="shared" si="146"/>
         <v>2.056861725423706E-3</v>
       </c>
       <c r="DT76" s="80">
-        <f t="shared" si="131"/>
+        <f t="shared" si="147"/>
         <v>0.10807628818446986</v>
       </c>
       <c r="DU76" s="1"/>
       <c r="DV76" s="1"/>
       <c r="DW76" s="82">
-        <f t="shared" si="145"/>
+        <f t="shared" si="163"/>
         <v>1.0706127330006179E-5</v>
       </c>
       <c r="DX76" s="82">
-        <f t="shared" si="146"/>
+        <f t="shared" si="164"/>
         <v>-3.394969752469507E-6</v>
       </c>
       <c r="DY76" s="82">
-        <f t="shared" si="147"/>
+        <f t="shared" si="165"/>
         <v>-1.7025183444149453E-4</v>
       </c>
       <c r="EA76" s="2"/>
@@ -20725,15 +20794,15 @@
         <v>32</v>
       </c>
       <c r="AH77" s="99">
-        <f t="shared" si="134"/>
+        <f t="shared" si="152"/>
         <v>0.99999906174730036</v>
       </c>
       <c r="AI77" s="99">
-        <f t="shared" si="128"/>
+        <f t="shared" si="143"/>
         <v>0.11970001568470488</v>
       </c>
       <c r="AJ77" s="99">
-        <f t="shared" si="129"/>
+        <f t="shared" si="144"/>
         <v>0.28484499885811693</v>
       </c>
       <c r="AK77" s="1"/>
@@ -20766,7 +20835,7 @@
         <v>32</v>
       </c>
       <c r="BB77" s="80">
-        <f t="shared" si="138"/>
+        <f t="shared" si="156"/>
         <v>0.99079898207846862</v>
       </c>
       <c r="BC77" s="1"/>
@@ -20774,7 +20843,7 @@
         <v>32</v>
       </c>
       <c r="BE77" s="87">
-        <f t="shared" si="139"/>
+        <f t="shared" si="157"/>
         <v>8.4658730792341722E-5</v>
       </c>
       <c r="BF77" s="1"/>
@@ -20785,7 +20854,7 @@
         <v>32</v>
       </c>
       <c r="BK77" s="82">
-        <f t="shared" si="140"/>
+        <f t="shared" si="158"/>
         <v>-9.2010179215313848E-3</v>
       </c>
       <c r="BL77" s="1"/>
@@ -20793,7 +20862,7 @@
         <v>32</v>
       </c>
       <c r="BN77" s="80">
-        <f t="shared" si="136"/>
+        <f t="shared" si="154"/>
         <v>9.1163591907390436E-3</v>
       </c>
       <c r="BO77" s="1"/>
@@ -20801,7 +20870,7 @@
         <v>32</v>
       </c>
       <c r="BQ77" s="103">
-        <f t="shared" si="141"/>
+        <f t="shared" si="159"/>
         <v>-8.3879784293107294E-5</v>
       </c>
       <c r="BR77" s="1"/>
@@ -20865,30 +20934,30 @@
         <v>32</v>
       </c>
       <c r="DM77" s="80">
-        <f t="shared" si="142"/>
+        <f t="shared" si="160"/>
         <v>-1.2211609314224797E-3</v>
       </c>
       <c r="DN77" s="80">
-        <f t="shared" si="143"/>
+        <f t="shared" si="161"/>
         <v>1.5740690180107164E-3</v>
       </c>
       <c r="DO77" s="80">
-        <f t="shared" si="144"/>
+        <f t="shared" si="162"/>
         <v>1.5022919420829123E-3</v>
       </c>
       <c r="DQ77" s="1" t="s">
         <v>32</v>
       </c>
       <c r="DR77" s="80">
-        <f t="shared" si="137"/>
+        <f t="shared" si="155"/>
         <v>9.3825181932674191E-7</v>
       </c>
       <c r="DS77" s="80">
-        <f t="shared" si="130"/>
+        <f t="shared" si="146"/>
         <v>0.10537192192978628</v>
       </c>
       <c r="DT77" s="80">
-        <f t="shared" si="131"/>
+        <f t="shared" si="147"/>
         <v>0.20370832548363627</v>
       </c>
       <c r="DU77" s="1"/>
@@ -20896,15 +20965,15 @@
         <v>32</v>
       </c>
       <c r="DW77" s="82">
-        <f t="shared" si="145"/>
+        <f t="shared" si="163"/>
         <v>-1.1457564655978804E-9</v>
       </c>
       <c r="DX77" s="82">
-        <f t="shared" si="146"/>
+        <f t="shared" si="164"/>
         <v>1.6586267767792055E-4</v>
       </c>
       <c r="DY77" s="82">
-        <f t="shared" si="147"/>
+        <f t="shared" si="165"/>
         <v>3.0602937590926995E-4</v>
       </c>
       <c r="EA77" s="2"/>
@@ -21646,11 +21715,11 @@
         <v>9.933909008680379</v>
       </c>
       <c r="J85" s="94">
-        <f t="shared" ref="J85:J86" si="148">EX72</f>
+        <f t="shared" ref="J85:J86" si="166">EX72</f>
         <v>1.2723445615448572</v>
       </c>
       <c r="K85" s="95">
-        <f t="shared" ref="K85:K86" si="149">EY72</f>
+        <f t="shared" ref="K85:K86" si="167">EY72</f>
         <v>1.7930988558949945</v>
       </c>
       <c r="L85" s="1"/>
@@ -21678,11 +21747,11 @@
         <v>3.7651825262920675</v>
       </c>
       <c r="T85" s="68">
-        <f t="shared" ref="T85" si="150">FU72</f>
+        <f t="shared" ref="T85" si="168">FU72</f>
         <v>-3.2508846917248713</v>
       </c>
       <c r="U85" s="98">
-        <f t="shared" ref="U85" si="151">FV72</f>
+        <f t="shared" ref="U85" si="169">FV72</f>
         <v>-2.9161566962134815</v>
       </c>
       <c r="V85" s="22"/>
@@ -21694,11 +21763,11 @@
         <v>-1.2924354915483147</v>
       </c>
       <c r="Y85" s="70">
-        <f t="shared" ref="Y85" si="152">O85+T85</f>
+        <f t="shared" ref="Y85" si="170">O85+T85</f>
         <v>-4.4491213862097432</v>
       </c>
       <c r="Z85" s="71">
-        <f t="shared" ref="Z85" si="153">P85+U85</f>
+        <f t="shared" ref="Z85" si="171">P85+U85</f>
         <v>-3.0456776575697755</v>
       </c>
       <c r="AA85" s="22"/>
@@ -21723,11 +21792,11 @@
         <v>0.21544086389660874</v>
       </c>
       <c r="AI85" s="81">
-        <f t="shared" ref="AI85:AI90" si="154">1/(1+2.71828182845904^(Y85*-1))</f>
+        <f t="shared" ref="AI85:AI90" si="172">1/(1+2.71828182845904^(Y85*-1))</f>
         <v>1.1553782205289159E-2</v>
       </c>
       <c r="AJ85" s="81">
-        <f t="shared" ref="AJ85:AJ90" si="155">1/(1+2.71828182845904^(Z85*-1))</f>
+        <f t="shared" ref="AJ85:AJ90" si="173">1/(1+2.71828182845904^(Z85*-1))</f>
         <v>4.5404448590825014E-2</v>
       </c>
       <c r="AK85" s="10"/>
@@ -21954,15 +22023,15 @@
         <v>24</v>
       </c>
       <c r="DM85" s="108">
-        <f>BY85</f>
+        <f t="shared" ref="DM85:DO86" si="174">BY85</f>
         <v>1.3679921908715782</v>
       </c>
       <c r="DN85" s="108">
-        <f>BZ85</f>
+        <f t="shared" si="174"/>
         <v>-1.7660306915987616</v>
       </c>
       <c r="DO85" s="108">
-        <f>CA85</f>
+        <f t="shared" si="174"/>
         <v>-1.6860055743347149</v>
       </c>
       <c r="DQ85" s="1" t="s">
@@ -21973,11 +22042,11 @@
         <v>0.16902609806009164</v>
       </c>
       <c r="DS85" s="109">
-        <f t="shared" ref="DS85:DS90" si="156">AI85*(1-AI85)</f>
+        <f t="shared" ref="DS85:DS90" si="175">AI85*(1-AI85)</f>
         <v>1.1420292322041904E-2</v>
       </c>
       <c r="DT85" s="109">
-        <f t="shared" ref="DT85:DT90" si="157">AJ85*(1-AJ85)</f>
+        <f t="shared" ref="DT85:DT90" si="176">AJ85*(1-AJ85)</f>
         <v>4.3342884638988138E-2</v>
       </c>
       <c r="DU85" s="1"/>
@@ -21985,15 +22054,15 @@
         <v>24</v>
       </c>
       <c r="DW85" s="86">
-        <f>DM85*DR85</f>
+        <f t="shared" ref="DW85:DY86" si="177">DM85*DR85</f>
         <v>0.23122638219969899</v>
       </c>
       <c r="DX85" s="86">
-        <f>DN85*DS85</f>
+        <f t="shared" si="177"/>
         <v>-2.0168586747755689E-2</v>
       </c>
       <c r="DY85" s="86">
-        <f>DO85*DT85</f>
+        <f t="shared" si="177"/>
         <v>-7.3076345109080482E-2</v>
       </c>
       <c r="EA85" t="s">
@@ -22067,15 +22136,15 @@
         <v>27</v>
       </c>
       <c r="EW85" s="24">
-        <f>I85-ER85</f>
+        <f t="shared" ref="EW85:EY86" si="178">I85-ER85</f>
         <v>10.045780842193475</v>
       </c>
       <c r="EX85" s="24">
-        <f>J85-ES85</f>
+        <f t="shared" si="178"/>
         <v>1.2599083849415147</v>
       </c>
       <c r="EY85" s="24">
-        <f>K85-ET85</f>
+        <f t="shared" si="178"/>
         <v>1.7576776361452022</v>
       </c>
       <c r="EZ85" s="1"/>
@@ -22103,11 +22172,11 @@
         <v>3.8343746078081219E-6</v>
       </c>
       <c r="FH85" s="86">
-        <f t="shared" ref="FH85" si="158">FC85</f>
+        <f t="shared" ref="FH85" si="179">FC85</f>
         <v>-1.4030430070233908E-6</v>
       </c>
       <c r="FI85" s="86">
-        <f t="shared" ref="FI85" si="159">FD85</f>
+        <f t="shared" ref="FI85" si="180">FD85</f>
         <v>-7.215522769445795E-5</v>
       </c>
       <c r="FJ85" s="1"/>
@@ -22194,11 +22263,11 @@
         <v>1.1722763608737459</v>
       </c>
       <c r="J86" s="96">
-        <f t="shared" si="148"/>
+        <f t="shared" si="166"/>
         <v>3.332088892170463</v>
       </c>
       <c r="K86" s="97">
-        <f t="shared" si="149"/>
+        <f t="shared" si="167"/>
         <v>-4.3168836875485841</v>
       </c>
       <c r="L86" s="1"/>
@@ -22254,15 +22323,15 @@
       <c r="AF86" s="22"/>
       <c r="AG86" s="22"/>
       <c r="AH86" s="99">
-        <f t="shared" ref="AH86:AH90" si="160">1/(1+2.71828182845904^(X86*-1))</f>
+        <f t="shared" ref="AH86:AH90" si="181">1/(1+2.71828182845904^(X86*-1))</f>
         <v>0.98609520076710311</v>
       </c>
       <c r="AI86" s="99">
-        <f t="shared" si="154"/>
+        <f t="shared" si="172"/>
         <v>1.1868332973763359E-2</v>
       </c>
       <c r="AJ86" s="99">
-        <f t="shared" si="155"/>
+        <f t="shared" si="173"/>
         <v>0.25550476462566801</v>
       </c>
       <c r="AK86" s="10"/>
@@ -22270,7 +22339,7 @@
         <v>28</v>
       </c>
       <c r="AM86" s="16">
-        <f t="shared" ref="AM86:AM87" si="161">CU73</f>
+        <f t="shared" ref="AM86:AM87" si="182">CU73</f>
         <v>-18.765441354969425</v>
       </c>
       <c r="AN86" s="1"/>
@@ -22321,7 +22390,7 @@
       <c r="BL86" s="1"/>
       <c r="BM86" s="1"/>
       <c r="BN86" s="80">
-        <f t="shared" ref="BN86:BN90" si="162">BB86*(1-BB86)</f>
+        <f t="shared" ref="BN86:BN90" si="183">BB86*(1-BB86)</f>
         <v>9.081336297411609E-4</v>
       </c>
       <c r="BO86" s="1"/>
@@ -22436,42 +22505,42 @@
       <c r="DK86" s="1"/>
       <c r="DL86" s="1"/>
       <c r="DM86" s="80">
-        <f>BY86</f>
+        <f t="shared" si="174"/>
         <v>1.318860853075805E-2</v>
       </c>
       <c r="DN86" s="80">
-        <f>BZ86</f>
+        <f t="shared" si="174"/>
         <v>-1.7026038306520188E-2</v>
       </c>
       <c r="DO86" s="80">
-        <f>CA86</f>
+        <f t="shared" si="174"/>
         <v>-1.625452809522937E-2</v>
       </c>
       <c r="DQ86" s="1"/>
       <c r="DR86" s="80">
-        <f t="shared" ref="DR86:DR90" si="163">AH86*(1-AH86)</f>
+        <f t="shared" ref="DR86:DR90" si="184">AH86*(1-AH86)</f>
         <v>1.3711455791189722E-2</v>
       </c>
       <c r="DS86" s="80">
-        <f t="shared" si="156"/>
+        <f t="shared" si="175"/>
         <v>1.172747564618724E-2</v>
       </c>
       <c r="DT86" s="80">
-        <f t="shared" si="157"/>
+        <f t="shared" si="176"/>
         <v>0.19022207987924999</v>
       </c>
       <c r="DU86" s="1"/>
       <c r="DV86" s="1"/>
       <c r="DW86" s="82">
-        <f>DM86*DR86</f>
+        <f t="shared" si="177"/>
         <v>1.8083502281679664E-4</v>
       </c>
       <c r="DX86" s="82">
-        <f>DN86*DS86</f>
+        <f t="shared" si="177"/>
         <v>-1.9967244959076655E-4</v>
       </c>
       <c r="DY86" s="82">
-        <f>DO86*DT86</f>
+        <f t="shared" si="177"/>
         <v>-3.0919701417302346E-3</v>
       </c>
       <c r="EA86" t="s">
@@ -22540,15 +22609,15 @@
         <v>28</v>
       </c>
       <c r="EW86" s="24">
-        <f>I86-ER86</f>
+        <f t="shared" si="178"/>
         <v>1.2119954658149124</v>
       </c>
       <c r="EX86" s="24">
-        <f>J86-ES86</f>
+        <f t="shared" si="178"/>
         <v>3.3166773642630485</v>
       </c>
       <c r="EY86" s="24">
-        <f>K86-ET86</f>
+        <f t="shared" si="178"/>
         <v>-4.3307380486596143</v>
       </c>
       <c r="EZ86" s="1"/>
@@ -22685,15 +22754,15 @@
       <c r="AF87" s="74"/>
       <c r="AG87" s="74"/>
       <c r="AH87" s="99">
-        <f t="shared" si="160"/>
+        <f t="shared" si="181"/>
         <v>0.99986529020009995</v>
       </c>
       <c r="AI87" s="99">
-        <f t="shared" si="154"/>
+        <f t="shared" si="172"/>
         <v>7.2167803957836146E-2</v>
       </c>
       <c r="AJ87" s="99">
-        <f t="shared" si="155"/>
+        <f t="shared" si="173"/>
         <v>0.11497793601371339</v>
       </c>
       <c r="AK87" s="10"/>
@@ -22701,7 +22770,7 @@
         <v>29</v>
       </c>
       <c r="AM87" s="20">
-        <f t="shared" si="161"/>
+        <f t="shared" si="182"/>
         <v>-17.915112619411865</v>
       </c>
       <c r="AN87" s="1"/>
@@ -22725,13 +22794,13 @@
       <c r="AZ87" s="1"/>
       <c r="BA87" s="1"/>
       <c r="BB87" s="80">
-        <f t="shared" ref="BB87:BB90" si="164">1/(1+2.71828182845904^(AV87*-1))</f>
+        <f t="shared" ref="BB87:BB90" si="185">1/(1+2.71828182845904^(AV87*-1))</f>
         <v>0.99981379380854885</v>
       </c>
       <c r="BC87" s="1"/>
       <c r="BD87" s="1"/>
       <c r="BE87" s="87">
-        <f t="shared" ref="BE87:BE90" si="165">(BB87-B87)^2</f>
+        <f t="shared" ref="BE87:BE90" si="186">(BB87-B87)^2</f>
         <v>3.4672745734744116E-8</v>
       </c>
       <c r="BF87" s="1"/>
@@ -22740,19 +22809,19 @@
       <c r="BI87" s="1"/>
       <c r="BJ87" s="1"/>
       <c r="BK87" s="82">
-        <f t="shared" ref="BK87:BK90" si="166">BB87-B87</f>
+        <f t="shared" ref="BK87:BK90" si="187">BB87-B87</f>
         <v>-1.862061914511548E-4</v>
       </c>
       <c r="BL87" s="1"/>
       <c r="BM87" s="1"/>
       <c r="BN87" s="80">
-        <f t="shared" si="162"/>
+        <f t="shared" si="183"/>
         <v>1.8617151870542006E-4</v>
       </c>
       <c r="BO87" s="1"/>
       <c r="BP87" s="1"/>
       <c r="BQ87" s="103">
-        <f t="shared" ref="BQ87:BQ90" si="167">BK87*BN87</f>
+        <f t="shared" ref="BQ87:BQ90" si="188">BK87*BN87</f>
         <v>-3.4666289454813696E-8</v>
       </c>
       <c r="BR87" s="1"/>
@@ -22847,42 +22916,42 @@
       <c r="DK87" s="1"/>
       <c r="DL87" s="1"/>
       <c r="DM87" s="80">
-        <f t="shared" ref="DM87:DM90" si="168">BY87</f>
+        <f t="shared" ref="DM87:DM90" si="189">BY87</f>
         <v>-5.0390830212687219E-7</v>
       </c>
       <c r="DN87" s="80">
-        <f t="shared" ref="DN87:DN90" si="169">BZ87</f>
+        <f t="shared" ref="DN87:DN90" si="190">BZ87</f>
         <v>6.5052822175870143E-7</v>
       </c>
       <c r="DO87" s="80">
-        <f t="shared" ref="DO87:DO90" si="170">CA87</f>
+        <f t="shared" ref="DO87:DO90" si="191">CA87</f>
         <v>6.2105047968011728E-7</v>
       </c>
       <c r="DQ87" s="1"/>
       <c r="DR87" s="80">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>1.3469165316985662E-4</v>
       </c>
       <c r="DS87" s="80">
-        <f t="shared" si="156"/>
+        <f t="shared" si="175"/>
         <v>6.6959612029739476E-2</v>
       </c>
       <c r="DT87" s="80">
-        <f t="shared" si="157"/>
+        <f t="shared" si="176"/>
         <v>0.10175801024373982</v>
       </c>
       <c r="DU87" s="1"/>
       <c r="DV87" s="1"/>
       <c r="DW87" s="82">
-        <f t="shared" ref="DW87:DW90" si="171">DM87*DR87</f>
+        <f t="shared" ref="DW87:DW90" si="192">DM87*DR87</f>
         <v>-6.7872242259483995E-11</v>
       </c>
       <c r="DX87" s="82">
-        <f t="shared" ref="DX87:DX90" si="172">DN87*DS87</f>
+        <f t="shared" ref="DX87:DX90" si="193">DN87*DS87</f>
         <v>4.3559117343358974E-8</v>
       </c>
       <c r="DY87" s="82">
-        <f t="shared" ref="DY87:DY90" si="173">DO87*DT87</f>
+        <f t="shared" ref="DY87:DY90" si="194">DO87*DT87</f>
         <v>6.3196861073168895E-8</v>
       </c>
       <c r="EA87" s="2"/>
@@ -23031,15 +23100,15 @@
       <c r="AF88" s="22"/>
       <c r="AG88" s="22"/>
       <c r="AH88" s="99">
-        <f t="shared" si="160"/>
+        <f t="shared" si="181"/>
         <v>0.99877917145978456</v>
       </c>
       <c r="AI88" s="99">
-        <f t="shared" si="154"/>
+        <f t="shared" si="172"/>
         <v>0.48595887591404596</v>
       </c>
       <c r="AJ88" s="99">
-        <f t="shared" si="155"/>
+        <f t="shared" si="173"/>
         <v>1.6661806607517311E-3</v>
       </c>
       <c r="AK88" s="10"/>
@@ -23068,13 +23137,13 @@
       <c r="AZ88" s="1"/>
       <c r="BA88" s="1"/>
       <c r="BB88" s="80">
-        <f t="shared" si="164"/>
+        <f t="shared" si="185"/>
         <v>0.9446795270147883</v>
       </c>
       <c r="BC88" s="1"/>
       <c r="BD88" s="1"/>
       <c r="BE88" s="87">
-        <f t="shared" si="165"/>
+        <f t="shared" si="186"/>
         <v>3.0603547313075375E-3</v>
       </c>
       <c r="BF88" s="1"/>
@@ -23083,19 +23152,19 @@
       <c r="BI88" s="1"/>
       <c r="BJ88" s="1"/>
       <c r="BK88" s="82">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>-5.5320472985211699E-2</v>
       </c>
       <c r="BL88" s="1"/>
       <c r="BM88" s="1"/>
       <c r="BN88" s="80">
-        <f t="shared" si="162"/>
+        <f t="shared" si="183"/>
         <v>5.2260118253904163E-2</v>
       </c>
       <c r="BO88" s="1"/>
       <c r="BP88" s="1"/>
       <c r="BQ88" s="103">
-        <f t="shared" si="167"/>
+        <f t="shared" si="188"/>
         <v>-2.8910544600690741E-3</v>
       </c>
       <c r="BR88" s="1"/>
@@ -23167,42 +23236,42 @@
       <c r="DK88" s="1"/>
       <c r="DL88" s="1"/>
       <c r="DM88" s="80">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>-4.2024294126680357E-2</v>
       </c>
       <c r="DN88" s="80">
-        <f t="shared" si="169"/>
+        <f t="shared" si="190"/>
         <v>5.425191292444901E-2</v>
       </c>
       <c r="DO88" s="80">
-        <f t="shared" si="170"/>
+        <f t="shared" si="191"/>
         <v>5.1793566240990421E-2</v>
       </c>
       <c r="DQ88" s="1"/>
       <c r="DR88" s="80">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>1.2193381178908305E-3</v>
       </c>
       <c r="DS88" s="80">
-        <f t="shared" si="156"/>
+        <f t="shared" si="175"/>
         <v>0.24980284683440285</v>
       </c>
       <c r="DT88" s="80">
-        <f t="shared" si="157"/>
+        <f t="shared" si="176"/>
         <v>1.6634045027574679E-3</v>
       </c>
       <c r="DU88" s="1"/>
       <c r="DV88" s="1"/>
       <c r="DW88" s="82">
-        <f t="shared" si="171"/>
+        <f t="shared" si="192"/>
         <v>-5.1241823706117108E-5</v>
       </c>
       <c r="DX88" s="82">
-        <f t="shared" si="172"/>
+        <f t="shared" si="193"/>
         <v>1.3552282294739496E-2</v>
       </c>
       <c r="DY88" s="82">
-        <f t="shared" si="173"/>
+        <f t="shared" si="194"/>
         <v>8.6153651299130648E-5</v>
       </c>
       <c r="EA88" s="2"/>
@@ -23331,15 +23400,15 @@
       <c r="AF89" s="22"/>
       <c r="AG89" s="22"/>
       <c r="AH89" s="99">
-        <f t="shared" si="160"/>
+        <f t="shared" si="181"/>
         <v>7.3543870963098329E-3</v>
       </c>
       <c r="AI89" s="99">
-        <f t="shared" si="154"/>
+        <f t="shared" si="172"/>
         <v>2.1057361786758775E-3</v>
       </c>
       <c r="AJ89" s="99">
-        <f t="shared" si="155"/>
+        <f t="shared" si="173"/>
         <v>0.12786137400918035</v>
       </c>
       <c r="AK89" s="1"/>
@@ -23366,13 +23435,13 @@
       <c r="AZ89" s="1"/>
       <c r="BA89" s="1"/>
       <c r="BB89" s="80">
-        <f t="shared" si="164"/>
+        <f t="shared" si="185"/>
         <v>8.5375571186137589E-3</v>
       </c>
       <c r="BC89" s="1"/>
       <c r="BD89" s="1"/>
       <c r="BE89" s="87">
-        <f t="shared" si="165"/>
+        <f t="shared" si="186"/>
         <v>7.2889881553592467E-5</v>
       </c>
       <c r="BF89" s="1"/>
@@ -23381,19 +23450,19 @@
       <c r="BI89" s="1"/>
       <c r="BJ89" s="1"/>
       <c r="BK89" s="82">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>8.5375571186137589E-3</v>
       </c>
       <c r="BL89" s="1"/>
       <c r="BM89" s="1"/>
       <c r="BN89" s="80">
-        <f t="shared" si="162"/>
+        <f t="shared" si="183"/>
         <v>8.464667237060167E-3</v>
       </c>
       <c r="BO89" s="1"/>
       <c r="BP89" s="1"/>
       <c r="BQ89" s="103">
-        <f t="shared" si="167"/>
+        <f t="shared" si="188"/>
         <v>7.2267580026459687E-5</v>
       </c>
       <c r="BR89" s="1"/>
@@ -23453,42 +23522,42 @@
       <c r="DK89" s="1"/>
       <c r="DL89" s="1"/>
       <c r="DM89" s="80">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>1.0504797058657938E-3</v>
       </c>
       <c r="DN89" s="80">
-        <f t="shared" si="169"/>
+        <f t="shared" si="190"/>
         <v>-1.3561330348520891E-3</v>
       </c>
       <c r="DO89" s="80">
-        <f t="shared" si="170"/>
+        <f t="shared" si="191"/>
         <v>-1.2946818349063847E-3</v>
       </c>
       <c r="DQ89" s="1"/>
       <c r="DR89" s="80">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>7.3003000867474643E-3</v>
       </c>
       <c r="DS89" s="80">
-        <f t="shared" si="156"/>
+        <f t="shared" si="175"/>
         <v>2.101302053821693E-3</v>
       </c>
       <c r="DT89" s="80">
-        <f t="shared" si="157"/>
+        <f t="shared" si="176"/>
         <v>0.11151284304566486</v>
       </c>
       <c r="DU89" s="1"/>
       <c r="DV89" s="1"/>
       <c r="DW89" s="82">
-        <f t="shared" si="171"/>
+        <f t="shared" si="192"/>
         <v>7.6688170878585043E-6</v>
       </c>
       <c r="DX89" s="82">
-        <f t="shared" si="172"/>
+        <f t="shared" si="193"/>
         <v>-2.8496451313901405E-6</v>
       </c>
       <c r="DY89" s="82">
-        <f t="shared" si="173"/>
+        <f t="shared" si="194"/>
         <v>-1.4437365224998907E-4</v>
       </c>
       <c r="EA89" s="2"/>
@@ -23629,15 +23698,15 @@
         <v>32</v>
       </c>
       <c r="AH90" s="99">
-        <f t="shared" si="160"/>
+        <f t="shared" si="181"/>
         <v>0.99999918478463834</v>
       </c>
       <c r="AI90" s="99">
-        <f t="shared" si="154"/>
+        <f t="shared" si="172"/>
         <v>0.11818299680988614</v>
       </c>
       <c r="AJ90" s="99">
-        <f t="shared" si="155"/>
+        <f t="shared" si="173"/>
         <v>0.27642050443987382</v>
       </c>
       <c r="AK90" s="1"/>
@@ -23670,7 +23739,7 @@
         <v>32</v>
       </c>
       <c r="BB90" s="80">
-        <f t="shared" si="164"/>
+        <f t="shared" si="185"/>
         <v>0.99211329445182295</v>
       </c>
       <c r="BC90" s="1"/>
@@ -23678,7 +23747,7 @@
         <v>32</v>
       </c>
       <c r="BE90" s="87">
-        <f t="shared" si="165"/>
+        <f t="shared" si="186"/>
         <v>6.2200124403646707E-5</v>
       </c>
       <c r="BF90" s="1"/>
@@ -23689,7 +23758,7 @@
         <v>32</v>
       </c>
       <c r="BK90" s="82">
-        <f t="shared" si="166"/>
+        <f t="shared" si="187"/>
         <v>-7.8867055481770532E-3</v>
       </c>
       <c r="BL90" s="1"/>
@@ -23697,7 +23766,7 @@
         <v>32</v>
       </c>
       <c r="BN90" s="80">
-        <f t="shared" si="162"/>
+        <f t="shared" si="183"/>
         <v>7.824505423773406E-3</v>
       </c>
       <c r="BO90" s="1"/>
@@ -23705,7 +23774,7 @@
         <v>32</v>
       </c>
       <c r="BQ90" s="103">
-        <f t="shared" si="167"/>
+        <f t="shared" si="188"/>
         <v>-6.1709570337415169E-5</v>
       </c>
       <c r="BR90" s="1"/>
@@ -23769,30 +23838,30 @@
         <v>32</v>
       </c>
       <c r="DM90" s="80">
-        <f t="shared" si="168"/>
+        <f t="shared" si="189"/>
         <v>-8.9700874546259652E-4</v>
       </c>
       <c r="DN90" s="80">
-        <f t="shared" si="169"/>
+        <f t="shared" si="190"/>
         <v>1.1580073232071251E-3</v>
       </c>
       <c r="DO90" s="80">
-        <f t="shared" si="170"/>
+        <f t="shared" si="191"/>
         <v>1.1055339022903105E-3</v>
       </c>
       <c r="DQ90" s="1" t="s">
         <v>32</v>
       </c>
       <c r="DR90" s="80">
-        <f t="shared" si="163"/>
+        <f t="shared" si="184"/>
         <v>8.1521469708420714E-7</v>
       </c>
       <c r="DS90" s="80">
-        <f t="shared" si="156"/>
+        <f t="shared" si="175"/>
         <v>0.10421577607492058</v>
       </c>
       <c r="DT90" s="80">
-        <f t="shared" si="157"/>
+        <f t="shared" si="176"/>
         <v>0.20001220916507953</v>
       </c>
       <c r="DU90" s="1"/>
@@ -23800,15 +23869,15 @@
         <v>32</v>
       </c>
       <c r="DW90" s="82">
-        <f t="shared" si="171"/>
+        <f t="shared" si="192"/>
         <v>-7.3125471271417524E-10</v>
       </c>
       <c r="DX90" s="82">
-        <f t="shared" si="172"/>
+        <f t="shared" si="193"/>
         <v>1.2068263188847193E-4</v>
       </c>
       <c r="DY90" s="82">
-        <f t="shared" si="173"/>
+        <f t="shared" si="194"/>
         <v>2.2112027810397618E-4</v>
       </c>
       <c r="EA90" s="2"/>
@@ -24550,11 +24619,11 @@
         <v>10.045780842193475</v>
       </c>
       <c r="J98" s="94">
-        <f t="shared" ref="J98:J99" si="174">EX85</f>
+        <f t="shared" ref="J98:J99" si="195">EX85</f>
         <v>1.2599083849415147</v>
       </c>
       <c r="K98" s="95">
-        <f t="shared" ref="K98:K99" si="175">EY85</f>
+        <f t="shared" ref="K98:K99" si="196">EY85</f>
         <v>1.7576776361452022</v>
       </c>
       <c r="L98" s="1"/>
@@ -24582,11 +24651,11 @@
         <v>3.7651787302612059</v>
       </c>
       <c r="T98" s="68">
-        <f t="shared" ref="T98" si="176">FU85</f>
+        <f t="shared" ref="T98" si="197">FU85</f>
         <v>-3.2508833027122943</v>
       </c>
       <c r="U98" s="98">
-        <f t="shared" ref="U98" si="177">FV85</f>
+        <f t="shared" ref="U98" si="198">FV85</f>
         <v>-2.916085262538064</v>
       </c>
       <c r="V98" s="22"/>
@@ -24598,11 +24667,11 @@
         <v>-1.3539835295141396</v>
       </c>
       <c r="Y98" s="70">
-        <f t="shared" ref="Y98" si="178">O98+T98</f>
+        <f t="shared" ref="Y98" si="199">O98+T98</f>
         <v>-4.4403762069146566</v>
       </c>
       <c r="Z98" s="71">
-        <f t="shared" ref="Z98" si="179">P98+U98</f>
+        <f t="shared" ref="Z98" si="200">P98+U98</f>
         <v>-3.0258987396052799</v>
       </c>
       <c r="AA98" s="22"/>
@@ -24627,11 +24696,11 @@
         <v>0.20521987650521492</v>
       </c>
       <c r="AI98" s="81">
-        <f t="shared" ref="AI98:AI103" si="180">1/(1+2.71828182845904^(Y98*-1))</f>
+        <f t="shared" ref="AI98:AI103" si="201">1/(1+2.71828182845904^(Y98*-1))</f>
         <v>1.16540825077486E-2</v>
       </c>
       <c r="AJ98" s="81">
-        <f t="shared" ref="AJ98:AJ103" si="181">1/(1+2.71828182845904^(Z98*-1))</f>
+        <f t="shared" ref="AJ98:AJ103" si="202">1/(1+2.71828182845904^(Z98*-1))</f>
         <v>4.6269473542786849E-2</v>
       </c>
       <c r="AK98" s="10"/>
@@ -24858,15 +24927,15 @@
         <v>24</v>
       </c>
       <c r="DM98" s="108">
-        <f>BY98</f>
+        <f t="shared" ref="DM98:DO99" si="203">BY98</f>
         <v>1.1770217910194098</v>
       </c>
       <c r="DN98" s="108">
-        <f>BZ98</f>
+        <f t="shared" si="203"/>
         <v>-1.5213573240575273</v>
       </c>
       <c r="DO98" s="108">
-        <f>CA98</f>
+        <f t="shared" si="203"/>
         <v>-1.4528038433005797</v>
       </c>
       <c r="DQ98" s="1" t="s">
@@ -24877,11 +24946,11 @@
         <v>0.16310467879239926</v>
       </c>
       <c r="DS98" s="109">
-        <f t="shared" ref="DS98:DS103" si="182">AI98*(1-AI98)</f>
+        <f t="shared" ref="DS98:DS103" si="204">AI98*(1-AI98)</f>
         <v>1.1518264868651188E-2</v>
       </c>
       <c r="DT98" s="109">
-        <f t="shared" ref="DT98:DT103" si="183">AJ98*(1-AJ98)</f>
+        <f t="shared" ref="DT98:DT103" si="205">AJ98*(1-AJ98)</f>
         <v>4.4128609360860195E-2</v>
       </c>
       <c r="DU98" s="1"/>
@@ -24889,15 +24958,15 @@
         <v>24</v>
       </c>
       <c r="DW98" s="86">
-        <f>DM98*DR98</f>
+        <f t="shared" ref="DW98:DY99" si="206">DM98*DR98</f>
         <v>0.19197776115587534</v>
       </c>
       <c r="DX98" s="86">
-        <f>DN98*DS98</f>
+        <f t="shared" si="206"/>
         <v>-1.7523396618356998E-2</v>
       </c>
       <c r="DY98" s="86">
-        <f>DO98*DT98</f>
+        <f t="shared" si="206"/>
         <v>-6.4110213278967626E-2</v>
       </c>
       <c r="EA98" t="s">
@@ -24971,15 +25040,15 @@
         <v>27</v>
       </c>
       <c r="EW98" s="24">
-        <f>I98-ER98</f>
+        <f t="shared" ref="EW98:EY99" si="207">I98-ER98</f>
         <v>10.138659667696444</v>
       </c>
       <c r="EX98" s="24">
-        <f>J98-ES98</f>
+        <f t="shared" si="207"/>
         <v>1.2490471397681084</v>
       </c>
       <c r="EY98" s="24">
-        <f>K98-ET98</f>
+        <f t="shared" si="207"/>
         <v>1.72667607335075</v>
       </c>
       <c r="EZ98" s="1"/>
@@ -25007,11 +25076,11 @@
         <v>2.8879775448427766E-6</v>
       </c>
       <c r="FH98" s="86">
-        <f t="shared" ref="FH98" si="184">FC98</f>
+        <f t="shared" ref="FH98" si="208">FC98</f>
         <v>-1.202633802095191E-6</v>
       </c>
       <c r="FI98" s="86">
-        <f t="shared" ref="FI98" si="185">FD98</f>
+        <f t="shared" ref="FI98" si="209">FD98</f>
         <v>-6.2482318397807091E-5</v>
       </c>
       <c r="FJ98" s="1"/>
@@ -25098,11 +25167,11 @@
         <v>1.2119954658149124</v>
       </c>
       <c r="J99" s="96">
-        <f t="shared" si="174"/>
+        <f t="shared" si="195"/>
         <v>3.3166773642630485</v>
       </c>
       <c r="K99" s="97">
-        <f t="shared" si="175"/>
+        <f t="shared" si="196"/>
         <v>-4.3307380486596143</v>
       </c>
       <c r="L99" s="1"/>
@@ -25158,15 +25227,15 @@
       <c r="AF99" s="22"/>
       <c r="AG99" s="22"/>
       <c r="AH99" s="99">
-        <f t="shared" ref="AH99:AH103" si="186">1/(1+2.71828182845904^(X99*-1))</f>
+        <f t="shared" ref="AH99:AH103" si="210">1/(1+2.71828182845904^(X99*-1))</f>
         <v>0.98603056422828061</v>
       </c>
       <c r="AI99" s="99">
-        <f t="shared" si="180"/>
+        <f t="shared" si="201"/>
         <v>1.1924644329735867E-2</v>
       </c>
       <c r="AJ99" s="99">
-        <f t="shared" si="181"/>
+        <f t="shared" si="202"/>
         <v>0.25589594785789721</v>
       </c>
       <c r="AK99" s="10"/>
@@ -25174,7 +25243,7 @@
         <v>28</v>
       </c>
       <c r="AM99" s="16">
-        <f t="shared" ref="AM99:AM100" si="187">CU86</f>
+        <f t="shared" ref="AM99:AM100" si="211">CU86</f>
         <v>-18.765130521694331</v>
       </c>
       <c r="AN99" s="1"/>
@@ -25225,7 +25294,7 @@
       <c r="BL99" s="1"/>
       <c r="BM99" s="1"/>
       <c r="BN99" s="80">
-        <f t="shared" ref="BN99:BN103" si="188">BB99*(1-BB99)</f>
+        <f t="shared" ref="BN99:BN103" si="212">BB99*(1-BB99)</f>
         <v>9.3383662061407191E-4</v>
       </c>
       <c r="BO99" s="1"/>
@@ -25340,42 +25409,42 @@
       <c r="DK99" s="1"/>
       <c r="DL99" s="1"/>
       <c r="DM99" s="80">
-        <f>BY99</f>
+        <f t="shared" si="203"/>
         <v>1.3544707622764971E-2</v>
       </c>
       <c r="DN99" s="80">
-        <f>BZ99</f>
+        <f t="shared" si="203"/>
         <v>-1.7507186613991498E-2</v>
       </c>
       <c r="DO99" s="80">
-        <f>CA99</f>
+        <f t="shared" si="203"/>
         <v>-1.6718299899692434E-2</v>
       </c>
       <c r="DQ99" s="1"/>
       <c r="DR99" s="80">
-        <f t="shared" ref="DR99:DR103" si="189">AH99*(1-AH99)</f>
+        <f t="shared" ref="DR99:DR103" si="213">AH99*(1-AH99)</f>
         <v>1.3774290635939192E-2</v>
       </c>
       <c r="DS99" s="80">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>1.1782447187345165E-2</v>
       </c>
       <c r="DT99" s="80">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>0.19041321172780554</v>
       </c>
       <c r="DU99" s="1"/>
       <c r="DV99" s="1"/>
       <c r="DW99" s="82">
-        <f>DM99*DR99</f>
+        <f t="shared" si="206"/>
         <v>1.8656873937478573E-4</v>
       </c>
       <c r="DX99" s="82">
-        <f>DN99*DS99</f>
+        <f t="shared" si="206"/>
         <v>-2.0627750167835103E-4</v>
       </c>
       <c r="DY99" s="82">
-        <f>DO99*DT99</f>
+        <f t="shared" si="206"/>
         <v>-3.1833851785290856E-3</v>
       </c>
       <c r="EA99" t="s">
@@ -25444,15 +25513,15 @@
         <v>28</v>
       </c>
       <c r="EW99" s="24">
-        <f>I99-ER99</f>
+        <f t="shared" si="207"/>
         <v>1.2449870329462285</v>
       </c>
       <c r="EX99" s="24">
-        <f>J99-ES99</f>
+        <f t="shared" si="207"/>
         <v>3.3029380937228554</v>
       </c>
       <c r="EY99" s="24">
-        <f>K99-ET99</f>
+        <f t="shared" si="207"/>
         <v>-4.3430733599617799</v>
       </c>
       <c r="EZ99" s="1"/>
@@ -25589,15 +25658,15 @@
       <c r="AF100" s="74"/>
       <c r="AG100" s="74"/>
       <c r="AH100" s="99">
-        <f t="shared" si="186"/>
+        <f t="shared" si="210"/>
         <v>0.99987291514095511</v>
       </c>
       <c r="AI100" s="99">
-        <f t="shared" si="180"/>
+        <f t="shared" si="201"/>
         <v>7.1726599013964984E-2</v>
       </c>
       <c r="AJ100" s="99">
-        <f t="shared" si="181"/>
+        <f t="shared" si="202"/>
         <v>0.11311918320524843</v>
       </c>
       <c r="AK100" s="10"/>
@@ -25605,7 +25674,7 @@
         <v>29</v>
       </c>
       <c r="AM100" s="20">
-        <f t="shared" si="187"/>
+        <f t="shared" si="211"/>
         <v>-17.919559929054294</v>
       </c>
       <c r="AN100" s="1"/>
@@ -25629,13 +25698,13 @@
       <c r="AZ100" s="1"/>
       <c r="BA100" s="1"/>
       <c r="BB100" s="80">
-        <f t="shared" ref="BB100:BB103" si="190">1/(1+2.71828182845904^(AV100*-1))</f>
+        <f t="shared" ref="BB100:BB103" si="214">1/(1+2.71828182845904^(AV100*-1))</f>
         <v>0.99981805177565031</v>
       </c>
       <c r="BC100" s="1"/>
       <c r="BD100" s="1"/>
       <c r="BE100" s="87">
-        <f t="shared" ref="BE100:BE103" si="191">(BB100-B100)^2</f>
+        <f t="shared" ref="BE100:BE103" si="215">(BB100-B100)^2</f>
         <v>3.3105156344006154E-8</v>
       </c>
       <c r="BF100" s="1"/>
@@ -25644,19 +25713,19 @@
       <c r="BI100" s="1"/>
       <c r="BJ100" s="1"/>
       <c r="BK100" s="82">
-        <f t="shared" ref="BK100:BK103" si="192">BB100-B100</f>
+        <f t="shared" ref="BK100:BK103" si="216">BB100-B100</f>
         <v>-1.8194822434969282E-4</v>
       </c>
       <c r="BL100" s="1"/>
       <c r="BM100" s="1"/>
       <c r="BN100" s="80">
-        <f t="shared" si="188"/>
+        <f t="shared" si="212"/>
         <v>1.8191511919334882E-4</v>
       </c>
       <c r="BO100" s="1"/>
       <c r="BP100" s="1"/>
       <c r="BQ100" s="103">
-        <f t="shared" ref="BQ100:BQ103" si="193">BK100*BN100</f>
+        <f t="shared" ref="BQ100:BQ103" si="217">BK100*BN100</f>
         <v>-3.3099132919592542E-8</v>
       </c>
       <c r="BR100" s="1"/>
@@ -25751,42 +25820,42 @@
       <c r="DK100" s="1"/>
       <c r="DL100" s="1"/>
       <c r="DM100" s="80">
-        <f t="shared" ref="DM100:DM103" si="194">BY100</f>
+        <f t="shared" ref="DM100:DM103" si="218">BY100</f>
         <v>-4.8053107753394857E-7</v>
       </c>
       <c r="DN100" s="80">
-        <f t="shared" ref="DN100:DN103" si="195">BZ100</f>
+        <f t="shared" ref="DN100:DN103" si="219">BZ100</f>
         <v>6.2110954939106366E-7</v>
       </c>
       <c r="DO100" s="80">
-        <f t="shared" ref="DO100:DO103" si="196">CA100</f>
+        <f t="shared" ref="DO100:DO103" si="220">CA100</f>
         <v>5.931218959523724E-7</v>
       </c>
       <c r="DQ100" s="1"/>
       <c r="DR100" s="80">
-        <f t="shared" si="189"/>
+        <f t="shared" si="213"/>
         <v>1.2706870848349185E-4</v>
       </c>
       <c r="DS100" s="80">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>6.6581894007854858E-2</v>
       </c>
       <c r="DT100" s="80">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>0.10032323359622587</v>
       </c>
       <c r="DU100" s="1"/>
       <c r="DV100" s="1"/>
       <c r="DW100" s="82">
-        <f t="shared" ref="DW100:DW103" si="197">DM100*DR100</f>
+        <f t="shared" ref="DW100:DW103" si="221">DM100*DR100</f>
         <v>-6.1060463408419532E-11</v>
       </c>
       <c r="DX100" s="82">
-        <f t="shared" ref="DX100:DX103" si="198">DN100*DS100</f>
+        <f t="shared" ref="DX100:DX103" si="222">DN100*DS100</f>
         <v>4.1354650184822294E-8</v>
       </c>
       <c r="DY100" s="82">
-        <f t="shared" ref="DY100:DY103" si="199">DO100*DT100</f>
+        <f t="shared" ref="DY100:DY103" si="223">DO100*DT100</f>
         <v>5.950390651866623E-8</v>
       </c>
       <c r="EA100" s="2"/>
@@ -25935,15 +26004,15 @@
       <c r="AF101" s="22"/>
       <c r="AG101" s="22"/>
       <c r="AH101" s="99">
-        <f t="shared" si="186"/>
+        <f t="shared" si="210"/>
         <v>0.99884628471170311</v>
       </c>
       <c r="AI101" s="99">
-        <f t="shared" si="180"/>
+        <f t="shared" si="201"/>
         <v>0.48195548180382025</v>
       </c>
       <c r="AJ101" s="99">
-        <f t="shared" si="181"/>
+        <f t="shared" si="202"/>
         <v>1.6348965563553327E-3</v>
       </c>
       <c r="AK101" s="10"/>
@@ -25972,13 +26041,13 @@
       <c r="AZ101" s="1"/>
       <c r="BA101" s="1"/>
       <c r="BB101" s="80">
-        <f t="shared" si="190"/>
+        <f t="shared" si="214"/>
         <v>0.94767080239713952</v>
       </c>
       <c r="BC101" s="1"/>
       <c r="BD101" s="1"/>
       <c r="BE101" s="87">
-        <f t="shared" si="191"/>
+        <f t="shared" si="215"/>
         <v>2.7383449217592186E-3</v>
       </c>
       <c r="BF101" s="1"/>
@@ -25987,19 +26056,19 @@
       <c r="BI101" s="1"/>
       <c r="BJ101" s="1"/>
       <c r="BK101" s="82">
-        <f t="shared" si="192"/>
+        <f t="shared" si="216"/>
         <v>-5.2329197602860478E-2</v>
       </c>
       <c r="BL101" s="1"/>
       <c r="BM101" s="1"/>
       <c r="BN101" s="80">
-        <f t="shared" si="188"/>
+        <f t="shared" si="212"/>
         <v>4.9590852681101256E-2</v>
       </c>
       <c r="BO101" s="1"/>
       <c r="BP101" s="1"/>
       <c r="BQ101" s="103">
-        <f t="shared" si="193"/>
+        <f t="shared" si="217"/>
         <v>-2.5950495292436909E-3</v>
       </c>
       <c r="BR101" s="1"/>
@@ -26071,42 +26140,42 @@
       <c r="DK101" s="1"/>
       <c r="DL101" s="1"/>
       <c r="DM101" s="80">
-        <f t="shared" si="194"/>
+        <f t="shared" si="218"/>
         <v>-3.7674761739854894E-2</v>
       </c>
       <c r="DN101" s="80">
-        <f t="shared" si="195"/>
+        <f t="shared" si="219"/>
         <v>4.8696443126519287E-2</v>
       </c>
       <c r="DO101" s="80">
-        <f t="shared" si="196"/>
+        <f t="shared" si="220"/>
         <v>4.6502145558146454E-2</v>
       </c>
       <c r="DQ101" s="1"/>
       <c r="DR101" s="80">
-        <f t="shared" si="189"/>
+        <f t="shared" si="213"/>
         <v>1.1523842293304359E-3</v>
       </c>
       <c r="DS101" s="80">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>0.24967439536306771</v>
       </c>
       <c r="DT101" s="80">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>1.6322236696053503E-3</v>
       </c>
       <c r="DU101" s="1"/>
       <c r="DV101" s="1"/>
       <c r="DW101" s="82">
-        <f t="shared" si="197"/>
+        <f t="shared" si="221"/>
         <v>-4.3415801272790472E-5</v>
       </c>
       <c r="DX101" s="82">
-        <f t="shared" si="198"/>
+        <f t="shared" si="222"/>
         <v>1.2158254993945718E-2</v>
       </c>
       <c r="DY101" s="82">
-        <f t="shared" si="199"/>
+        <f t="shared" si="223"/>
         <v>7.5901902667439944E-5</v>
       </c>
       <c r="EA101" s="2"/>
@@ -26235,15 +26304,15 @@
       <c r="AF102" s="22"/>
       <c r="AG102" s="22"/>
       <c r="AH102" s="99">
-        <f t="shared" si="186"/>
+        <f t="shared" si="210"/>
         <v>6.576078069751301E-3</v>
       </c>
       <c r="AI102" s="99">
-        <f t="shared" si="180"/>
+        <f t="shared" si="201"/>
         <v>2.1454882746899423E-3</v>
       </c>
       <c r="AJ102" s="99">
-        <f t="shared" si="181"/>
+        <f t="shared" si="202"/>
         <v>0.13198240871330028</v>
       </c>
       <c r="AK102" s="1"/>
@@ -26270,13 +26339,13 @@
       <c r="AZ102" s="1"/>
       <c r="BA102" s="1"/>
       <c r="BB102" s="80">
-        <f t="shared" si="190"/>
+        <f t="shared" si="214"/>
         <v>7.8346382817529956E-3</v>
       </c>
       <c r="BC102" s="1"/>
       <c r="BD102" s="1"/>
       <c r="BE102" s="87">
-        <f t="shared" si="191"/>
+        <f t="shared" si="215"/>
         <v>6.1381557005909536E-5</v>
       </c>
       <c r="BF102" s="1"/>
@@ -26285,19 +26354,19 @@
       <c r="BI102" s="1"/>
       <c r="BJ102" s="1"/>
       <c r="BK102" s="82">
-        <f t="shared" si="192"/>
+        <f t="shared" si="216"/>
         <v>7.8346382817529956E-3</v>
       </c>
       <c r="BL102" s="1"/>
       <c r="BM102" s="1"/>
       <c r="BN102" s="80">
-        <f t="shared" si="188"/>
+        <f t="shared" si="212"/>
         <v>7.7732567247470862E-3</v>
       </c>
       <c r="BO102" s="1"/>
       <c r="BP102" s="1"/>
       <c r="BQ102" s="103">
-        <f t="shared" si="193"/>
+        <f t="shared" si="217"/>
         <v>6.0900654709597432E-5</v>
       </c>
       <c r="BR102" s="1"/>
@@ -26357,42 +26426,42 @@
       <c r="DK102" s="1"/>
       <c r="DL102" s="1"/>
       <c r="DM102" s="80">
-        <f t="shared" si="194"/>
+        <f t="shared" si="218"/>
         <v>8.8415177827220397E-4</v>
       </c>
       <c r="DN102" s="80">
-        <f t="shared" si="195"/>
+        <f t="shared" si="219"/>
         <v>-1.1428087344822343E-3</v>
       </c>
       <c r="DO102" s="80">
-        <f t="shared" si="196"/>
+        <f t="shared" si="220"/>
         <v>-1.0913129317872737E-3</v>
       </c>
       <c r="DQ102" s="1"/>
       <c r="DR102" s="80">
-        <f t="shared" si="189"/>
+        <f t="shared" si="213"/>
         <v>6.532833266971837E-3</v>
       </c>
       <c r="DS102" s="80">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>2.1408851547531104E-3</v>
       </c>
       <c r="DT102" s="80">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>0.11456305250353564</v>
       </c>
       <c r="DU102" s="1"/>
       <c r="DV102" s="1"/>
       <c r="DW102" s="82">
-        <f t="shared" si="197"/>
+        <f t="shared" si="221"/>
         <v>5.7760161501489615E-6</v>
       </c>
       <c r="DX102" s="82">
-        <f t="shared" si="198"/>
+        <f t="shared" si="222"/>
         <v>-2.4466222543752043E-6</v>
       </c>
       <c r="DY102" s="82">
-        <f t="shared" si="199"/>
+        <f t="shared" si="223"/>
         <v>-1.2502414070213286E-4</v>
       </c>
       <c r="EA102" s="2"/>
@@ -26533,15 +26602,15 @@
         <v>32</v>
       </c>
       <c r="AH103" s="99">
-        <f t="shared" si="186"/>
+        <f t="shared" si="210"/>
         <v>0.99999927325550086</v>
       </c>
       <c r="AI103" s="99">
-        <f t="shared" si="180"/>
+        <f t="shared" si="201"/>
         <v>0.11688449018817745</v>
       </c>
       <c r="AJ103" s="99">
-        <f t="shared" si="181"/>
+        <f t="shared" si="202"/>
         <v>0.26922449214632027</v>
       </c>
       <c r="AK103" s="1"/>
@@ -26574,7 +26643,7 @@
         <v>32</v>
       </c>
       <c r="BB103" s="80">
-        <f t="shared" si="190"/>
+        <f t="shared" si="214"/>
         <v>0.99309587894367468</v>
       </c>
       <c r="BC103" s="1"/>
@@ -26582,7 +26651,7 @@
         <v>32</v>
       </c>
       <c r="BE103" s="87">
-        <f t="shared" si="191"/>
+        <f t="shared" si="215"/>
         <v>4.7666887560394633E-5</v>
       </c>
       <c r="BF103" s="1"/>
@@ -26593,7 +26662,7 @@
         <v>32</v>
       </c>
       <c r="BK103" s="82">
-        <f t="shared" si="192"/>
+        <f t="shared" si="216"/>
         <v>-6.9041210563253186E-3</v>
       </c>
       <c r="BL103" s="1"/>
@@ -26601,7 +26670,7 @@
         <v>32</v>
       </c>
       <c r="BN103" s="80">
-        <f t="shared" si="188"/>
+        <f t="shared" si="212"/>
         <v>6.8564541687649236E-3</v>
       </c>
       <c r="BO103" s="1"/>
@@ -26609,7 +26678,7 @@
         <v>32</v>
       </c>
       <c r="BQ103" s="103">
-        <f t="shared" si="193"/>
+        <f t="shared" si="217"/>
         <v>-4.7337789598299421E-5</v>
       </c>
       <c r="BR103" s="1"/>
@@ -26673,30 +26742,30 @@
         <v>32</v>
       </c>
       <c r="DM103" s="80">
-        <f t="shared" si="194"/>
+        <f t="shared" si="218"/>
         <v>-6.8724697710377926E-4</v>
       </c>
       <c r="DN103" s="80">
-        <f t="shared" si="195"/>
+        <f t="shared" si="219"/>
         <v>8.8829980042059292E-4</v>
       </c>
       <c r="DO103" s="80">
-        <f t="shared" si="196"/>
+        <f t="shared" si="220"/>
         <v>8.4827235761568952E-4</v>
       </c>
       <c r="DQ103" s="1" t="s">
         <v>32</v>
       </c>
       <c r="DR103" s="80">
-        <f t="shared" si="189"/>
+        <f t="shared" si="213"/>
         <v>7.2674397097788959E-7</v>
       </c>
       <c r="DS103" s="80">
-        <f t="shared" si="182"/>
+        <f t="shared" si="204"/>
         <v>0.1032225061416273</v>
       </c>
       <c r="DT103" s="80">
-        <f t="shared" si="183"/>
+        <f t="shared" si="205"/>
         <v>0.19674266497487622</v>
       </c>
       <c r="DU103" s="1"/>
@@ -26704,15 +26773,15 @@
         <v>32</v>
       </c>
       <c r="DW103" s="82">
-        <f t="shared" si="197"/>
+        <f t="shared" si="221"/>
         <v>-4.994525971829513E-10</v>
       </c>
       <c r="DX103" s="82">
-        <f t="shared" si="198"/>
+        <f t="shared" si="222"/>
         <v>9.1692531604520958E-5</v>
       </c>
       <c r="DY103" s="82">
-        <f t="shared" si="199"/>
+        <f t="shared" si="223"/>
         <v>1.66891364261832E-4</v>
       </c>
       <c r="EA103" s="2"/>
@@ -27454,11 +27523,11 @@
         <v>10.138659667696444</v>
       </c>
       <c r="J111" s="94">
-        <f t="shared" ref="J111:J112" si="200">EX98</f>
+        <f t="shared" ref="J111:J112" si="224">EX98</f>
         <v>1.2490471397681084</v>
       </c>
       <c r="K111" s="95">
-        <f t="shared" ref="K111:K112" si="201">EY98</f>
+        <f t="shared" ref="K111:K112" si="225">EY98</f>
         <v>1.72667607335075</v>
       </c>
       <c r="L111" s="1"/>
@@ -27486,11 +27555,11 @@
         <v>3.7651758711634367</v>
       </c>
       <c r="T111" s="68">
-        <f t="shared" ref="T111" si="202">FU98</f>
+        <f t="shared" ref="T111" si="226">FU98</f>
         <v>-3.2508821121048301</v>
       </c>
       <c r="U111" s="98">
-        <f t="shared" ref="U111" si="203">FV98</f>
+        <f t="shared" ref="U111" si="227">FV98</f>
         <v>-2.91602340504285</v>
       </c>
       <c r="V111" s="22"/>
@@ -27502,11 +27571,11 @@
         <v>-1.4050847014179544</v>
       </c>
       <c r="Y111" s="70">
-        <f t="shared" ref="Y111" si="204">O111+T111</f>
+        <f t="shared" ref="Y111" si="228">O111+T111</f>
         <v>-4.4326902022565555</v>
       </c>
       <c r="Z111" s="71">
-        <f t="shared" ref="Z111" si="205">P111+U111</f>
+        <f t="shared" ref="Z111" si="229">P111+U111</f>
         <v>-3.0085521225095389</v>
       </c>
       <c r="AA111" s="22"/>
@@ -27531,11 +27600,11 @@
         <v>0.19701048570974486</v>
       </c>
       <c r="AI111" s="81">
-        <f t="shared" ref="AI111:AI116" si="206">1/(1+2.71828182845904^(Y111*-1))</f>
+        <f t="shared" ref="AI111:AI116" si="230">1/(1+2.71828182845904^(Y111*-1))</f>
         <v>1.1742945046953676E-2</v>
       </c>
       <c r="AJ111" s="81">
-        <f t="shared" ref="AJ111:AJ116" si="207">1/(1+2.71828182845904^(Z111*-1))</f>
+        <f t="shared" ref="AJ111:AJ116" si="231">1/(1+2.71828182845904^(Z111*-1))</f>
         <v>4.7041008800469485E-2</v>
       </c>
       <c r="AK111" s="10"/>
@@ -27762,15 +27831,15 @@
         <v>24</v>
       </c>
       <c r="DM111" s="108">
-        <f>BY111</f>
+        <f t="shared" ref="DM111:DO112" si="232">BY111</f>
         <v>1.0267904229014639</v>
       </c>
       <c r="DN111" s="108">
-        <f>BZ111</f>
+        <f t="shared" si="232"/>
         <v>-1.3285065730417009</v>
       </c>
       <c r="DO111" s="108">
-        <f>CA111</f>
+        <f t="shared" si="232"/>
         <v>-1.268942206489406</v>
       </c>
       <c r="DQ111" s="1" t="s">
@@ -27781,11 +27850,11 @@
         <v>0.15819735423015527</v>
       </c>
       <c r="DS111" s="109">
-        <f t="shared" ref="DS111:DS116" si="208">AI111*(1-AI111)</f>
+        <f t="shared" ref="DS111:DS116" si="233">AI111*(1-AI111)</f>
         <v>1.1605048288577903E-2</v>
       </c>
       <c r="DT111" s="109">
-        <f t="shared" ref="DT111:DT116" si="209">AJ111*(1-AJ111)</f>
+        <f t="shared" ref="DT111:DT116" si="234">AJ111*(1-AJ111)</f>
         <v>4.4828152291503637E-2</v>
       </c>
       <c r="DU111" s="1"/>
@@ -27793,15 +27862,15 @@
         <v>24</v>
       </c>
       <c r="DW111" s="86">
-        <f>DM111*DR111</f>
+        <f t="shared" ref="DW111:DY112" si="235">DM111*DR111</f>
         <v>0.16243552825187382</v>
       </c>
       <c r="DX111" s="86">
-        <f>DN111*DS111</f>
+        <f t="shared" si="235"/>
         <v>-1.5417382931842086E-2</v>
       </c>
       <c r="DY111" s="86">
-        <f>DO111*DT111</f>
+        <f t="shared" si="235"/>
         <v>-5.688433448162375E-2</v>
       </c>
       <c r="EA111" t="s">
@@ -27875,15 +27944,15 @@
         <v>27</v>
       </c>
       <c r="EW111" s="24">
-        <f>I111-ER111</f>
+        <f t="shared" ref="EW111:EY112" si="236">I111-ER111</f>
         <v>10.21724262309386</v>
       </c>
       <c r="EX111" s="24">
-        <f>J111-ES111</f>
+        <f t="shared" si="236"/>
         <v>1.2394432211624449</v>
       </c>
       <c r="EY111" s="24">
-        <f>K111-ET111</f>
+        <f t="shared" si="236"/>
         <v>1.6992288117497134</v>
       </c>
       <c r="EZ111" s="1"/>
@@ -27911,11 +27980,11 @@
         <v>2.2620370324356161E-6</v>
       </c>
       <c r="FH111" s="86">
-        <f t="shared" ref="FH111" si="210">FC111</f>
+        <f t="shared" ref="FH111" si="237">FC111</f>
         <v>-1.0496474869234387E-6</v>
       </c>
       <c r="FI111" s="86">
-        <f t="shared" ref="FI111" si="211">FD111</f>
+        <f t="shared" ref="FI111" si="238">FD111</f>
         <v>-5.5014860874755012E-5</v>
       </c>
       <c r="FJ111" s="1"/>
@@ -28002,11 +28071,11 @@
         <v>1.2449870329462285</v>
       </c>
       <c r="J112" s="96">
-        <f t="shared" si="200"/>
+        <f t="shared" si="224"/>
         <v>3.3029380937228554</v>
       </c>
       <c r="K112" s="97">
-        <f t="shared" si="201"/>
+        <f t="shared" si="225"/>
         <v>-4.3430733599617799</v>
       </c>
       <c r="L112" s="1"/>
@@ -28062,15 +28131,15 @@
       <c r="AF112" s="22"/>
       <c r="AG112" s="22"/>
       <c r="AH112" s="99">
-        <f t="shared" ref="AH112:AH116" si="212">1/(1+2.71828182845904^(X112*-1))</f>
+        <f t="shared" ref="AH112:AH116" si="239">1/(1+2.71828182845904^(X112*-1))</f>
         <v>0.98597659585131181</v>
       </c>
       <c r="AI112" s="99">
-        <f t="shared" si="206"/>
+        <f t="shared" si="230"/>
         <v>1.1975322943511895E-2</v>
       </c>
       <c r="AJ112" s="99">
-        <f t="shared" si="207"/>
+        <f t="shared" si="231"/>
         <v>0.25625401840051415</v>
       </c>
       <c r="AK112" s="10"/>
@@ -28078,7 +28147,7 @@
         <v>28</v>
       </c>
       <c r="AM112" s="16">
-        <f t="shared" ref="AM112:AM113" si="213">CU99</f>
+        <f t="shared" ref="AM112:AM113" si="240">CU99</f>
         <v>-18.764833384053507</v>
       </c>
       <c r="AN112" s="1"/>
@@ -28129,7 +28198,7 @@
       <c r="BL112" s="1"/>
       <c r="BM112" s="1"/>
       <c r="BN112" s="80">
-        <f t="shared" ref="BN112:BN116" si="214">BB112*(1-BB112)</f>
+        <f t="shared" ref="BN112:BN116" si="241">BB112*(1-BB112)</f>
         <v>9.5623775082851641E-4</v>
       </c>
       <c r="BO112" s="1"/>
@@ -28244,42 +28313,42 @@
       <c r="DK112" s="1"/>
       <c r="DL112" s="1"/>
       <c r="DM112" s="80">
-        <f>BY112</f>
+        <f t="shared" si="232"/>
         <v>1.3855200459698715E-2</v>
       </c>
       <c r="DN112" s="80">
-        <f>BZ112</f>
+        <f t="shared" si="232"/>
         <v>-1.7926467242952208E-2</v>
       </c>
       <c r="DO112" s="80">
-        <f>CA112</f>
+        <f t="shared" si="232"/>
         <v>-1.7122723635269364E-2</v>
       </c>
       <c r="DQ112" s="1"/>
       <c r="DR112" s="80">
-        <f t="shared" ref="DR112:DR116" si="215">AH112*(1-AH112)</f>
+        <f t="shared" ref="DR112:DR116" si="242">AH112*(1-AH112)</f>
         <v>1.3826748284770745E-2</v>
       </c>
       <c r="DS112" s="80">
-        <f t="shared" si="208"/>
+        <f t="shared" si="233"/>
         <v>1.1831914583910494E-2</v>
       </c>
       <c r="DT112" s="80">
-        <f t="shared" si="209"/>
+        <f t="shared" si="234"/>
         <v>0.1905878964541031</v>
       </c>
       <c r="DU112" s="1"/>
       <c r="DV112" s="1"/>
       <c r="DW112" s="82">
-        <f>DM112*DR112</f>
+        <f t="shared" si="235"/>
         <v>1.9157236919129403E-4</v>
       </c>
       <c r="DX112" s="82">
-        <f>DN112*DS112</f>
+        <f t="shared" si="235"/>
         <v>-2.1210442920987997E-4</v>
       </c>
       <c r="DY112" s="82">
-        <f>DO112*DT112</f>
+        <f t="shared" si="235"/>
         <v>-3.2633838792109414E-3</v>
       </c>
       <c r="EA112" t="s">
@@ -28348,15 +28417,15 @@
         <v>28</v>
       </c>
       <c r="EW112" s="24">
-        <f>I112-ER112</f>
+        <f t="shared" si="236"/>
         <v>1.2729151575519253</v>
       </c>
       <c r="EX112" s="24">
-        <f>J112-ES112</f>
+        <f t="shared" si="236"/>
         <v>3.2905627084733529</v>
       </c>
       <c r="EY112" s="24">
-        <f>K112-ET112</f>
+        <f t="shared" si="236"/>
         <v>-4.3541870986503017</v>
       </c>
       <c r="EZ112" s="1"/>
@@ -28493,15 +28562,15 @@
       <c r="AF113" s="74"/>
       <c r="AG113" s="74"/>
       <c r="AH113" s="99">
-        <f t="shared" si="212"/>
+        <f t="shared" si="239"/>
         <v>0.99987891668726114</v>
       </c>
       <c r="AI113" s="99">
-        <f t="shared" si="206"/>
+        <f t="shared" si="230"/>
         <v>7.1343084834635806E-2</v>
       </c>
       <c r="AJ113" s="99">
-        <f t="shared" si="207"/>
+        <f t="shared" si="231"/>
         <v>0.11151360921028519</v>
       </c>
       <c r="AK113" s="10"/>
@@ -28509,7 +28578,7 @@
         <v>29</v>
       </c>
       <c r="AM113" s="20">
-        <f t="shared" si="213"/>
+        <f t="shared" si="240"/>
         <v>-17.923501141773801</v>
       </c>
       <c r="AN113" s="1"/>
@@ -28533,13 +28602,13 @@
       <c r="AZ113" s="1"/>
       <c r="BA113" s="1"/>
       <c r="BB113" s="80">
-        <f t="shared" ref="BB113:BB116" si="216">1/(1+2.71828182845904^(AV113*-1))</f>
+        <f t="shared" ref="BB113:BB116" si="243">1/(1+2.71828182845904^(AV113*-1))</f>
         <v>0.99982180344311977</v>
       </c>
       <c r="BC113" s="1"/>
       <c r="BD113" s="1"/>
       <c r="BE113" s="87">
-        <f t="shared" ref="BE113:BE116" si="217">(BB113-B113)^2</f>
+        <f t="shared" ref="BE113:BE116" si="244">(BB113-B113)^2</f>
         <v>3.1754012883968313E-8</v>
       </c>
       <c r="BF113" s="1"/>
@@ -28548,19 +28617,19 @@
       <c r="BI113" s="1"/>
       <c r="BJ113" s="1"/>
       <c r="BK113" s="82">
-        <f t="shared" ref="BK113:BK116" si="218">BB113-B113</f>
+        <f t="shared" ref="BK113:BK116" si="245">BB113-B113</f>
         <v>-1.7819655688022795E-4</v>
       </c>
       <c r="BL113" s="1"/>
       <c r="BM113" s="1"/>
       <c r="BN113" s="80">
-        <f t="shared" si="214"/>
+        <f t="shared" si="241"/>
         <v>1.7816480286734398E-4</v>
       </c>
       <c r="BO113" s="1"/>
       <c r="BP113" s="1"/>
       <c r="BQ113" s="103">
-        <f t="shared" ref="BQ113:BQ116" si="219">BK113*BN113</f>
+        <f t="shared" ref="BQ113:BQ116" si="246">BK113*BN113</f>
         <v>-3.1748354428205259E-8</v>
       </c>
       <c r="BR113" s="1"/>
@@ -28655,42 +28724,42 @@
       <c r="DK113" s="1"/>
       <c r="DL113" s="1"/>
       <c r="DM113" s="80">
-        <f t="shared" ref="DM113:DM116" si="220">BY113</f>
+        <f t="shared" ref="DM113:DM116" si="247">BY113</f>
         <v>-4.6045165079907227E-7</v>
       </c>
       <c r="DN113" s="80">
-        <f t="shared" ref="DN113:DN116" si="221">BZ113</f>
+        <f t="shared" ref="DN113:DN116" si="248">BZ113</f>
         <v>5.9575258106314897E-7</v>
       </c>
       <c r="DO113" s="80">
-        <f t="shared" ref="DO113:DO116" si="222">CA113</f>
+        <f t="shared" ref="DO113:DO116" si="249">CA113</f>
         <v>5.6904166684337633E-7</v>
       </c>
       <c r="DQ113" s="1"/>
       <c r="DR113" s="80">
-        <f t="shared" si="215"/>
+        <f t="shared" si="242"/>
         <v>1.2106865157023283E-4</v>
       </c>
       <c r="DS113" s="80">
-        <f t="shared" si="208"/>
+        <f t="shared" si="233"/>
         <v>6.6253249080913762E-2</v>
       </c>
       <c r="DT113" s="80">
-        <f t="shared" si="209"/>
+        <f t="shared" si="234"/>
         <v>9.9078324171180995E-2</v>
       </c>
       <c r="DU113" s="1"/>
       <c r="DV113" s="1"/>
       <c r="DW113" s="82">
-        <f t="shared" ref="DW113:DW116" si="223">DM113*DR113</f>
+        <f t="shared" ref="DW113:DW116" si="250">DM113*DR113</f>
         <v>-5.5746260475531401E-11</v>
       </c>
       <c r="DX113" s="82">
-        <f t="shared" ref="DX113:DX116" si="224">DN113*DS113</f>
+        <f t="shared" ref="DX113:DX116" si="251">DN113*DS113</f>
         <v>3.9470544143774079E-8</v>
       </c>
       <c r="DY113" s="82">
-        <f t="shared" ref="DY113:DY116" si="225">DO113*DT113</f>
+        <f t="shared" ref="DY113:DY116" si="252">DO113*DT113</f>
         <v>5.6379694734417218E-8</v>
       </c>
       <c r="EA113" s="2"/>
@@ -28839,15 +28908,15 @@
       <c r="AF114" s="22"/>
       <c r="AG114" s="22"/>
       <c r="AH114" s="99">
-        <f t="shared" si="212"/>
+        <f t="shared" si="239"/>
         <v>0.99889921067591214</v>
       </c>
       <c r="AI114" s="99">
-        <f t="shared" si="206"/>
+        <f t="shared" si="230"/>
         <v>0.47839919229173217</v>
       </c>
       <c r="AJ114" s="99">
-        <f t="shared" si="207"/>
+        <f t="shared" si="231"/>
         <v>1.6076984688725509E-3</v>
       </c>
       <c r="AK114" s="10"/>
@@ -28876,13 +28945,13 @@
       <c r="AZ114" s="1"/>
       <c r="BA114" s="1"/>
       <c r="BB114" s="80">
-        <f t="shared" si="216"/>
+        <f t="shared" si="243"/>
         <v>0.95025379847670066</v>
       </c>
       <c r="BC114" s="1"/>
       <c r="BD114" s="1"/>
       <c r="BE114" s="87">
-        <f t="shared" si="217"/>
+        <f t="shared" si="244"/>
         <v>2.4746845659967096E-3</v>
       </c>
       <c r="BF114" s="1"/>
@@ -28891,19 +28960,19 @@
       <c r="BI114" s="1"/>
       <c r="BJ114" s="1"/>
       <c r="BK114" s="82">
-        <f t="shared" si="218"/>
+        <f t="shared" si="245"/>
         <v>-4.9746201523299338E-2</v>
       </c>
       <c r="BL114" s="1"/>
       <c r="BM114" s="1"/>
       <c r="BN114" s="80">
-        <f t="shared" si="214"/>
+        <f t="shared" si="241"/>
         <v>4.7271516957302626E-2</v>
       </c>
       <c r="BO114" s="1"/>
       <c r="BP114" s="1"/>
       <c r="BQ114" s="103">
-        <f t="shared" si="219"/>
+        <f t="shared" si="246"/>
         <v>-2.3515784088700385E-3</v>
       </c>
       <c r="BR114" s="1"/>
@@ -28975,42 +29044,42 @@
       <c r="DK114" s="1"/>
       <c r="DL114" s="1"/>
       <c r="DM114" s="80">
-        <f t="shared" si="220"/>
+        <f t="shared" si="247"/>
         <v>-3.4105331751799875E-2</v>
       </c>
       <c r="DN114" s="80">
-        <f t="shared" si="221"/>
+        <f t="shared" si="248"/>
         <v>4.4126977031983927E-2</v>
       </c>
       <c r="DO114" s="80">
-        <f t="shared" si="222"/>
+        <f t="shared" si="249"/>
         <v>4.2148518296352758E-2</v>
       </c>
       <c r="DQ114" s="1"/>
       <c r="DR114" s="80">
-        <f t="shared" si="215"/>
+        <f t="shared" si="242"/>
         <v>1.0995775869518329E-3</v>
       </c>
       <c r="DS114" s="80">
-        <f t="shared" si="208"/>
+        <f t="shared" si="233"/>
         <v>0.24953340510635047</v>
       </c>
       <c r="DT114" s="80">
-        <f t="shared" si="209"/>
+        <f t="shared" si="234"/>
         <v>1.6051137745057358E-3</v>
       </c>
       <c r="DU114" s="1"/>
       <c r="DV114" s="1"/>
       <c r="DW114" s="82">
-        <f t="shared" si="223"/>
+        <f t="shared" si="250"/>
         <v>-3.7501458389835833E-5</v>
       </c>
       <c r="DX114" s="82">
-        <f t="shared" si="224"/>
+        <f t="shared" si="251"/>
         <v>1.1011154835840668E-2</v>
       </c>
       <c r="DY114" s="82">
-        <f t="shared" si="225"/>
+        <f t="shared" si="252"/>
         <v>6.7653167292482843E-5</v>
       </c>
       <c r="EA114" s="2"/>
@@ -29139,15 +29208,15 @@
       <c r="AF115" s="22"/>
       <c r="AG115" s="22"/>
       <c r="AH115" s="99">
-        <f t="shared" si="212"/>
+        <f t="shared" si="239"/>
         <v>5.9924406609545688E-3</v>
       </c>
       <c r="AI115" s="99">
-        <f t="shared" si="206"/>
+        <f t="shared" si="230"/>
         <v>2.1811621280550422E-3</v>
       </c>
       <c r="AJ115" s="99">
-        <f t="shared" si="207"/>
+        <f t="shared" si="231"/>
         <v>0.1356949849818071</v>
       </c>
       <c r="AK115" s="1"/>
@@ -29174,13 +29243,13 @@
       <c r="AZ115" s="1"/>
       <c r="BA115" s="1"/>
       <c r="BB115" s="80">
-        <f t="shared" si="216"/>
+        <f t="shared" si="243"/>
         <v>7.2631050499443739E-3</v>
       </c>
       <c r="BC115" s="1"/>
       <c r="BD115" s="1"/>
       <c r="BE115" s="87">
-        <f t="shared" si="217"/>
+        <f t="shared" si="244"/>
         <v>5.2752694966527467E-5</v>
       </c>
       <c r="BF115" s="1"/>
@@ -29189,19 +29258,19 @@
       <c r="BI115" s="1"/>
       <c r="BJ115" s="1"/>
       <c r="BK115" s="82">
-        <f t="shared" si="218"/>
+        <f t="shared" si="245"/>
         <v>7.2631050499443739E-3</v>
       </c>
       <c r="BL115" s="1"/>
       <c r="BM115" s="1"/>
       <c r="BN115" s="80">
-        <f t="shared" si="214"/>
+        <f t="shared" si="241"/>
         <v>7.2103523549778472E-3</v>
       </c>
       <c r="BO115" s="1"/>
       <c r="BP115" s="1"/>
       <c r="BQ115" s="103">
-        <f t="shared" si="219"/>
+        <f t="shared" si="246"/>
         <v>5.2369546601317912E-5</v>
       </c>
       <c r="BR115" s="1"/>
@@ -29261,42 +29330,42 @@
       <c r="DK115" s="1"/>
       <c r="DL115" s="1"/>
       <c r="DM115" s="80">
-        <f t="shared" si="220"/>
+        <f t="shared" si="247"/>
         <v>7.5952422160038629E-4</v>
       </c>
       <c r="DN115" s="80">
-        <f t="shared" si="221"/>
+        <f t="shared" si="248"/>
         <v>-9.8270581637215624E-4</v>
       </c>
       <c r="DO115" s="80">
-        <f t="shared" si="222"/>
+        <f t="shared" si="249"/>
         <v>-9.3864562830289788E-4</v>
       </c>
       <c r="DQ115" s="1"/>
       <c r="DR115" s="80">
-        <f t="shared" si="215"/>
+        <f t="shared" si="242"/>
         <v>5.9565313158795067E-3</v>
       </c>
       <c r="DS115" s="80">
-        <f t="shared" si="208"/>
+        <f t="shared" si="233"/>
         <v>2.1764046598261805E-3</v>
       </c>
       <c r="DT115" s="80">
-        <f t="shared" si="209"/>
+        <f t="shared" si="234"/>
         <v>0.11728185603259425</v>
       </c>
       <c r="DU115" s="1"/>
       <c r="DV115" s="1"/>
       <c r="DW115" s="82">
-        <f t="shared" si="223"/>
+        <f t="shared" si="250"/>
         <v>4.5241298111317071E-6</v>
       </c>
       <c r="DX115" s="82">
-        <f t="shared" si="224"/>
+        <f t="shared" si="251"/>
         <v>-2.1387655179906515E-6</v>
       </c>
       <c r="DY115" s="82">
-        <f t="shared" si="225"/>
+        <f t="shared" si="252"/>
         <v>-1.1008610144424445E-4</v>
       </c>
       <c r="EA115" s="2"/>
@@ -29437,15 +29506,15 @@
         <v>32</v>
       </c>
       <c r="AH116" s="99">
-        <f t="shared" si="212"/>
+        <f t="shared" si="239"/>
         <v>0.999999339365364</v>
       </c>
       <c r="AI116" s="99">
-        <f t="shared" si="206"/>
+        <f t="shared" si="230"/>
         <v>0.11576121942702396</v>
       </c>
       <c r="AJ116" s="99">
-        <f t="shared" si="207"/>
+        <f t="shared" si="231"/>
         <v>0.26302512972217862</v>
       </c>
       <c r="AK116" s="1"/>
@@ -29478,7 +29547,7 @@
         <v>32</v>
       </c>
       <c r="BB116" s="80">
-        <f t="shared" si="216"/>
+        <f t="shared" si="243"/>
         <v>0.99384964333593673</v>
       </c>
       <c r="BC116" s="1"/>
@@ -29486,7 +29555,7 @@
         <v>32</v>
       </c>
       <c r="BE116" s="87">
-        <f t="shared" si="217"/>
+        <f t="shared" si="244"/>
         <v>3.7826887095187502E-5</v>
       </c>
       <c r="BF116" s="1"/>
@@ -29497,7 +29566,7 @@
         <v>32</v>
       </c>
       <c r="BK116" s="82">
-        <f t="shared" si="218"/>
+        <f t="shared" si="245"/>
         <v>-6.1503566640632723E-3</v>
       </c>
       <c r="BL116" s="1"/>
@@ -29505,7 +29574,7 @@
         <v>32</v>
       </c>
       <c r="BN116" s="80">
-        <f t="shared" si="214"/>
+        <f t="shared" si="241"/>
         <v>6.1125297769680847E-3</v>
       </c>
       <c r="BO116" s="1"/>
@@ -29513,7 +29582,7 @@
         <v>32</v>
       </c>
       <c r="BQ116" s="103">
-        <f t="shared" si="219"/>
+        <f t="shared" si="246"/>
         <v>-3.7594238248060846E-5</v>
       </c>
       <c r="BR116" s="1"/>
@@ -29577,30 +29646,30 @@
         <v>32</v>
       </c>
       <c r="DM116" s="80">
-        <f t="shared" si="220"/>
+        <f t="shared" si="247"/>
         <v>-5.4523547357385963E-4</v>
       </c>
       <c r="DN116" s="80">
-        <f t="shared" si="221"/>
+        <f t="shared" si="248"/>
         <v>7.0544961692527337E-4</v>
       </c>
       <c r="DO116" s="80">
-        <f t="shared" si="222"/>
+        <f t="shared" si="249"/>
         <v>6.738203721632349E-4</v>
       </c>
       <c r="DQ116" s="1" t="s">
         <v>32</v>
       </c>
       <c r="DR116" s="80">
-        <f t="shared" si="215"/>
+        <f t="shared" si="242"/>
         <v>6.6063419955796013E-7</v>
       </c>
       <c r="DS116" s="80">
-        <f t="shared" si="208"/>
+        <f t="shared" si="233"/>
         <v>0.10236055950379236</v>
       </c>
       <c r="DT116" s="80">
-        <f t="shared" si="209"/>
+        <f t="shared" si="234"/>
         <v>0.19384291085680974</v>
       </c>
       <c r="DU116" s="1"/>
@@ -29608,15 +29677,15 @@
         <v>32</v>
       </c>
       <c r="DW116" s="82">
-        <f t="shared" si="223"/>
+        <f t="shared" si="250"/>
         <v>-3.6020120065507207E-10</v>
       </c>
       <c r="DX116" s="82">
-        <f t="shared" si="224"/>
+        <f t="shared" si="251"/>
         <v>7.2210217490206971E-5</v>
       </c>
       <c r="DY116" s="82">
-        <f t="shared" si="225"/>
+        <f t="shared" si="252"/>
         <v>1.306153023347403E-4</v>
       </c>
       <c r="EA116" s="2"/>
@@ -30358,11 +30427,11 @@
         <v>10.21724262309386</v>
       </c>
       <c r="J124" s="94">
-        <f t="shared" ref="J124:J125" si="226">EX111</f>
+        <f t="shared" ref="J124:J125" si="253">EX111</f>
         <v>1.2394432211624449</v>
       </c>
       <c r="K124" s="95">
-        <f t="shared" ref="K124:K125" si="227">EY111</f>
+        <f t="shared" ref="K124:K125" si="254">EY111</f>
         <v>1.6992288117497134</v>
       </c>
       <c r="L124" s="1"/>
@@ -30390,11 +30459,11 @@
         <v>3.7651736317467743</v>
       </c>
       <c r="T124" s="68">
-        <f t="shared" ref="T124" si="228">FU111</f>
+        <f t="shared" ref="T124" si="255">FU111</f>
         <v>-3.2508810729538182</v>
       </c>
       <c r="U124" s="98">
-        <f t="shared" ref="U124" si="229">FV111</f>
+        <f t="shared" ref="U124" si="256">FV111</f>
         <v>-2.915968940330584</v>
       </c>
       <c r="V124" s="22"/>
@@ -30406,11 +30475,11 @@
         <v>-1.4483227493158259</v>
       </c>
       <c r="Y124" s="70">
-        <f t="shared" ref="Y124" si="230">O124+T124</f>
+        <f t="shared" ref="Y124" si="257">O124+T124</f>
         <v>-4.4258547618496866</v>
       </c>
       <c r="Z124" s="71">
-        <f t="shared" ref="Z124" si="231">P124+U124</f>
+        <f t="shared" ref="Z124" si="258">P124+U124</f>
         <v>-2.9931612516060926</v>
       </c>
       <c r="AA124" s="22"/>
@@ -30435,11 +30504,11 @@
         <v>0.19025983074702862</v>
       </c>
       <c r="AI124" s="81">
-        <f t="shared" ref="AI124:AI129" si="232">1/(1+2.71828182845904^(Y124*-1))</f>
+        <f t="shared" ref="AI124:AI129" si="259">1/(1+2.71828182845904^(Y124*-1))</f>
         <v>1.1822535983985923E-2</v>
       </c>
       <c r="AJ124" s="81">
-        <f t="shared" ref="AJ124:AJ129" si="233">1/(1+2.71828182845904^(Z124*-1))</f>
+        <f t="shared" ref="AJ124:AJ129" si="260">1/(1+2.71828182845904^(Z124*-1))</f>
         <v>4.7735782962271447E-2</v>
       </c>
       <c r="AK124" s="10"/>
@@ -30666,15 +30735,15 @@
         <v>24</v>
       </c>
       <c r="DM124" s="108">
-        <f>BY124</f>
+        <f t="shared" ref="DM124:DO125" si="261">BY124</f>
         <v>0.90807736305661191</v>
       </c>
       <c r="DN124" s="108">
-        <f>BZ124</f>
+        <f t="shared" si="261"/>
         <v>-1.1758962742650914</v>
       </c>
       <c r="DO124" s="108">
-        <f>CA124</f>
+        <f t="shared" si="261"/>
         <v>-1.1234126470403929</v>
       </c>
       <c r="DQ124" s="1" t="s">
@@ -30685,11 +30754,11 @@
         <v>0.15406102755114062</v>
       </c>
       <c r="DS124" s="109">
-        <f t="shared" ref="DS124:DS129" si="234">AI124*(1-AI124)</f>
+        <f t="shared" ref="DS124:DS129" si="262">AI124*(1-AI124)</f>
         <v>1.1682763626893281E-2</v>
       </c>
       <c r="DT124" s="109">
-        <f t="shared" ref="DT124:DT129" si="235">AJ124*(1-AJ124)</f>
+        <f t="shared" ref="DT124:DT129" si="263">AJ124*(1-AJ124)</f>
         <v>4.5457077987250363E-2</v>
       </c>
       <c r="DU124" s="1"/>
@@ -30697,15 +30766,15 @@
         <v>24</v>
       </c>
       <c r="DW124" s="86">
-        <f>DM124*DR124</f>
+        <f t="shared" ref="DW124:DY125" si="264">DM124*DR124</f>
         <v>0.13989933164843182</v>
       </c>
       <c r="DX124" s="86">
-        <f>DN124*DS124</f>
+        <f t="shared" si="264"/>
         <v>-1.3737718221983535E-2</v>
       </c>
       <c r="DY124" s="86">
-        <f>DO124*DT124</f>
+        <f t="shared" si="264"/>
         <v>-5.1067056308378503E-2</v>
       </c>
       <c r="EA124" t="s">
@@ -30779,15 +30848,15 @@
         <v>27</v>
       </c>
       <c r="EW124" s="24">
-        <f>I124-ER124</f>
+        <f t="shared" ref="EW124:EY125" si="265">I124-ER124</f>
         <v>10.284920010852073</v>
       </c>
       <c r="EX124" s="24">
-        <f>J124-ES124</f>
+        <f t="shared" si="265"/>
         <v>1.2308482083508085</v>
       </c>
       <c r="EY124" s="24">
-        <f>K124-ET124</f>
+        <f t="shared" si="265"/>
         <v>1.6746395876160745</v>
       </c>
       <c r="EZ124" s="1"/>
@@ -30815,11 +30884,11 @@
         <v>1.8260777046812349E-6</v>
       </c>
       <c r="FH124" s="86">
-        <f t="shared" ref="FH124" si="236">FC124</f>
+        <f t="shared" ref="FH124" si="266">FC124</f>
         <v>-9.2920164165437155E-7</v>
       </c>
       <c r="FI124" s="86">
-        <f t="shared" ref="FI124" si="237">FD124</f>
+        <f t="shared" ref="FI124" si="267">FD124</f>
         <v>-4.9077306973924888E-5</v>
       </c>
       <c r="FJ124" s="1"/>
@@ -30906,11 +30975,11 @@
         <v>1.2729151575519253</v>
       </c>
       <c r="J125" s="96">
-        <f t="shared" si="226"/>
+        <f t="shared" si="253"/>
         <v>3.2905627084733529</v>
       </c>
       <c r="K125" s="97">
-        <f t="shared" si="227"/>
+        <f t="shared" si="254"/>
         <v>-4.3541870986503017</v>
       </c>
       <c r="L125" s="1"/>
@@ -30966,15 +31035,15 @@
       <c r="AF125" s="22"/>
       <c r="AG125" s="22"/>
       <c r="AH125" s="99">
-        <f t="shared" ref="AH125:AH129" si="238">1/(1+2.71828182845904^(X125*-1))</f>
+        <f t="shared" ref="AH125:AH129" si="268">1/(1+2.71828182845904^(X125*-1))</f>
         <v>0.98593069767049624</v>
       </c>
       <c r="AI125" s="99">
-        <f t="shared" si="232"/>
+        <f t="shared" si="259"/>
         <v>1.2021356164402527E-2</v>
       </c>
       <c r="AJ125" s="99">
-        <f t="shared" si="233"/>
+        <f t="shared" si="260"/>
         <v>0.25658551208853303</v>
       </c>
       <c r="AK125" s="10"/>
@@ -30982,7 +31051,7 @@
         <v>28</v>
       </c>
       <c r="AM125" s="16">
-        <f t="shared" ref="AM125:AM126" si="239">CU112</f>
+        <f t="shared" ref="AM125:AM126" si="269">CU112</f>
         <v>-18.76454982854651</v>
       </c>
       <c r="AN125" s="1"/>
@@ -31033,7 +31102,7 @@
       <c r="BL125" s="1"/>
       <c r="BM125" s="1"/>
       <c r="BN125" s="80">
-        <f t="shared" ref="BN125:BN129" si="240">BB125*(1-BB125)</f>
+        <f t="shared" ref="BN125:BN129" si="270">BB125*(1-BB125)</f>
         <v>9.7610586007333905E-4</v>
       </c>
       <c r="BO125" s="1"/>
@@ -31148,42 +31217,42 @@
       <c r="DK125" s="1"/>
       <c r="DL125" s="1"/>
       <c r="DM125" s="80">
-        <f>BY125</f>
+        <f t="shared" si="261"/>
         <v>1.413072243465047E-2</v>
       </c>
       <c r="DN125" s="80">
-        <f>BZ125</f>
+        <f t="shared" si="261"/>
         <v>-1.8298291026272093E-2</v>
       </c>
       <c r="DO125" s="80">
-        <f>CA125</f>
+        <f t="shared" si="261"/>
         <v>-1.7481585755501409E-2</v>
       </c>
       <c r="DQ125" s="1"/>
       <c r="DR125" s="80">
-        <f t="shared" ref="DR125:DR129" si="241">AH125*(1-AH125)</f>
+        <f t="shared" ref="DR125:DR129" si="271">AH125*(1-AH125)</f>
         <v>1.3871357061464784E-2</v>
       </c>
       <c r="DS125" s="80">
-        <f t="shared" si="234"/>
+        <f t="shared" si="262"/>
         <v>1.1876843160371109E-2</v>
       </c>
       <c r="DT125" s="80">
-        <f t="shared" si="235"/>
+        <f t="shared" si="263"/>
         <v>0.19074938707479833</v>
       </c>
       <c r="DU125" s="1"/>
       <c r="DV125" s="1"/>
       <c r="DW125" s="82">
-        <f>DM125*DR125</f>
+        <f t="shared" si="264"/>
         <v>1.9601229642748764E-4</v>
       </c>
       <c r="DX125" s="82">
-        <f>DN125*DS125</f>
+        <f t="shared" si="264"/>
         <v>-2.1732593262185974E-4</v>
       </c>
       <c r="DY125" s="82">
-        <f>DO125*DT125</f>
+        <f t="shared" si="264"/>
         <v>-3.334601767957419E-3</v>
       </c>
       <c r="EA125" t="s">
@@ -31252,15 +31321,15 @@
         <v>28</v>
       </c>
       <c r="EW125" s="24">
-        <f>I125-ER125</f>
+        <f t="shared" si="265"/>
         <v>1.2969808599123411</v>
       </c>
       <c r="EX125" s="24">
-        <f>J125-ES125</f>
+        <f t="shared" si="265"/>
         <v>3.2793117533184275</v>
       </c>
       <c r="EY125" s="24">
-        <f>K125-ET125</f>
+        <f t="shared" si="265"/>
         <v>-4.3643199143577363</v>
       </c>
       <c r="EZ125" s="1"/>
@@ -31397,15 +31466,15 @@
       <c r="AF126" s="74"/>
       <c r="AG126" s="74"/>
       <c r="AH126" s="99">
-        <f t="shared" si="238"/>
+        <f t="shared" si="268"/>
         <v>0.99988377265864525</v>
       </c>
       <c r="AI126" s="99">
-        <f t="shared" si="232"/>
+        <f t="shared" si="259"/>
         <v>7.1005366796893912E-2</v>
       </c>
       <c r="AJ126" s="99">
-        <f t="shared" si="233"/>
+        <f t="shared" si="260"/>
         <v>0.11010852669032277</v>
       </c>
       <c r="AK126" s="10"/>
@@ -31413,7 +31482,7 @@
         <v>29</v>
       </c>
       <c r="AM126" s="20">
-        <f t="shared" si="239"/>
+        <f t="shared" si="269"/>
         <v>-17.927034088600646</v>
       </c>
       <c r="AN126" s="1"/>
@@ -31437,13 +31506,13 @@
       <c r="AZ126" s="1"/>
       <c r="BA126" s="1"/>
       <c r="BB126" s="80">
-        <f t="shared" ref="BB126:BB129" si="242">1/(1+2.71828182845904^(AV126*-1))</f>
+        <f t="shared" ref="BB126:BB129" si="272">1/(1+2.71828182845904^(AV126*-1))</f>
         <v>0.9998251251312168</v>
       </c>
       <c r="BC126" s="1"/>
       <c r="BD126" s="1"/>
       <c r="BE126" s="87">
-        <f t="shared" ref="BE126:BE129" si="243">(BB126-B126)^2</f>
+        <f t="shared" ref="BE126:BE129" si="273">(BB126-B126)^2</f>
         <v>3.0581219731942671E-8</v>
       </c>
       <c r="BF126" s="1"/>
@@ -31452,19 +31521,19 @@
       <c r="BI126" s="1"/>
       <c r="BJ126" s="1"/>
       <c r="BK126" s="82">
-        <f t="shared" ref="BK126:BK129" si="244">BB126-B126</f>
+        <f t="shared" ref="BK126:BK129" si="274">BB126-B126</f>
         <v>-1.7487486878320357E-4</v>
       </c>
       <c r="BL126" s="1"/>
       <c r="BM126" s="1"/>
       <c r="BN126" s="80">
-        <f t="shared" si="240"/>
+        <f t="shared" si="270"/>
         <v>1.7484428756347163E-4</v>
       </c>
       <c r="BO126" s="1"/>
       <c r="BP126" s="1"/>
       <c r="BQ126" s="103">
-        <f t="shared" ref="BQ126:BQ129" si="245">BK126*BN126</f>
+        <f t="shared" ref="BQ126:BQ129" si="275">BK126*BN126</f>
         <v>-3.0575871845154814E-8</v>
       </c>
       <c r="BR126" s="1"/>
@@ -31559,42 +31628,42 @@
       <c r="DK126" s="1"/>
       <c r="DL126" s="1"/>
       <c r="DM126" s="80">
-        <f t="shared" ref="DM126:DM129" si="246">BY126</f>
+        <f t="shared" ref="DM126:DM129" si="276">BY126</f>
         <v>-4.4306845880081928E-7</v>
       </c>
       <c r="DN126" s="80">
-        <f t="shared" ref="DN126:DN129" si="247">BZ126</f>
+        <f t="shared" ref="DN126:DN129" si="277">BZ126</f>
         <v>5.7374247078965982E-7</v>
       </c>
       <c r="DO126" s="80">
-        <f t="shared" ref="DO126:DO129" si="248">CA126</f>
+        <f t="shared" ref="DO126:DO129" si="278">CA126</f>
         <v>5.4813469685677506E-7</v>
       </c>
       <c r="DQ126" s="1"/>
       <c r="DR126" s="80">
-        <f t="shared" si="241"/>
+        <f t="shared" si="271"/>
         <v>1.1621383255986815E-4</v>
       </c>
       <c r="DS126" s="80">
-        <f t="shared" si="234"/>
+        <f t="shared" si="262"/>
         <v>6.596360468293247E-2</v>
       </c>
       <c r="DT126" s="80">
-        <f t="shared" si="235"/>
+        <f t="shared" si="263"/>
         <v>9.7984639040409244E-2</v>
       </c>
       <c r="DU126" s="1"/>
       <c r="DV126" s="1"/>
       <c r="DW126" s="82">
-        <f t="shared" ref="DW126:DW129" si="249">DM126*DR126</f>
+        <f t="shared" ref="DW126:DW129" si="279">DM126*DR126</f>
         <v>-5.1490683683637255E-11</v>
       </c>
       <c r="DX126" s="82">
-        <f t="shared" ref="DX126:DX129" si="250">DN126*DS126</f>
+        <f t="shared" ref="DX126:DX129" si="280">DN126*DS126</f>
         <v>3.7846121532978047E-8</v>
       </c>
       <c r="DY126" s="82">
-        <f t="shared" ref="DY126:DY129" si="251">DO126*DT126</f>
+        <f t="shared" ref="DY126:DY129" si="281">DO126*DT126</f>
         <v>5.3708780417035246E-8</v>
       </c>
       <c r="EA126" s="2"/>
@@ -31743,15 +31812,15 @@
       <c r="AF127" s="22"/>
       <c r="AG127" s="22"/>
       <c r="AH127" s="99">
-        <f t="shared" si="238"/>
+        <f t="shared" si="268"/>
         <v>0.99894210550337048</v>
       </c>
       <c r="AI127" s="99">
-        <f t="shared" si="232"/>
+        <f t="shared" si="259"/>
         <v>0.47520634841522014</v>
       </c>
       <c r="AJ127" s="99">
-        <f t="shared" si="233"/>
+        <f t="shared" si="260"/>
         <v>1.5837256033457174E-3</v>
       </c>
       <c r="AK127" s="10"/>
@@ -31780,13 +31849,13 @@
       <c r="AZ127" s="1"/>
       <c r="BA127" s="1"/>
       <c r="BB127" s="80">
-        <f t="shared" si="242"/>
+        <f t="shared" si="272"/>
         <v>0.95250621786296585</v>
       </c>
       <c r="BC127" s="1"/>
       <c r="BD127" s="1"/>
       <c r="BE127" s="87">
-        <f t="shared" si="243"/>
+        <f t="shared" si="273"/>
         <v>2.2556593416800637E-3</v>
       </c>
       <c r="BF127" s="1"/>
@@ -31795,19 +31864,19 @@
       <c r="BI127" s="1"/>
       <c r="BJ127" s="1"/>
       <c r="BK127" s="82">
-        <f t="shared" si="244"/>
+        <f t="shared" si="274"/>
         <v>-4.7493782137034146E-2</v>
       </c>
       <c r="BL127" s="1"/>
       <c r="BM127" s="1"/>
       <c r="BN127" s="80">
-        <f t="shared" si="240"/>
+        <f t="shared" si="270"/>
         <v>4.523812279535408E-2</v>
       </c>
       <c r="BO127" s="1"/>
       <c r="BP127" s="1"/>
       <c r="BQ127" s="103">
-        <f t="shared" si="245"/>
+        <f t="shared" si="275"/>
         <v>-2.1485295483309446E-3</v>
       </c>
       <c r="BR127" s="1"/>
@@ -31879,42 +31948,42 @@
       <c r="DK127" s="1"/>
       <c r="DL127" s="1"/>
       <c r="DM127" s="80">
-        <f t="shared" si="246"/>
+        <f t="shared" si="276"/>
         <v>-3.1133884930181033E-2</v>
       </c>
       <c r="DN127" s="80">
-        <f t="shared" si="247"/>
+        <f t="shared" si="277"/>
         <v>4.0316189767760538E-2</v>
       </c>
       <c r="DO127" s="80">
-        <f t="shared" si="248"/>
+        <f t="shared" si="278"/>
         <v>3.8516762453294592E-2</v>
       </c>
       <c r="DQ127" s="1"/>
       <c r="DR127" s="80">
-        <f t="shared" si="241"/>
+        <f t="shared" si="271"/>
         <v>1.0567753558635199E-3</v>
       </c>
       <c r="DS127" s="80">
-        <f t="shared" si="234"/>
+        <f t="shared" si="262"/>
         <v>0.24938527484109255</v>
       </c>
       <c r="DT127" s="80">
-        <f t="shared" si="235"/>
+        <f t="shared" si="263"/>
         <v>1.5812174165590247E-3</v>
       </c>
       <c r="DU127" s="1"/>
       <c r="DV127" s="1"/>
       <c r="DW127" s="82">
-        <f t="shared" si="249"/>
+        <f t="shared" si="279"/>
         <v>-3.2901522326505943E-5</v>
       </c>
       <c r="DX127" s="82">
-        <f t="shared" si="250"/>
+        <f t="shared" si="280"/>
         <v>1.0054264065778605E-2</v>
       </c>
       <c r="DY127" s="82">
-        <f t="shared" si="251"/>
+        <f t="shared" si="281"/>
         <v>6.0903375620616116E-5</v>
       </c>
       <c r="EA127" s="2"/>
@@ -32043,15 +32112,15 @@
       <c r="AF128" s="22"/>
       <c r="AG128" s="22"/>
       <c r="AH128" s="99">
-        <f t="shared" si="238"/>
+        <f t="shared" si="268"/>
         <v>5.5390075492358698E-3</v>
       </c>
       <c r="AI128" s="99">
-        <f t="shared" si="232"/>
+        <f t="shared" si="259"/>
         <v>2.2134820184715708E-3</v>
       </c>
       <c r="AJ128" s="99">
-        <f t="shared" si="233"/>
+        <f t="shared" si="260"/>
         <v>0.1390680429568657</v>
       </c>
       <c r="AK128" s="1"/>
@@ -32078,13 +32147,13 @@
       <c r="AZ128" s="1"/>
       <c r="BA128" s="1"/>
       <c r="BB128" s="80">
-        <f t="shared" si="242"/>
+        <f t="shared" si="272"/>
         <v>6.787357416583672E-3</v>
       </c>
       <c r="BC128" s="1"/>
       <c r="BD128" s="1"/>
       <c r="BE128" s="87">
-        <f t="shared" si="243"/>
+        <f t="shared" si="273"/>
         <v>4.6068220700453376E-5</v>
       </c>
       <c r="BF128" s="1"/>
@@ -32093,19 +32162,19 @@
       <c r="BI128" s="1"/>
       <c r="BJ128" s="1"/>
       <c r="BK128" s="82">
-        <f t="shared" si="244"/>
+        <f t="shared" si="274"/>
         <v>6.787357416583672E-3</v>
       </c>
       <c r="BL128" s="1"/>
       <c r="BM128" s="1"/>
       <c r="BN128" s="80">
-        <f t="shared" si="240"/>
+        <f t="shared" si="270"/>
         <v>6.7412891958832186E-3</v>
       </c>
       <c r="BO128" s="1"/>
       <c r="BP128" s="1"/>
       <c r="BQ128" s="103">
-        <f t="shared" si="245"/>
+        <f t="shared" si="275"/>
         <v>4.5755539221013345E-5</v>
       </c>
       <c r="BR128" s="1"/>
@@ -32165,42 +32234,42 @@
       <c r="DK128" s="1"/>
       <c r="DL128" s="1"/>
       <c r="DM128" s="80">
-        <f t="shared" si="246"/>
+        <f t="shared" si="276"/>
         <v>6.6303379170747491E-4</v>
       </c>
       <c r="DN128" s="80">
-        <f t="shared" si="247"/>
+        <f t="shared" si="277"/>
         <v>-8.5858209564471913E-4</v>
       </c>
       <c r="DO128" s="80">
-        <f t="shared" si="248"/>
+        <f t="shared" si="278"/>
         <v>-8.2026111135741003E-4</v>
       </c>
       <c r="DQ128" s="1"/>
       <c r="DR128" s="80">
-        <f t="shared" si="241"/>
+        <f t="shared" si="271"/>
         <v>5.5083269446053774E-3</v>
       </c>
       <c r="DS128" s="80">
-        <f t="shared" si="234"/>
+        <f t="shared" si="262"/>
         <v>2.2085825158254736E-3</v>
       </c>
       <c r="DT128" s="80">
-        <f t="shared" si="235"/>
+        <f t="shared" si="263"/>
         <v>0.11972812238501306</v>
       </c>
       <c r="DU128" s="1"/>
       <c r="DV128" s="1"/>
       <c r="DW128" s="82">
-        <f t="shared" si="249"/>
+        <f t="shared" si="279"/>
         <v>3.6522069000461535E-6</v>
       </c>
       <c r="DX128" s="82">
-        <f t="shared" si="250"/>
+        <f t="shared" si="280"/>
         <v>-1.8962494048417212E-6</v>
       </c>
       <c r="DY128" s="82">
-        <f t="shared" si="251"/>
+        <f t="shared" si="281"/>
         <v>-9.8208322728266805E-5</v>
       </c>
       <c r="EA128" s="2"/>
@@ -32341,15 +32410,15 @@
         <v>32</v>
       </c>
       <c r="AH129" s="99">
-        <f t="shared" si="238"/>
+        <f t="shared" si="268"/>
         <v>0.99999939058042175</v>
       </c>
       <c r="AI129" s="99">
-        <f t="shared" si="232"/>
+        <f t="shared" si="259"/>
         <v>0.11477633000200159</v>
       </c>
       <c r="AJ129" s="99">
-        <f t="shared" si="233"/>
+        <f t="shared" si="260"/>
         <v>0.25761452069608753</v>
       </c>
       <c r="AK129" s="1"/>
@@ -32382,7 +32451,7 @@
         <v>32</v>
       </c>
       <c r="BB129" s="80">
-        <f t="shared" si="242"/>
+        <f t="shared" si="272"/>
         <v>0.9944437105577284</v>
       </c>
       <c r="BC129" s="1"/>
@@ -32390,7 +32459,7 @@
         <v>32</v>
       </c>
       <c r="BE129" s="87">
-        <f t="shared" si="243"/>
+        <f t="shared" si="273"/>
         <v>3.0872352366298851E-5</v>
       </c>
       <c r="BF129" s="1"/>
@@ -32401,7 +32470,7 @@
         <v>32</v>
       </c>
       <c r="BK129" s="82">
-        <f t="shared" si="244"/>
+        <f t="shared" si="274"/>
         <v>-5.5562894422716003E-3</v>
       </c>
       <c r="BL129" s="1"/>
@@ -32409,7 +32478,7 @@
         <v>32</v>
       </c>
       <c r="BN129" s="80">
-        <f t="shared" si="240"/>
+        <f t="shared" si="270"/>
         <v>5.5254170899053014E-3</v>
       </c>
       <c r="BO129" s="1"/>
@@ -32417,7 +32486,7 @@
         <v>32</v>
       </c>
       <c r="BQ129" s="103">
-        <f t="shared" si="245"/>
+        <f t="shared" si="275"/>
         <v>-3.0700816640787898E-5</v>
       </c>
       <c r="BR129" s="1"/>
@@ -32481,30 +32550,30 @@
         <v>32</v>
       </c>
       <c r="DM129" s="80">
-        <f t="shared" si="246"/>
+        <f t="shared" si="276"/>
         <v>-4.4487900727239484E-4</v>
       </c>
       <c r="DN129" s="80">
-        <f t="shared" si="247"/>
+        <f t="shared" si="277"/>
         <v>5.7608700363313446E-4</v>
       </c>
       <c r="DO129" s="80">
-        <f t="shared" si="248"/>
+        <f t="shared" si="278"/>
         <v>5.5037458646728257E-4</v>
       </c>
       <c r="DQ129" s="1" t="s">
         <v>32</v>
       </c>
       <c r="DR129" s="80">
-        <f t="shared" si="241"/>
+        <f t="shared" si="271"/>
         <v>6.0941920685356213E-7</v>
       </c>
       <c r="DS129" s="80">
-        <f t="shared" si="234"/>
+        <f t="shared" si="262"/>
         <v>0.10160272407327321</v>
       </c>
       <c r="DT129" s="80">
-        <f t="shared" si="235"/>
+        <f t="shared" si="263"/>
         <v>0.19124927942261261</v>
       </c>
       <c r="DU129" s="1"/>
@@ -32512,15 +32581,15 @@
         <v>32</v>
       </c>
       <c r="DW129" s="82">
-        <f t="shared" si="249"/>
+        <f t="shared" si="279"/>
         <v>-2.7111781175774299E-10</v>
       </c>
       <c r="DX129" s="82">
-        <f t="shared" si="250"/>
+        <f t="shared" si="280"/>
         <v>5.8532008872336101E-5</v>
       </c>
       <c r="DY129" s="82">
-        <f t="shared" si="251"/>
+        <f t="shared" si="281"/>
         <v>1.0525874307438619E-4</v>
       </c>
       <c r="EA129" s="2"/>
@@ -33262,11 +33331,11 @@
         <v>10.284920010852073</v>
       </c>
       <c r="J137" s="94">
-        <f t="shared" ref="J137:J138" si="252">EX124</f>
+        <f t="shared" ref="J137:J138" si="282">EX124</f>
         <v>1.2308482083508085</v>
       </c>
       <c r="K137" s="95">
-        <f t="shared" ref="K137:K138" si="253">EY124</f>
+        <f t="shared" ref="K137:K138" si="283">EY124</f>
         <v>1.6746395876160745</v>
       </c>
       <c r="L137" s="1"/>
@@ -33294,11 +33363,11 @@
         <v>3.7651718239298466</v>
       </c>
       <c r="T137" s="68">
-        <f t="shared" ref="T137" si="254">FU124</f>
+        <f t="shared" ref="T137" si="284">FU124</f>
         <v>-3.2508801530441929</v>
       </c>
       <c r="U137" s="98">
-        <f t="shared" ref="U137" si="255">FV124</f>
+        <f t="shared" ref="U137" si="285">FV124</f>
         <v>-2.9159203537966798</v>
       </c>
       <c r="V137" s="22"/>
@@ -33310,11 +33379,11 @@
         <v>-1.4855625111124624</v>
       </c>
       <c r="Y137" s="70">
-        <f t="shared" ref="Y137" si="256">O137+T137</f>
+        <f t="shared" ref="Y137" si="286">O137+T137</f>
         <v>-4.419707023255488</v>
       </c>
       <c r="Z137" s="71">
-        <f t="shared" ref="Z137" si="257">P137+U137</f>
+        <f t="shared" ref="Z137" si="287">P137+U137</f>
         <v>-2.9793427091014713</v>
       </c>
       <c r="AA137" s="22"/>
@@ -33339,11 +33408,11 @@
         <v>0.18458870461256593</v>
       </c>
       <c r="AI137" s="81">
-        <f t="shared" ref="AI137:AI142" si="258">1/(1+2.71828182845904^(Y137*-1))</f>
+        <f t="shared" ref="AI137:AI142" si="288">1/(1+2.71828182845904^(Y137*-1))</f>
         <v>1.1894574535127076E-2</v>
       </c>
       <c r="AJ137" s="81">
-        <f t="shared" ref="AJ137:AJ142" si="259">1/(1+2.71828182845904^(Z137*-1))</f>
+        <f t="shared" ref="AJ137:AJ142" si="289">1/(1+2.71828182845904^(Z137*-1))</f>
         <v>4.8367873803692306E-2</v>
       </c>
       <c r="AK137" s="10"/>
@@ -33570,15 +33639,15 @@
         <v>24</v>
       </c>
       <c r="DM137" s="108">
-        <f>BY137</f>
+        <f t="shared" ref="DM137:DO138" si="290">BY137</f>
         <v>0.81296779458330848</v>
       </c>
       <c r="DN137" s="108">
-        <f>BZ137</f>
+        <f t="shared" si="290"/>
         <v>-1.0534916377736121</v>
       </c>
       <c r="DO137" s="108">
-        <f>CA137</f>
+        <f t="shared" si="290"/>
         <v>-1.0066656155100662</v>
       </c>
       <c r="DQ137" s="1" t="s">
@@ -33589,11 +33658,11 @@
         <v>0.1505157147420208</v>
       </c>
       <c r="DS137" s="109">
-        <f t="shared" ref="DS137:DS142" si="260">AI137*(1-AI137)</f>
+        <f t="shared" ref="DS137:DS142" si="291">AI137*(1-AI137)</f>
         <v>1.1753093631755382E-2</v>
       </c>
       <c r="DT137" s="109">
-        <f t="shared" ref="DT137:DT142" si="261">AJ137*(1-AJ137)</f>
+        <f t="shared" ref="DT137:DT142" si="292">AJ137*(1-AJ137)</f>
         <v>4.6028422587402397E-2</v>
       </c>
       <c r="DU137" s="1"/>
@@ -33601,15 +33670,15 @@
         <v>24</v>
       </c>
       <c r="DW137" s="86">
-        <f>DM137*DR137</f>
+        <f t="shared" ref="DW137:DY138" si="293">DM137*DR137</f>
         <v>0.12236442866395102</v>
       </c>
       <c r="DX137" s="86">
-        <f>DN137*DS137</f>
+        <f t="shared" si="293"/>
         <v>-1.2381785859024587E-2</v>
       </c>
       <c r="DY137" s="86">
-        <f>DO137*DT137</f>
+        <f t="shared" si="293"/>
         <v>-4.6335230354904867E-2</v>
       </c>
       <c r="EA137" t="s">
@@ -33683,15 +33752,15 @@
         <v>27</v>
       </c>
       <c r="EW137" s="24">
-        <f>I137-ER137</f>
+        <f t="shared" ref="EW137:EY138" si="294">I137-ER137</f>
         <v>10.344111991215362</v>
       </c>
       <c r="EX137" s="24">
-        <f>J137-ES137</f>
+        <f t="shared" si="294"/>
         <v>1.2230734432681718</v>
       </c>
       <c r="EY137" s="24">
-        <f>K137-ET137</f>
+        <f t="shared" si="294"/>
         <v>1.6523735041903036</v>
       </c>
       <c r="EZ137" s="1"/>
@@ -33719,11 +33788,11 @@
         <v>1.5092536629552687E-6</v>
       </c>
       <c r="FH137" s="86">
-        <f t="shared" ref="FH137" si="262">FC137</f>
+        <f t="shared" ref="FH137" si="295">FC137</f>
         <v>-8.3185327351209922E-7</v>
       </c>
       <c r="FI137" s="86">
-        <f t="shared" ref="FI137" si="263">FD137</f>
+        <f t="shared" ref="FI137" si="296">FD137</f>
         <v>-4.4236701334809009E-5</v>
       </c>
       <c r="FJ137" s="1"/>
@@ -33810,11 +33879,11 @@
         <v>1.2969808599123411</v>
       </c>
       <c r="J138" s="96">
-        <f t="shared" si="252"/>
+        <f t="shared" si="282"/>
         <v>3.2793117533184275</v>
       </c>
       <c r="K138" s="97">
-        <f t="shared" si="253"/>
+        <f t="shared" si="283"/>
         <v>-4.3643199143577363</v>
       </c>
       <c r="L138" s="1"/>
@@ -33870,15 +33939,15 @@
       <c r="AF138" s="22"/>
       <c r="AG138" s="22"/>
       <c r="AH138" s="99">
-        <f t="shared" ref="AH138:AH142" si="264">1/(1+2.71828182845904^(X138*-1))</f>
+        <f t="shared" ref="AH138:AH142" si="297">1/(1+2.71828182845904^(X138*-1))</f>
         <v>0.98589097994149189</v>
       </c>
       <c r="AI138" s="99">
-        <f t="shared" si="258"/>
+        <f t="shared" si="288"/>
         <v>1.2063513705637307E-2</v>
       </c>
       <c r="AJ138" s="99">
-        <f t="shared" si="259"/>
+        <f t="shared" si="289"/>
         <v>0.25689574773058071</v>
       </c>
       <c r="AK138" s="10"/>
@@ -33886,7 +33955,7 @@
         <v>28</v>
       </c>
       <c r="AM138" s="16">
-        <f t="shared" ref="AM138:AM139" si="265">CU125</f>
+        <f t="shared" ref="AM138:AM139" si="298">CU125</f>
         <v>-18.764280719121118</v>
       </c>
       <c r="AN138" s="1"/>
@@ -33937,7 +34006,7 @@
       <c r="BL138" s="1"/>
       <c r="BM138" s="1"/>
       <c r="BN138" s="80">
-        <f t="shared" ref="BN138:BN142" si="266">BB138*(1-BB138)</f>
+        <f t="shared" ref="BN138:BN142" si="299">BB138*(1-BB138)</f>
         <v>9.9401941077358253E-4</v>
       </c>
       <c r="BO138" s="1"/>
@@ -34052,42 +34121,42 @@
       <c r="DK138" s="1"/>
       <c r="DL138" s="1"/>
       <c r="DM138" s="80">
-        <f>BY138</f>
+        <f t="shared" si="290"/>
         <v>1.4379265190070378E-2</v>
       </c>
       <c r="DN138" s="80">
-        <f>BZ138</f>
+        <f t="shared" si="290"/>
         <v>-1.8633500288695638E-2</v>
       </c>
       <c r="DO138" s="80">
-        <f>CA138</f>
+        <f t="shared" si="290"/>
         <v>-1.7805270933966052E-2</v>
       </c>
       <c r="DQ138" s="1"/>
       <c r="DR138" s="80">
-        <f t="shared" ref="DR138:DR142" si="267">AH138*(1-AH138)</f>
+        <f t="shared" ref="DR138:DR142" si="300">AH138*(1-AH138)</f>
         <v>1.390995561149673E-2</v>
       </c>
       <c r="DS138" s="80">
-        <f t="shared" si="260"/>
+        <f t="shared" si="291"/>
         <v>1.1917985342711207E-2</v>
       </c>
       <c r="DT138" s="80">
-        <f t="shared" si="261"/>
+        <f t="shared" si="292"/>
         <v>0.19090032252852657</v>
       </c>
       <c r="DU138" s="1"/>
       <c r="DV138" s="1"/>
       <c r="DW138" s="82">
-        <f>DM138*DR138</f>
+        <f t="shared" si="293"/>
         <v>2.0001494051981905E-4</v>
       </c>
       <c r="DX138" s="82">
-        <f>DN138*DS138</f>
+        <f t="shared" si="293"/>
         <v>-2.2207378332407966E-4</v>
       </c>
       <c r="DY138" s="82">
-        <f>DO138*DT138</f>
+        <f t="shared" si="293"/>
         <v>-3.3990319640019189E-3</v>
       </c>
       <c r="EA138" t="s">
@@ -34156,15 +34225,15 @@
         <v>28</v>
       </c>
       <c r="EW138" s="24">
-        <f>I138-ER138</f>
+        <f t="shared" si="294"/>
         <v>1.3180414582269444</v>
       </c>
       <c r="EX138" s="24">
-        <f>J138-ES138</f>
+        <f t="shared" si="294"/>
         <v>3.2689999344327236</v>
       </c>
       <c r="EY138" s="24">
-        <f>K138-ET138</f>
+        <f t="shared" si="294"/>
         <v>-4.3736571692578172</v>
       </c>
       <c r="EZ138" s="1"/>
@@ -34301,15 +34370,15 @@
       <c r="AF139" s="74"/>
       <c r="AG139" s="74"/>
       <c r="AH139" s="99">
-        <f t="shared" si="264"/>
+        <f t="shared" si="297"/>
         <v>0.99988779840364017</v>
       </c>
       <c r="AI139" s="99">
-        <f t="shared" si="258"/>
+        <f t="shared" si="288"/>
         <v>7.0704241414835986E-2</v>
       </c>
       <c r="AJ139" s="99">
-        <f t="shared" si="259"/>
+        <f t="shared" si="289"/>
         <v>0.10886272847702388</v>
       </c>
       <c r="AK139" s="10"/>
@@ -34317,7 +34386,7 @@
         <v>29</v>
       </c>
       <c r="AM139" s="20">
-        <f t="shared" si="265"/>
+        <f t="shared" si="298"/>
         <v>-17.930238382942832</v>
       </c>
       <c r="AN139" s="1"/>
@@ -34341,13 +34410,13 @@
       <c r="AZ139" s="1"/>
       <c r="BA139" s="1"/>
       <c r="BB139" s="80">
-        <f t="shared" ref="BB139:BB142" si="268">1/(1+2.71828182845904^(AV139*-1))</f>
+        <f t="shared" ref="BB139:BB142" si="301">1/(1+2.71828182845904^(AV139*-1))</f>
         <v>0.99982808794789713</v>
       </c>
       <c r="BC139" s="1"/>
       <c r="BD139" s="1"/>
       <c r="BE139" s="87">
-        <f t="shared" ref="BE139:BE142" si="269">(BB139-B139)^2</f>
+        <f t="shared" ref="BE139:BE142" si="302">(BB139-B139)^2</f>
         <v>2.9553753658221215E-8</v>
       </c>
       <c r="BF139" s="1"/>
@@ -34356,19 +34425,19 @@
       <c r="BI139" s="1"/>
       <c r="BJ139" s="1"/>
       <c r="BK139" s="82">
-        <f t="shared" ref="BK139:BK142" si="270">BB139-B139</f>
+        <f t="shared" ref="BK139:BK142" si="303">BB139-B139</f>
         <v>-1.7191205210287386E-4</v>
       </c>
       <c r="BL139" s="1"/>
       <c r="BM139" s="1"/>
       <c r="BN139" s="80">
-        <f t="shared" si="266"/>
+        <f t="shared" si="299"/>
         <v>1.7188249834921565E-4</v>
       </c>
       <c r="BO139" s="1"/>
       <c r="BP139" s="1"/>
       <c r="BQ139" s="103">
-        <f t="shared" ref="BQ139:BQ142" si="271">BK139*BN139</f>
+        <f t="shared" ref="BQ139:BQ142" si="304">BK139*BN139</f>
         <v>-2.954867301178249E-8</v>
       </c>
       <c r="BR139" s="1"/>
@@ -34463,42 +34532,42 @@
       <c r="DK139" s="1"/>
       <c r="DL139" s="1"/>
       <c r="DM139" s="80">
-        <f t="shared" ref="DM139:DM142" si="272">BY139</f>
+        <f t="shared" ref="DM139:DM142" si="305">BY139</f>
         <v>-4.2787031067973409E-7</v>
       </c>
       <c r="DN139" s="80">
-        <f t="shared" ref="DN139:DN142" si="273">BZ139</f>
+        <f t="shared" ref="DN139:DN142" si="306">BZ139</f>
         <v>5.544595952706047E-7</v>
       </c>
       <c r="DO139" s="80">
-        <f t="shared" ref="DO139:DO142" si="274">CA139</f>
+        <f t="shared" ref="DO139:DO142" si="307">CA139</f>
         <v>5.2981475100088942E-7</v>
       </c>
       <c r="DQ139" s="1"/>
       <c r="DR139" s="80">
-        <f t="shared" si="267"/>
+        <f t="shared" si="300"/>
         <v>1.1218900716160316E-4</v>
       </c>
       <c r="DS139" s="80">
-        <f t="shared" si="260"/>
+        <f t="shared" si="291"/>
         <v>6.570515166078858E-2</v>
       </c>
       <c r="DT139" s="80">
-        <f t="shared" si="261"/>
+        <f t="shared" si="292"/>
         <v>9.701163482556166E-2</v>
       </c>
       <c r="DU139" s="1"/>
       <c r="DV139" s="1"/>
       <c r="DW139" s="82">
-        <f t="shared" ref="DW139:DW142" si="275">DM139*DR139</f>
+        <f t="shared" ref="DW139:DW142" si="308">DM139*DR139</f>
         <v>-4.8002345349086057E-11</v>
       </c>
       <c r="DX139" s="82">
-        <f t="shared" ref="DX139:DX142" si="276">DN139*DS139</f>
+        <f t="shared" ref="DX139:DX142" si="309">DN139*DS139</f>
         <v>3.6430851797034537E-8</v>
       </c>
       <c r="DY139" s="82">
-        <f t="shared" ref="DY139:DY142" si="277">DO139*DT139</f>
+        <f t="shared" ref="DY139:DY142" si="310">DO139*DT139</f>
         <v>5.1398195149294163E-8</v>
       </c>
       <c r="EA139" s="2"/>
@@ -34647,15 +34716,15 @@
       <c r="AF140" s="22"/>
       <c r="AG140" s="22"/>
       <c r="AH140" s="99">
-        <f t="shared" si="264"/>
+        <f t="shared" si="297"/>
         <v>0.99897771899550802</v>
       </c>
       <c r="AI140" s="99">
-        <f t="shared" si="258"/>
+        <f t="shared" si="288"/>
         <v>0.47231186144418341</v>
       </c>
       <c r="AJ140" s="99">
-        <f t="shared" si="259"/>
+        <f t="shared" si="289"/>
         <v>1.5623083166424212E-3</v>
       </c>
       <c r="AK140" s="10"/>
@@ -34684,13 +34753,13 @@
       <c r="AZ140" s="1"/>
       <c r="BA140" s="1"/>
       <c r="BB140" s="80">
-        <f t="shared" si="268"/>
+        <f t="shared" si="301"/>
         <v>0.95448897468330995</v>
       </c>
       <c r="BC140" s="1"/>
       <c r="BD140" s="1"/>
       <c r="BE140" s="87">
-        <f t="shared" si="269"/>
+        <f t="shared" si="302"/>
         <v>2.0712534253764024E-3</v>
       </c>
       <c r="BF140" s="1"/>
@@ -34699,19 +34768,19 @@
       <c r="BI140" s="1"/>
       <c r="BJ140" s="1"/>
       <c r="BK140" s="82">
-        <f t="shared" si="270"/>
+        <f t="shared" si="303"/>
         <v>-4.5511025316690046E-2</v>
       </c>
       <c r="BL140" s="1"/>
       <c r="BM140" s="1"/>
       <c r="BN140" s="80">
-        <f t="shared" si="266"/>
+        <f t="shared" si="299"/>
         <v>4.3439771891313643E-2</v>
       </c>
       <c r="BO140" s="1"/>
       <c r="BP140" s="1"/>
       <c r="BQ140" s="103">
-        <f t="shared" si="271"/>
+        <f t="shared" si="304"/>
         <v>-1.9769885582968157E-3</v>
       </c>
       <c r="BR140" s="1"/>
@@ -34783,42 +34852,42 @@
       <c r="DK140" s="1"/>
       <c r="DL140" s="1"/>
       <c r="DM140" s="80">
-        <f t="shared" si="272"/>
+        <f t="shared" si="305"/>
         <v>-2.8627164012117866E-2</v>
       </c>
       <c r="DN140" s="80">
-        <f t="shared" si="273"/>
+        <f t="shared" si="306"/>
         <v>3.7096768286371998E-2</v>
       </c>
       <c r="DO140" s="80">
-        <f t="shared" si="274"/>
+        <f t="shared" si="307"/>
         <v>3.5447876130612378E-2</v>
       </c>
       <c r="DQ140" s="1"/>
       <c r="DR140" s="80">
-        <f t="shared" si="267"/>
+        <f t="shared" si="300"/>
         <v>1.021235946039831E-3</v>
       </c>
       <c r="DS140" s="80">
-        <f t="shared" si="260"/>
+        <f t="shared" si="291"/>
         <v>0.24923336698331389</v>
       </c>
       <c r="DT140" s="80">
-        <f t="shared" si="261"/>
+        <f t="shared" si="292"/>
         <v>1.5598675093661711E-3</v>
       </c>
       <c r="DU140" s="1"/>
       <c r="DV140" s="1"/>
       <c r="DW140" s="82">
-        <f t="shared" si="275"/>
+        <f t="shared" si="308"/>
         <v>-2.9235088922352592E-5</v>
       </c>
       <c r="DX140" s="82">
-        <f t="shared" si="276"/>
+        <f t="shared" si="309"/>
         <v>9.2457524642123121E-3</v>
       </c>
       <c r="DY140" s="82">
-        <f t="shared" si="277"/>
+        <f t="shared" si="310"/>
         <v>5.5293990252178882E-5</v>
       </c>
       <c r="EA140" s="2"/>
@@ -34947,15 +35016,15 @@
       <c r="AF141" s="22"/>
       <c r="AG141" s="22"/>
       <c r="AH141" s="99">
-        <f t="shared" si="264"/>
+        <f t="shared" si="297"/>
         <v>5.1759155508689239E-3</v>
       </c>
       <c r="AI141" s="99">
-        <f t="shared" si="258"/>
+        <f t="shared" si="288"/>
         <v>2.2430338788359838E-3</v>
       </c>
       <c r="AJ141" s="99">
-        <f t="shared" si="259"/>
+        <f t="shared" si="289"/>
         <v>0.14216144765641939</v>
       </c>
       <c r="AK141" s="1"/>
@@ -34982,13 +35051,13 @@
       <c r="AZ141" s="1"/>
       <c r="BA141" s="1"/>
       <c r="BB141" s="80">
-        <f t="shared" si="268"/>
+        <f t="shared" si="301"/>
         <v>6.3831680581591058E-3</v>
       </c>
       <c r="BC141" s="1"/>
       <c r="BD141" s="1"/>
       <c r="BE141" s="87">
-        <f t="shared" si="269"/>
+        <f t="shared" si="302"/>
         <v>4.0744834458702693E-5</v>
       </c>
       <c r="BF141" s="1"/>
@@ -34997,19 +35066,19 @@
       <c r="BI141" s="1"/>
       <c r="BJ141" s="1"/>
       <c r="BK141" s="82">
-        <f t="shared" si="270"/>
+        <f t="shared" si="303"/>
         <v>6.3831680581591058E-3</v>
       </c>
       <c r="BL141" s="1"/>
       <c r="BM141" s="1"/>
       <c r="BN141" s="80">
-        <f t="shared" si="266"/>
+        <f t="shared" si="299"/>
         <v>6.3424232237004035E-3</v>
       </c>
       <c r="BO141" s="1"/>
       <c r="BP141" s="1"/>
       <c r="BQ141" s="103">
-        <f t="shared" si="271"/>
+        <f t="shared" si="304"/>
         <v>4.0484753332850921E-5</v>
       </c>
       <c r="BR141" s="1"/>
@@ -35069,42 +35138,42 @@
       <c r="DK141" s="1"/>
       <c r="DL141" s="1"/>
       <c r="DM141" s="80">
-        <f t="shared" si="272"/>
+        <f t="shared" si="305"/>
         <v>5.8622679872670134E-4</v>
       </c>
       <c r="DN141" s="80">
-        <f t="shared" si="273"/>
+        <f t="shared" si="306"/>
         <v>-7.5966727638198891E-4</v>
       </c>
       <c r="DO141" s="80">
-        <f t="shared" si="274"/>
+        <f t="shared" si="307"/>
         <v>-7.2590127813265638E-4</v>
       </c>
       <c r="DQ141" s="1"/>
       <c r="DR141" s="80">
-        <f t="shared" si="267"/>
+        <f t="shared" si="300"/>
         <v>5.1491254490791975E-3</v>
       </c>
       <c r="DS141" s="80">
-        <f t="shared" si="260"/>
+        <f t="shared" si="291"/>
         <v>2.2380026778543779E-3</v>
       </c>
       <c r="DT141" s="80">
-        <f t="shared" si="261"/>
+        <f t="shared" si="292"/>
         <v>0.12195157045665052</v>
       </c>
       <c r="DU141" s="1"/>
       <c r="DV141" s="1"/>
       <c r="DW141" s="82">
-        <f t="shared" si="275"/>
+        <f t="shared" si="308"/>
         <v>3.0185553282558865E-6</v>
       </c>
       <c r="DX141" s="82">
-        <f t="shared" si="276"/>
+        <f t="shared" si="309"/>
         <v>-1.7001373988212329E-6</v>
       </c>
       <c r="DY141" s="82">
-        <f t="shared" si="277"/>
+        <f t="shared" si="310"/>
         <v>-8.8524800864767306E-5</v>
       </c>
       <c r="EA141" s="2"/>
@@ -35245,15 +35314,15 @@
         <v>32</v>
       </c>
       <c r="AH142" s="99">
-        <f t="shared" si="264"/>
+        <f t="shared" si="297"/>
         <v>0.99999943149406645</v>
       </c>
       <c r="AI142" s="99">
-        <f t="shared" si="258"/>
+        <f t="shared" si="288"/>
         <v>0.11390149819076408</v>
       </c>
       <c r="AJ142" s="99">
-        <f t="shared" si="259"/>
+        <f t="shared" si="289"/>
         <v>0.25283017294738896</v>
       </c>
       <c r="AK142" s="1"/>
@@ -35286,7 +35355,7 @@
         <v>32</v>
       </c>
       <c r="BB142" s="80">
-        <f t="shared" si="268"/>
+        <f t="shared" si="301"/>
         <v>0.99492346072993232</v>
       </c>
       <c r="BC142" s="1"/>
@@ -35294,7 +35363,7 @@
         <v>32</v>
       </c>
       <c r="BE142" s="87">
-        <f t="shared" si="269"/>
+        <f t="shared" si="302"/>
         <v>2.5771250960539308E-5</v>
       </c>
       <c r="BF142" s="1"/>
@@ -35305,7 +35374,7 @@
         <v>32</v>
       </c>
       <c r="BK142" s="82">
-        <f t="shared" si="270"/>
+        <f t="shared" si="303"/>
         <v>-5.0765392700676815E-3</v>
       </c>
       <c r="BL142" s="1"/>
@@ -35313,7 +35382,7 @@
         <v>32</v>
       </c>
       <c r="BN142" s="80">
-        <f t="shared" si="266"/>
+        <f t="shared" si="299"/>
         <v>5.0507680191071418E-3</v>
       </c>
       <c r="BO142" s="1"/>
@@ -35321,7 +35390,7 @@
         <v>32</v>
       </c>
       <c r="BQ142" s="103">
-        <f t="shared" si="271"/>
+        <f t="shared" si="304"/>
         <v>-2.564042219299936E-5</v>
       </c>
       <c r="BR142" s="1"/>
@@ -35385,30 +35454,30 @@
         <v>32</v>
       </c>
       <c r="DM142" s="80">
-        <f t="shared" si="272"/>
+        <f t="shared" si="305"/>
         <v>-3.7127810799840672E-4</v>
       </c>
       <c r="DN142" s="80">
-        <f t="shared" si="273"/>
+        <f t="shared" si="306"/>
         <v>4.8112407978622308E-4</v>
       </c>
       <c r="DO142" s="80">
-        <f t="shared" si="274"/>
+        <f t="shared" si="307"/>
         <v>4.5973888215977633E-4</v>
       </c>
       <c r="DQ142" s="1" t="s">
         <v>32</v>
       </c>
       <c r="DR142" s="80">
-        <f t="shared" si="267"/>
+        <f t="shared" si="300"/>
         <v>5.6850561035240325E-7</v>
       </c>
       <c r="DS142" s="80">
-        <f t="shared" si="260"/>
+        <f t="shared" si="291"/>
         <v>0.10092794690066344</v>
       </c>
       <c r="DT142" s="80">
-        <f t="shared" si="261"/>
+        <f t="shared" si="292"/>
         <v>0.18890707659478234</v>
       </c>
       <c r="DU142" s="1"/>
@@ -35416,15 +35485,15 @@
         <v>32</v>
       </c>
       <c r="DW142" s="82">
-        <f t="shared" si="275"/>
+        <f t="shared" si="308"/>
         <v>-2.1107368739811969E-10</v>
       </c>
       <c r="DX142" s="82">
-        <f t="shared" si="276"/>
+        <f t="shared" si="309"/>
         <v>4.8558865577294483E-5</v>
       </c>
       <c r="DY142" s="82">
-        <f t="shared" si="277"/>
+        <f t="shared" si="310"/>
         <v>8.6847928225756475E-5</v>
       </c>
       <c r="EA142" s="2"/>
